--- a/Projects/Example/Profile_selection/Select_tariff_files_to_include.xlsx
+++ b/Projects/Example/Profile_selection/Select_tariff_files_to_include.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9700" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9909" uniqueCount="2071">
   <si>
     <t>label</t>
   </si>
@@ -6466,6 +6466,184 @@
   </si>
   <si>
     <t>Filtered</t>
+  </si>
+  <si>
+    <t>5a678e2f5457a35c0ce4a645</t>
+  </si>
+  <si>
+    <t>Residential Service (Schedule R)</t>
+  </si>
+  <si>
+    <t>Public Service Co of Colorado</t>
+  </si>
+  <si>
+    <t>Applicable to Residential Service at Secondary Voltage. Not applicable to_x000D_
+Supplemental, Standby or Resale Service.</t>
+  </si>
+  <si>
+    <t>http://www.xcelenergy.com/staticfiles/xe/PDF/Regulatory/CO-Rates-&amp;-Regulations-Entire-Electric-Book.pdf</t>
+  </si>
+  <si>
+    <t>https://www.xcelenergy.com/company/rates_and_regulations/rates/rate_books</t>
+  </si>
+  <si>
+    <t>Adjustments = Earnings Share adjustment + Demand Side Management Cost adjustment + Purchased Capacity Cost adjustment + Transmission Cost adjustment + Electric Commodity adjustment + Clean Air-Clean Jobs Act rider + Renewable Energy Standard adjustment</t>
+  </si>
+  <si>
+    <t>589a123a5457a330681a7904</t>
+  </si>
+  <si>
+    <t>5a6794275457a3f609e4a645</t>
+  </si>
+  <si>
+    <t>Residential Demand Service (Schedule RD)</t>
+  </si>
+  <si>
+    <t>Applicable to Residential service. Not applicable to standby_x000D_
+or resale service.</t>
+  </si>
+  <si>
+    <t>589a13d05457a3a21b1a7903</t>
+  </si>
+  <si>
+    <t>5a6b8b6e5457a33b75e4a644</t>
+  </si>
+  <si>
+    <t>Residential Demand - Time Differentiated Rates (Schedule RD-TDR)</t>
+  </si>
+  <si>
+    <t>In 2017, service under this rate schedule shall be limited to the first 10,000_x000D_
+Residential Customers electing to receive service. This total participation cap will_x000D_
+increase to 14,000 Residential Customers in 2018 and 18,000 Residential Customers_x000D_
+in 2019. Upon notification by a Customer that Customer is requesting service, the_x000D_
+Company will install the proper Service Meter to allow the Company to measure_x000D_
+service hereunder.</t>
+  </si>
+  <si>
+    <t>https://www.xcelenergy.com/staticfiles/xe/PDF/Regulatory/CO-Rates-&amp;-Regulations-Entire-Electric-Book.pdf</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0]]</t>
+  </si>
+  <si>
+    <t>589a18935457a3ce1d1a7903</t>
+  </si>
+  <si>
+    <t>5a6b8d065457a33b75e4a645</t>
+  </si>
+  <si>
+    <t>Residential Time Of Use (Schedule R-TOU)</t>
+  </si>
+  <si>
+    <t>Required for any Customer on Schedule R whose meter is switched such that_x000D_
+the Customer's energy use can be metered on a time-of-use basis. The meter switch_x000D_
+may take place for one of two reasons, either the Customer voluntarily participates in_x000D_
+Schedule RE-TOU or the Customer's meter is exchanged and upgraded through an_x000D_
+approved meter roll-out. Any Customer whose service is transferred from Schedule R_x000D_
+to Schedule RE-TOU as a result of meeting this condition will be notified of the_x000D_
+transfer before the first billing to the Customer under Schedule RE-TOU.</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 4, 4, 4, 4, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 4, 4, 4, 4, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 4, 4, 4, 4, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 4, 4, 4, 4, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0]]</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0]]</t>
+  </si>
+  <si>
+    <t>589a18d45457a3a11b1a7903</t>
+  </si>
+  <si>
+    <t>5a6b8f465457a31a73e4a644</t>
+  </si>
+  <si>
+    <t>Commercial Service (Schedule C)</t>
+  </si>
+  <si>
+    <t>Applicable to customers whose demands are less than 25 kW for electric power service supplied at secondary distribution_x000D_
+voltage.</t>
+  </si>
+  <si>
+    <t>589a27f85457a3a01b1a7903</t>
+  </si>
+  <si>
+    <t>5a6b91225457a3285de4a644</t>
+  </si>
+  <si>
+    <t>Secondary General Service (Schedule SG)</t>
+  </si>
+  <si>
+    <t>Applicable to electric power service supplied at secondary_x000D_
+voltage. Not applicable to standby or resale service._x000D_
+_x000D_
+This rate schedule is subject to all applicable Electric_x000D_
+Rate Adjustments as on file and in effect in this tariff.</t>
+  </si>
+  <si>
+    <t>589a29905457a3750c1a7903</t>
+  </si>
+  <si>
+    <t>5a6b921b5457a3c650e4a644</t>
+  </si>
+  <si>
+    <t>Secondary General Low Load Factor (Schedule SGL)</t>
+  </si>
+  <si>
+    <t>589a2c365457a3a21b1a7904</t>
+  </si>
+  <si>
+    <t>5a6b93855457a3b15be4a644</t>
+  </si>
+  <si>
+    <t>Secondary Time of Use Service (Schedule STOU)</t>
+  </si>
+  <si>
+    <t>Applicable to electric power service supplied at_x000D_
+secondary voltage. Not applicable to standby or resale_x000D_
+service._x000D_
+_x000D_
+This rate schedule is subject to all applicable Electric_x000D_
+Adjustments as on file and in effect in this tariff.</t>
+  </si>
+  <si>
+    <t>http://www.xcelenergy.com/staticfiles/xe/Regulatory/Regulatory%20PDFs/psco_elec_entire_tariff.pdf</t>
+  </si>
+  <si>
+    <t>[[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]]</t>
+  </si>
+  <si>
+    <t>589a34f55457a3a11b1a7904</t>
+  </si>
+  <si>
+    <t>5a6b955b5457a3285de4a645</t>
+  </si>
+  <si>
+    <t>Secondary Photovoltaic Time Of Use Schedule (SPVTOU)</t>
+  </si>
+  <si>
+    <t>AVAILABILITY_x000D_
+Available to Customers with a minimum average Monthly Load Factor of thirty_x000D_
+percent (30%) as measured for the previous twelve (12) consecutive Months. Once a_x000D_
+Customer requesting service under this tariff demonstrates a Load Factor of at least_x000D_
+thirty percent (30%) and is deemed eligible for service under the tariff, then the_x000D_
+Customer can remain on the schedule even if the Customer's Load Factor subsequently_x000D_
+falls below thirty percent (30%). Eligibility qualifications for new construction for_x000D_
+SPVTOU where twelve (12) Months of historical usage is unavailable will be reviewed_x000D_
+based on the submitted Electric Load forecast as part of the solar application._x000D_
+Notwithstanding the above, available to those six (6) irrigation Customer loads_x000D_
+where a PV System was installed prior to January 1, 2010. The annual amount of new_x000D_
+capacity eligible to take service under Section A is capped at the projected amount of_x000D_
+on-site PV system capacity for medium size facilities (10 kW ' 500 kW) in the_x000D_
+Company's Solar*Rewards' program._x000D_
+The annual incremental load eligible for service under Section B will be capped_x000D_
+at the annual PV capacity limit approved for the Solar*Rewards' Medium program for_x000D_
+the same Year. If in a calendar Year the Company has new participants in the SPVTOU_x000D_
+tariff totaling thirty-six (36) Megawatts in aggregate noncoincident demand, the_x000D_
+Company will temporarily suspend the SPVTOU tariff to new entrants and convene a_x000D_
+meeting of the Existing Voluntary Renewable Stakeholder Group to discuss the issue_x000D_
+and seek a resolution.</t>
+  </si>
+  <si>
+    <t>589a388b5457a3954a1a7903</t>
   </si>
 </sst>
 </file>
@@ -6509,11 +6687,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6979,11 +7160,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC0C7C9-FAB4-4241-A60F-19B4127DC645}">
-  <dimension ref="A1:SW28"/>
+  <dimension ref="A1:SW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:517" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8605,7 +8792,7 @@
       <c r="SH2" t="s">
         <v>599</v>
       </c>
-      <c r="SW2">
+      <c r="SW2" s="6">
         <v>42153.5315625</v>
       </c>
     </row>
@@ -8688,7 +8875,7 @@
       <c r="SI3" t="s">
         <v>613</v>
       </c>
-      <c r="SW3">
+      <c r="SW3" s="6">
         <v>42846.567025462966</v>
       </c>
     </row>
@@ -8771,7 +8958,7 @@
       <c r="SI4" t="s">
         <v>617</v>
       </c>
-      <c r="SW4">
+      <c r="SW4" s="6">
         <v>42846.572870370372</v>
       </c>
     </row>
@@ -8854,7 +9041,7 @@
       <c r="SI5" t="s">
         <v>619</v>
       </c>
-      <c r="SW5">
+      <c r="SW5" s="6">
         <v>42846.574641203704</v>
       </c>
     </row>
@@ -8934,7 +9121,7 @@
       <c r="SI6" t="s">
         <v>614</v>
       </c>
-      <c r="SW6">
+      <c r="SW6" s="6">
         <v>42846.576817129629</v>
       </c>
     </row>
@@ -9026,7 +9213,7 @@
       <c r="SI7" t="s">
         <v>620</v>
       </c>
-      <c r="SW7">
+      <c r="SW7" s="6">
         <v>42846.581388888888</v>
       </c>
     </row>
@@ -9094,7 +9281,7 @@
       <c r="SI8" t="s">
         <v>578</v>
       </c>
-      <c r="SW8">
+      <c r="SW8" s="6">
         <v>42846.584050925929</v>
       </c>
     </row>
@@ -9174,7 +9361,7 @@
       <c r="SI9" t="s">
         <v>609</v>
       </c>
-      <c r="SW9">
+      <c r="SW9" s="6">
         <v>42846.586631944447</v>
       </c>
     </row>
@@ -9368,7 +9555,7 @@
       <c r="SI10" t="s">
         <v>622</v>
       </c>
-      <c r="SW10">
+      <c r="SW10" s="6">
         <v>43053.364745370367</v>
       </c>
     </row>
@@ -9559,7 +9746,7 @@
       <c r="SI11" t="s">
         <v>624</v>
       </c>
-      <c r="SW11">
+      <c r="SW11" s="6">
         <v>43053.363437499997</v>
       </c>
     </row>
@@ -9744,7 +9931,7 @@
       <c r="SI12" t="s">
         <v>625</v>
       </c>
-      <c r="SW12">
+      <c r="SW12" s="6">
         <v>42846.601273148146</v>
       </c>
     </row>
@@ -9899,7 +10086,7 @@
       <c r="SI13" t="s">
         <v>627</v>
       </c>
-      <c r="SW13">
+      <c r="SW13" s="6">
         <v>42846.608124999999</v>
       </c>
     </row>
@@ -10057,7 +10244,7 @@
       <c r="SI14" t="s">
         <v>631</v>
       </c>
-      <c r="SW14">
+      <c r="SW14" s="6">
         <v>42846.61241898148</v>
       </c>
     </row>
@@ -10188,7 +10375,7 @@
       <c r="SI15" t="s">
         <v>632</v>
       </c>
-      <c r="SW15">
+      <c r="SW15" s="6">
         <v>42846.616574074076</v>
       </c>
     </row>
@@ -10316,7 +10503,7 @@
       <c r="SI16" t="s">
         <v>634</v>
       </c>
-      <c r="SW16">
+      <c r="SW16" s="6">
         <v>42846.61855324074</v>
       </c>
     </row>
@@ -10441,7 +10628,7 @@
       <c r="SI17" t="s">
         <v>635</v>
       </c>
-      <c r="SW17">
+      <c r="SW17" s="6">
         <v>42846.620578703703</v>
       </c>
     </row>
@@ -10569,7 +10756,7 @@
       <c r="SI18" t="s">
         <v>636</v>
       </c>
-      <c r="SW18">
+      <c r="SW18" s="6">
         <v>42846.62222222222</v>
       </c>
     </row>
@@ -10634,7 +10821,7 @@
       <c r="SK19" t="s">
         <v>574</v>
       </c>
-      <c r="SW19">
+      <c r="SW19" s="6">
         <v>43083.618715277778</v>
       </c>
     </row>
@@ -10711,7 +10898,7 @@
       <c r="SI20" t="s">
         <v>1575</v>
       </c>
-      <c r="SW20">
+      <c r="SW20" s="6">
         <v>43083.65520833333</v>
       </c>
     </row>
@@ -10791,7 +10978,7 @@
       <c r="SI21" t="s">
         <v>1584</v>
       </c>
-      <c r="SW21">
+      <c r="SW21" s="6">
         <v>43083.657847222225</v>
       </c>
     </row>
@@ -10871,7 +11058,7 @@
       <c r="SI22" t="s">
         <v>753</v>
       </c>
-      <c r="SW22">
+      <c r="SW22" s="6">
         <v>43083.685925925929</v>
       </c>
     </row>
@@ -10948,7 +11135,7 @@
       <c r="SI23" t="s">
         <v>1341</v>
       </c>
-      <c r="SW23">
+      <c r="SW23" s="6">
         <v>43083.688020833331</v>
       </c>
     </row>
@@ -11028,7 +11215,7 @@
       <c r="SI24" t="s">
         <v>749</v>
       </c>
-      <c r="SW24">
+      <c r="SW24" s="6">
         <v>43083.689166666663</v>
       </c>
     </row>
@@ -11105,7 +11292,7 @@
       <c r="SI25" t="s">
         <v>1592</v>
       </c>
-      <c r="SW25">
+      <c r="SW25" s="6">
         <v>43083.690023148149</v>
       </c>
     </row>
@@ -11224,7 +11411,7 @@
       <c r="SI26" t="s">
         <v>1599</v>
       </c>
-      <c r="SW26">
+      <c r="SW26" s="6">
         <v>43084.446018518516</v>
       </c>
     </row>
@@ -11367,7 +11554,7 @@
       <c r="SI27" t="s">
         <v>1630</v>
       </c>
-      <c r="SW27">
+      <c r="SW27" s="6">
         <v>43084.460439814815</v>
       </c>
     </row>
@@ -11507,8 +11694,7617 @@
       <c r="SI28" t="s">
         <v>510</v>
       </c>
-      <c r="SW28">
+      <c r="SW28" s="6">
         <v>43084.562291666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+      <c r="BL29" s="4"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="4"/>
+      <c r="BR29" s="4"/>
+      <c r="BS29" s="4"/>
+      <c r="BT29" s="4"/>
+      <c r="BU29" s="4"/>
+      <c r="BV29" s="4"/>
+      <c r="BW29" s="4"/>
+      <c r="BX29" s="4"/>
+      <c r="BY29" s="4"/>
+      <c r="BZ29" s="4"/>
+      <c r="CA29" s="4"/>
+      <c r="CB29" s="4"/>
+      <c r="CC29" s="4"/>
+      <c r="CD29" s="4"/>
+      <c r="CE29" s="4"/>
+      <c r="CF29" s="4"/>
+      <c r="CG29" s="4"/>
+      <c r="CH29" s="4"/>
+      <c r="CI29" s="4"/>
+      <c r="CJ29" s="4"/>
+      <c r="CK29" s="4"/>
+      <c r="CL29" s="4"/>
+      <c r="CM29" s="4"/>
+      <c r="CN29" s="4"/>
+      <c r="CO29" s="4"/>
+      <c r="CP29" s="4"/>
+      <c r="CQ29" s="4"/>
+      <c r="CR29" s="4"/>
+      <c r="CS29" s="4"/>
+      <c r="CT29" s="4"/>
+      <c r="CU29" s="4"/>
+      <c r="CV29" s="4"/>
+      <c r="CW29" s="4"/>
+      <c r="CX29" s="4"/>
+      <c r="CY29" s="4"/>
+      <c r="CZ29" s="4"/>
+      <c r="DA29" s="4"/>
+      <c r="DB29" s="4"/>
+      <c r="DC29" s="4"/>
+      <c r="DD29" s="4"/>
+      <c r="DE29" s="4"/>
+      <c r="DF29" s="4"/>
+      <c r="DG29" s="4"/>
+      <c r="DH29" s="4"/>
+      <c r="DI29" s="4"/>
+      <c r="DJ29" s="4"/>
+      <c r="DK29" s="4"/>
+      <c r="DL29" s="4"/>
+      <c r="DM29" s="4"/>
+      <c r="DN29" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO29" s="4"/>
+      <c r="DP29" s="4"/>
+      <c r="DQ29" s="4"/>
+      <c r="DR29" s="4"/>
+      <c r="DS29" s="4"/>
+      <c r="DT29" s="4"/>
+      <c r="DU29" s="4"/>
+      <c r="DV29" s="4"/>
+      <c r="DW29" s="4"/>
+      <c r="DX29" s="4"/>
+      <c r="DY29" s="4"/>
+      <c r="DZ29" s="4"/>
+      <c r="EA29" s="4"/>
+      <c r="EB29" s="4"/>
+      <c r="EC29" s="4"/>
+      <c r="ED29" s="4"/>
+      <c r="EE29" s="4"/>
+      <c r="EF29" s="4"/>
+      <c r="EG29" s="4"/>
+      <c r="EH29" s="4"/>
+      <c r="EI29" s="4"/>
+      <c r="EJ29" s="4"/>
+      <c r="EK29" s="4"/>
+      <c r="EL29" s="4"/>
+      <c r="EM29" s="4"/>
+      <c r="EN29" s="4"/>
+      <c r="EO29" s="4"/>
+      <c r="EP29" s="4"/>
+      <c r="EQ29" s="4"/>
+      <c r="ER29" s="4"/>
+      <c r="ES29" s="4"/>
+      <c r="ET29" s="4"/>
+      <c r="EU29" s="4"/>
+      <c r="EV29" s="4"/>
+      <c r="EW29" s="4"/>
+      <c r="EX29" s="4"/>
+      <c r="EY29" s="4"/>
+      <c r="EZ29" s="4"/>
+      <c r="FA29" s="4"/>
+      <c r="FB29" s="4"/>
+      <c r="FC29" s="4"/>
+      <c r="FD29" s="4"/>
+      <c r="FE29" s="4"/>
+      <c r="FF29" s="4"/>
+      <c r="FG29" s="4"/>
+      <c r="FH29" s="4"/>
+      <c r="FI29" s="4"/>
+      <c r="FJ29" s="4"/>
+      <c r="FK29" s="4"/>
+      <c r="FL29" s="4"/>
+      <c r="FM29" s="4"/>
+      <c r="FN29" s="4"/>
+      <c r="FO29" s="4"/>
+      <c r="FP29" s="4"/>
+      <c r="FQ29" s="4"/>
+      <c r="FR29" s="4"/>
+      <c r="FS29" s="4"/>
+      <c r="FT29" s="4"/>
+      <c r="FU29" s="4"/>
+      <c r="FV29" s="4"/>
+      <c r="FW29" s="4"/>
+      <c r="FX29" s="4"/>
+      <c r="FY29" s="4"/>
+      <c r="FZ29" s="4"/>
+      <c r="GA29" s="4"/>
+      <c r="GB29" s="4"/>
+      <c r="GC29" s="4"/>
+      <c r="GD29" s="4"/>
+      <c r="GE29" s="4"/>
+      <c r="GF29" s="4"/>
+      <c r="GG29" s="4"/>
+      <c r="GH29" s="4"/>
+      <c r="GI29" s="4"/>
+      <c r="GJ29" s="4"/>
+      <c r="GK29" s="4"/>
+      <c r="GL29" s="4"/>
+      <c r="GM29" s="4"/>
+      <c r="GN29" s="4"/>
+      <c r="GO29" s="4"/>
+      <c r="GP29" s="4"/>
+      <c r="GQ29" s="4"/>
+      <c r="GR29" s="4"/>
+      <c r="GS29" s="4"/>
+      <c r="GT29" s="4"/>
+      <c r="GU29" s="4"/>
+      <c r="GV29" s="4"/>
+      <c r="GW29" s="4"/>
+      <c r="GX29" s="4"/>
+      <c r="GY29" s="4"/>
+      <c r="GZ29" s="4"/>
+      <c r="HA29" s="4"/>
+      <c r="HB29" s="4"/>
+      <c r="HC29" s="4"/>
+      <c r="HD29" s="4"/>
+      <c r="HE29" s="4"/>
+      <c r="HF29" s="4"/>
+      <c r="HG29" s="4"/>
+      <c r="HH29" s="4"/>
+      <c r="HI29" s="4"/>
+      <c r="HJ29" s="4"/>
+      <c r="HK29" s="4"/>
+      <c r="HL29" s="4"/>
+      <c r="HM29" s="4"/>
+      <c r="HN29" s="4"/>
+      <c r="HO29" s="4"/>
+      <c r="HP29" s="4"/>
+      <c r="HQ29" s="4"/>
+      <c r="HR29" s="4"/>
+      <c r="HS29" s="4"/>
+      <c r="HT29" s="4"/>
+      <c r="HU29" s="4"/>
+      <c r="HV29" s="4"/>
+      <c r="HW29" s="4"/>
+      <c r="HX29" s="4"/>
+      <c r="HY29" s="4"/>
+      <c r="HZ29" s="4"/>
+      <c r="IA29" s="4"/>
+      <c r="IB29" s="4"/>
+      <c r="IC29" s="4"/>
+      <c r="ID29" s="4"/>
+      <c r="IE29" s="4"/>
+      <c r="IF29" s="4"/>
+      <c r="IG29" s="4"/>
+      <c r="IH29" s="4"/>
+      <c r="II29" s="4"/>
+      <c r="IJ29" s="4"/>
+      <c r="IK29" s="4"/>
+      <c r="IL29" s="4"/>
+      <c r="IM29" s="4"/>
+      <c r="IN29" s="4"/>
+      <c r="IO29" s="4"/>
+      <c r="IP29" s="4"/>
+      <c r="IQ29" s="4"/>
+      <c r="IR29" s="4"/>
+      <c r="IS29" s="4"/>
+      <c r="IT29" s="4"/>
+      <c r="IU29" s="4"/>
+      <c r="IV29" s="4"/>
+      <c r="IW29" s="4"/>
+      <c r="IX29" s="4"/>
+      <c r="IY29" s="4"/>
+      <c r="IZ29" s="4"/>
+      <c r="JA29" s="4"/>
+      <c r="JB29" s="4"/>
+      <c r="JC29" s="4"/>
+      <c r="JD29" s="4"/>
+      <c r="JE29" s="4"/>
+      <c r="JF29" s="4"/>
+      <c r="JG29" s="4"/>
+      <c r="JH29" s="4"/>
+      <c r="JI29" s="4"/>
+      <c r="JJ29" s="4"/>
+      <c r="JK29" s="4">
+        <v>5.4609999999999999E-2</v>
+      </c>
+      <c r="JL29" s="4">
+        <v>4.0447700000000003E-2</v>
+      </c>
+      <c r="JM29" s="4"/>
+      <c r="JN29" s="4"/>
+      <c r="JO29" s="4"/>
+      <c r="JP29" s="4"/>
+      <c r="JQ29" s="4"/>
+      <c r="JR29" s="4"/>
+      <c r="JS29" s="4"/>
+      <c r="JT29" s="4"/>
+      <c r="JU29" s="4"/>
+      <c r="JV29" s="4"/>
+      <c r="JW29" s="4"/>
+      <c r="JX29" s="4"/>
+      <c r="JY29" s="4"/>
+      <c r="JZ29" s="4"/>
+      <c r="KA29" s="4"/>
+      <c r="KB29" s="4"/>
+      <c r="KC29" s="4"/>
+      <c r="KD29" s="4"/>
+      <c r="KE29" s="4"/>
+      <c r="KF29" s="4"/>
+      <c r="KG29" s="4"/>
+      <c r="KH29" s="4"/>
+      <c r="KI29" s="4"/>
+      <c r="KJ29" s="4"/>
+      <c r="KK29" s="4"/>
+      <c r="KL29" s="4"/>
+      <c r="KM29" s="4"/>
+      <c r="KN29" s="4"/>
+      <c r="KO29" s="4"/>
+      <c r="KP29" s="4"/>
+      <c r="KQ29" s="4"/>
+      <c r="KR29" s="4"/>
+      <c r="KS29" s="4"/>
+      <c r="KT29" s="4"/>
+      <c r="KU29" s="4"/>
+      <c r="KV29" s="4"/>
+      <c r="KW29" s="4"/>
+      <c r="KX29" s="4"/>
+      <c r="KY29" s="4"/>
+      <c r="KZ29" s="4"/>
+      <c r="LA29" s="4"/>
+      <c r="LB29" s="4">
+        <v>500</v>
+      </c>
+      <c r="LC29" s="4">
+        <v>5.4609999999999999E-2</v>
+      </c>
+      <c r="LD29" s="4">
+        <v>4.0447700000000003E-2</v>
+      </c>
+      <c r="LE29" s="4"/>
+      <c r="LF29" s="4"/>
+      <c r="LG29" s="4">
+        <v>9.9019999999999997E-2</v>
+      </c>
+      <c r="LH29" s="4">
+        <v>4.1389200000000001E-2</v>
+      </c>
+      <c r="LI29" s="4"/>
+      <c r="LJ29" s="4"/>
+      <c r="LK29" s="4"/>
+      <c r="LL29" s="4"/>
+      <c r="LM29" s="4"/>
+      <c r="LN29" s="4"/>
+      <c r="LO29" s="4"/>
+      <c r="LP29" s="4"/>
+      <c r="LQ29" s="4"/>
+      <c r="LR29" s="4"/>
+      <c r="LS29" s="4"/>
+      <c r="LT29" s="4"/>
+      <c r="LU29" s="4"/>
+      <c r="LV29" s="4"/>
+      <c r="LW29" s="4"/>
+      <c r="LX29" s="4"/>
+      <c r="LY29" s="4"/>
+      <c r="LZ29" s="4"/>
+      <c r="MA29" s="4"/>
+      <c r="MB29" s="4"/>
+      <c r="MC29" s="4"/>
+      <c r="MD29" s="4"/>
+      <c r="ME29" s="4"/>
+      <c r="MF29" s="4"/>
+      <c r="MG29" s="4"/>
+      <c r="MH29" s="4"/>
+      <c r="MI29" s="4"/>
+      <c r="MJ29" s="4"/>
+      <c r="MK29" s="4"/>
+      <c r="ML29" s="4"/>
+      <c r="MM29" s="4"/>
+      <c r="MN29" s="4"/>
+      <c r="MO29" s="4"/>
+      <c r="MP29" s="4"/>
+      <c r="MQ29" s="4"/>
+      <c r="MR29" s="4"/>
+      <c r="MS29" s="4"/>
+      <c r="MT29" s="4"/>
+      <c r="MU29" s="4"/>
+      <c r="MV29" s="4"/>
+      <c r="MW29" s="4"/>
+      <c r="MX29" s="4"/>
+      <c r="MY29" s="4"/>
+      <c r="MZ29" s="4"/>
+      <c r="NA29" s="4"/>
+      <c r="NB29" s="4"/>
+      <c r="NC29" s="4"/>
+      <c r="ND29" s="4"/>
+      <c r="NE29" s="4"/>
+      <c r="NF29" s="4"/>
+      <c r="NG29" s="4"/>
+      <c r="NH29" s="4"/>
+      <c r="NI29" s="4"/>
+      <c r="NJ29" s="4"/>
+      <c r="NK29" s="4"/>
+      <c r="NL29" s="4"/>
+      <c r="NM29" s="4"/>
+      <c r="NN29" s="4"/>
+      <c r="NO29" s="4"/>
+      <c r="NP29" s="4"/>
+      <c r="NQ29" s="4"/>
+      <c r="NR29" s="4"/>
+      <c r="NS29" s="4"/>
+      <c r="NT29" s="4"/>
+      <c r="NU29" s="4"/>
+      <c r="NV29" s="4"/>
+      <c r="NW29" s="4"/>
+      <c r="NX29" s="4"/>
+      <c r="NY29" s="4"/>
+      <c r="NZ29" s="4"/>
+      <c r="OA29" s="4"/>
+      <c r="OB29" s="4"/>
+      <c r="OC29" s="4"/>
+      <c r="OD29" s="4"/>
+      <c r="OE29" s="4"/>
+      <c r="OF29" s="4"/>
+      <c r="OG29" s="4"/>
+      <c r="OH29" s="4"/>
+      <c r="OI29" s="4"/>
+      <c r="OJ29" s="4"/>
+      <c r="OK29" s="4"/>
+      <c r="OL29" s="4"/>
+      <c r="OM29" s="4"/>
+      <c r="ON29" s="4"/>
+      <c r="OO29" s="4"/>
+      <c r="OP29" s="4"/>
+      <c r="OQ29" s="4"/>
+      <c r="OR29" s="4"/>
+      <c r="OS29" s="4"/>
+      <c r="OT29" s="4"/>
+      <c r="OU29" s="4"/>
+      <c r="OV29" s="4"/>
+      <c r="OW29" s="4"/>
+      <c r="OX29" s="4"/>
+      <c r="OY29" s="4"/>
+      <c r="OZ29" s="4"/>
+      <c r="PA29" s="4"/>
+      <c r="PB29" s="4"/>
+      <c r="PC29" s="4"/>
+      <c r="PD29" s="4"/>
+      <c r="PE29" s="4"/>
+      <c r="PF29" s="4"/>
+      <c r="PG29" s="4"/>
+      <c r="PH29" s="4"/>
+      <c r="PI29" s="4"/>
+      <c r="PJ29" s="4"/>
+      <c r="PK29" s="4"/>
+      <c r="PL29" s="4"/>
+      <c r="PM29" s="4"/>
+      <c r="PN29" s="4"/>
+      <c r="PO29" s="4"/>
+      <c r="PP29" s="4"/>
+      <c r="PQ29" s="4"/>
+      <c r="PR29" s="4"/>
+      <c r="PS29" s="4"/>
+      <c r="PT29" s="4"/>
+      <c r="PU29" s="4"/>
+      <c r="PV29" s="4"/>
+      <c r="PW29" s="4"/>
+      <c r="PX29" s="4"/>
+      <c r="PY29" s="4"/>
+      <c r="PZ29" s="4"/>
+      <c r="QA29" s="4"/>
+      <c r="QB29" s="4"/>
+      <c r="QC29" s="4"/>
+      <c r="QD29" s="4"/>
+      <c r="QE29" s="4"/>
+      <c r="QF29" s="4"/>
+      <c r="QG29" s="4"/>
+      <c r="QH29" s="4"/>
+      <c r="QI29" s="4"/>
+      <c r="QJ29" s="4"/>
+      <c r="QK29" s="4"/>
+      <c r="QL29" s="4"/>
+      <c r="QM29" s="4"/>
+      <c r="QN29" s="4"/>
+      <c r="QO29" s="4"/>
+      <c r="QP29" s="4"/>
+      <c r="QQ29" s="4"/>
+      <c r="QR29" s="4"/>
+      <c r="QS29" s="4"/>
+      <c r="QT29" s="4"/>
+      <c r="QU29" s="4"/>
+      <c r="QV29" s="4"/>
+      <c r="QW29" s="4"/>
+      <c r="QX29" s="4"/>
+      <c r="QY29" s="4"/>
+      <c r="QZ29" s="4"/>
+      <c r="RA29" s="4"/>
+      <c r="RB29" s="4"/>
+      <c r="RC29" s="4"/>
+      <c r="RD29" s="4"/>
+      <c r="RE29" s="4"/>
+      <c r="RF29" s="4"/>
+      <c r="RG29" s="4"/>
+      <c r="RH29" s="4"/>
+      <c r="RI29" s="4"/>
+      <c r="RJ29" s="4"/>
+      <c r="RK29" s="4"/>
+      <c r="RL29" s="4"/>
+      <c r="RM29" s="4"/>
+      <c r="RN29" s="4"/>
+      <c r="RO29" s="4"/>
+      <c r="RP29" s="4"/>
+      <c r="RQ29" s="4"/>
+      <c r="RR29" s="4"/>
+      <c r="RS29" s="4"/>
+      <c r="RT29" s="4"/>
+      <c r="RU29" s="4"/>
+      <c r="RV29" s="4"/>
+      <c r="RW29" s="4"/>
+      <c r="RX29" s="4"/>
+      <c r="RY29" s="4"/>
+      <c r="RZ29" s="4"/>
+      <c r="SA29" s="4"/>
+      <c r="SB29" s="4"/>
+      <c r="SC29" s="4"/>
+      <c r="SD29" s="4"/>
+      <c r="SE29" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SF29" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SG29" s="4"/>
+      <c r="SH29" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI29" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="SJ29" s="4"/>
+      <c r="SK29" s="4"/>
+      <c r="SL29" s="4"/>
+      <c r="SM29" s="4"/>
+      <c r="SN29" s="4"/>
+      <c r="SO29" s="4"/>
+      <c r="SP29" s="4"/>
+      <c r="SQ29" s="4"/>
+      <c r="SR29" s="4"/>
+      <c r="SS29" s="4"/>
+      <c r="ST29" s="4"/>
+      <c r="SU29" s="4"/>
+      <c r="SV29" s="4"/>
+      <c r="SW29" s="5">
+        <v>43123.540625000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B30" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4">
+        <v>15.91</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+      <c r="BL30" s="4"/>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="4"/>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="4"/>
+      <c r="BT30" s="4"/>
+      <c r="BU30" s="4"/>
+      <c r="BV30" s="4"/>
+      <c r="BW30" s="4"/>
+      <c r="BX30" s="4"/>
+      <c r="BY30" s="4"/>
+      <c r="BZ30" s="4"/>
+      <c r="CA30" s="4"/>
+      <c r="CB30" s="4">
+        <v>10.08</v>
+      </c>
+      <c r="CC30" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="CD30" s="4"/>
+      <c r="CE30" s="4"/>
+      <c r="CF30" s="4"/>
+      <c r="CG30" s="4"/>
+      <c r="CH30" s="4"/>
+      <c r="CI30" s="4"/>
+      <c r="CJ30" s="4"/>
+      <c r="CK30" s="4"/>
+      <c r="CL30" s="4"/>
+      <c r="CM30" s="4"/>
+      <c r="CN30" s="4"/>
+      <c r="CO30" s="4"/>
+      <c r="CP30" s="4"/>
+      <c r="CQ30" s="4"/>
+      <c r="CR30" s="4"/>
+      <c r="CS30" s="4"/>
+      <c r="CT30" s="4"/>
+      <c r="CU30" s="4"/>
+      <c r="CV30" s="4"/>
+      <c r="CW30" s="4"/>
+      <c r="CX30" s="4"/>
+      <c r="CY30" s="4"/>
+      <c r="CZ30" s="4"/>
+      <c r="DA30" s="4"/>
+      <c r="DB30" s="4"/>
+      <c r="DC30" s="4"/>
+      <c r="DD30" s="4"/>
+      <c r="DE30" s="4"/>
+      <c r="DF30" s="4"/>
+      <c r="DG30" s="4"/>
+      <c r="DH30" s="4"/>
+      <c r="DI30" s="4"/>
+      <c r="DJ30" s="4"/>
+      <c r="DK30" s="4"/>
+      <c r="DL30" s="4"/>
+      <c r="DM30" s="4"/>
+      <c r="DN30" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT30" s="4">
+        <v>1</v>
+      </c>
+      <c r="DU30" s="4">
+        <v>1</v>
+      </c>
+      <c r="DV30" s="4">
+        <v>1</v>
+      </c>
+      <c r="DW30" s="4">
+        <v>1</v>
+      </c>
+      <c r="DX30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY30" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA30" s="4"/>
+      <c r="EB30" s="4"/>
+      <c r="EC30" s="4"/>
+      <c r="ED30" s="4"/>
+      <c r="EE30" s="4"/>
+      <c r="EF30" s="4"/>
+      <c r="EG30" s="4"/>
+      <c r="EH30" s="4"/>
+      <c r="EI30" s="4"/>
+      <c r="EJ30" s="4"/>
+      <c r="EK30" s="4"/>
+      <c r="EL30" s="4"/>
+      <c r="EM30" s="4"/>
+      <c r="EN30" s="4"/>
+      <c r="EO30" s="4"/>
+      <c r="EP30" s="4"/>
+      <c r="EQ30" s="4"/>
+      <c r="ER30" s="4"/>
+      <c r="ES30" s="4"/>
+      <c r="ET30" s="4"/>
+      <c r="EU30" s="4"/>
+      <c r="EV30" s="4"/>
+      <c r="EW30" s="4"/>
+      <c r="EX30" s="4"/>
+      <c r="EY30" s="4"/>
+      <c r="EZ30" s="4"/>
+      <c r="FA30" s="4"/>
+      <c r="FB30" s="4"/>
+      <c r="FC30" s="4"/>
+      <c r="FD30" s="4"/>
+      <c r="FE30" s="4"/>
+      <c r="FF30" s="4"/>
+      <c r="FG30" s="4"/>
+      <c r="FH30" s="4"/>
+      <c r="FI30" s="4"/>
+      <c r="FJ30" s="4"/>
+      <c r="FK30" s="4"/>
+      <c r="FL30" s="4"/>
+      <c r="FM30" s="4"/>
+      <c r="FN30" s="4"/>
+      <c r="FO30" s="4"/>
+      <c r="FP30" s="4"/>
+      <c r="FQ30" s="4"/>
+      <c r="FR30" s="4"/>
+      <c r="FS30" s="4"/>
+      <c r="FT30" s="4"/>
+      <c r="FU30" s="4"/>
+      <c r="FV30" s="4"/>
+      <c r="FW30" s="4"/>
+      <c r="FX30" s="4"/>
+      <c r="FY30" s="4"/>
+      <c r="FZ30" s="4"/>
+      <c r="GA30" s="4"/>
+      <c r="GB30" s="4"/>
+      <c r="GC30" s="4"/>
+      <c r="GD30" s="4"/>
+      <c r="GE30" s="4"/>
+      <c r="GF30" s="4"/>
+      <c r="GG30" s="4"/>
+      <c r="GH30" s="4"/>
+      <c r="GI30" s="4"/>
+      <c r="GJ30" s="4"/>
+      <c r="GK30" s="4"/>
+      <c r="GL30" s="4"/>
+      <c r="GM30" s="4"/>
+      <c r="GN30" s="4"/>
+      <c r="GO30" s="4"/>
+      <c r="GP30" s="4"/>
+      <c r="GQ30" s="4"/>
+      <c r="GR30" s="4"/>
+      <c r="GS30" s="4"/>
+      <c r="GT30" s="4"/>
+      <c r="GU30" s="4"/>
+      <c r="GV30" s="4"/>
+      <c r="GW30" s="4"/>
+      <c r="GX30" s="4"/>
+      <c r="GY30" s="4"/>
+      <c r="GZ30" s="4"/>
+      <c r="HA30" s="4"/>
+      <c r="HB30" s="4"/>
+      <c r="HC30" s="4"/>
+      <c r="HD30" s="4"/>
+      <c r="HE30" s="4"/>
+      <c r="HF30" s="4"/>
+      <c r="HG30" s="4"/>
+      <c r="HH30" s="4"/>
+      <c r="HI30" s="4"/>
+      <c r="HJ30" s="4"/>
+      <c r="HK30" s="4"/>
+      <c r="HL30" s="4"/>
+      <c r="HM30" s="4"/>
+      <c r="HN30" s="4"/>
+      <c r="HO30" s="4"/>
+      <c r="HP30" s="4"/>
+      <c r="HQ30" s="4"/>
+      <c r="HR30" s="4"/>
+      <c r="HS30" s="4"/>
+      <c r="HT30" s="4"/>
+      <c r="HU30" s="4"/>
+      <c r="HV30" s="4"/>
+      <c r="HW30" s="4"/>
+      <c r="HX30" s="4"/>
+      <c r="HY30" s="4"/>
+      <c r="HZ30" s="4"/>
+      <c r="IA30" s="4"/>
+      <c r="IB30" s="4"/>
+      <c r="IC30" s="4"/>
+      <c r="ID30" s="4"/>
+      <c r="IE30" s="4"/>
+      <c r="IF30" s="4"/>
+      <c r="IG30" s="4"/>
+      <c r="IH30" s="4"/>
+      <c r="II30" s="4"/>
+      <c r="IJ30" s="4"/>
+      <c r="IK30" s="4"/>
+      <c r="IL30" s="4"/>
+      <c r="IM30" s="4"/>
+      <c r="IN30" s="4"/>
+      <c r="IO30" s="4"/>
+      <c r="IP30" s="4"/>
+      <c r="IQ30" s="4"/>
+      <c r="IR30" s="4"/>
+      <c r="IS30" s="4"/>
+      <c r="IT30" s="4"/>
+      <c r="IU30" s="4"/>
+      <c r="IV30" s="4"/>
+      <c r="IW30" s="4"/>
+      <c r="IX30" s="4"/>
+      <c r="IY30" s="4"/>
+      <c r="IZ30" s="4"/>
+      <c r="JA30" s="4"/>
+      <c r="JB30" s="4"/>
+      <c r="JC30" s="4"/>
+      <c r="JD30" s="4"/>
+      <c r="JE30" s="4"/>
+      <c r="JF30" s="4"/>
+      <c r="JG30" s="4"/>
+      <c r="JH30" s="4"/>
+      <c r="JI30" s="4"/>
+      <c r="JJ30" s="4"/>
+      <c r="JK30" s="4">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="JL30" s="4">
+        <v>2.8368500000000001E-2</v>
+      </c>
+      <c r="JM30" s="4"/>
+      <c r="JN30" s="4"/>
+      <c r="JO30" s="4"/>
+      <c r="JP30" s="4"/>
+      <c r="JQ30" s="4"/>
+      <c r="JR30" s="4"/>
+      <c r="JS30" s="4"/>
+      <c r="JT30" s="4"/>
+      <c r="JU30" s="4"/>
+      <c r="JV30" s="4"/>
+      <c r="JW30" s="4"/>
+      <c r="JX30" s="4"/>
+      <c r="JY30" s="4"/>
+      <c r="JZ30" s="4"/>
+      <c r="KA30" s="4"/>
+      <c r="KB30" s="4"/>
+      <c r="KC30" s="4"/>
+      <c r="KD30" s="4"/>
+      <c r="KE30" s="4"/>
+      <c r="KF30" s="4"/>
+      <c r="KG30" s="4"/>
+      <c r="KH30" s="4"/>
+      <c r="KI30" s="4"/>
+      <c r="KJ30" s="4"/>
+      <c r="KK30" s="4"/>
+      <c r="KL30" s="4"/>
+      <c r="KM30" s="4"/>
+      <c r="KN30" s="4"/>
+      <c r="KO30" s="4"/>
+      <c r="KP30" s="4"/>
+      <c r="KQ30" s="4"/>
+      <c r="KR30" s="4"/>
+      <c r="KS30" s="4"/>
+      <c r="KT30" s="4"/>
+      <c r="KU30" s="4"/>
+      <c r="KV30" s="4"/>
+      <c r="KW30" s="4"/>
+      <c r="KX30" s="4"/>
+      <c r="KY30" s="4"/>
+      <c r="KZ30" s="4"/>
+      <c r="LA30" s="4"/>
+      <c r="LB30" s="4"/>
+      <c r="LC30" s="4"/>
+      <c r="LD30" s="4"/>
+      <c r="LE30" s="4"/>
+      <c r="LF30" s="4"/>
+      <c r="LG30" s="4"/>
+      <c r="LH30" s="4"/>
+      <c r="LI30" s="4"/>
+      <c r="LJ30" s="4"/>
+      <c r="LK30" s="4"/>
+      <c r="LL30" s="4"/>
+      <c r="LM30" s="4"/>
+      <c r="LN30" s="4"/>
+      <c r="LO30" s="4"/>
+      <c r="LP30" s="4"/>
+      <c r="LQ30" s="4"/>
+      <c r="LR30" s="4"/>
+      <c r="LS30" s="4"/>
+      <c r="LT30" s="4"/>
+      <c r="LU30" s="4"/>
+      <c r="LV30" s="4"/>
+      <c r="LW30" s="4"/>
+      <c r="LX30" s="4"/>
+      <c r="LY30" s="4"/>
+      <c r="LZ30" s="4"/>
+      <c r="MA30" s="4"/>
+      <c r="MB30" s="4"/>
+      <c r="MC30" s="4"/>
+      <c r="MD30" s="4"/>
+      <c r="ME30" s="4"/>
+      <c r="MF30" s="4"/>
+      <c r="MG30" s="4"/>
+      <c r="MH30" s="4"/>
+      <c r="MI30" s="4"/>
+      <c r="MJ30" s="4"/>
+      <c r="MK30" s="4"/>
+      <c r="ML30" s="4"/>
+      <c r="MM30" s="4"/>
+      <c r="MN30" s="4"/>
+      <c r="MO30" s="4"/>
+      <c r="MP30" s="4"/>
+      <c r="MQ30" s="4"/>
+      <c r="MR30" s="4"/>
+      <c r="MS30" s="4"/>
+      <c r="MT30" s="4"/>
+      <c r="MU30" s="4"/>
+      <c r="MV30" s="4"/>
+      <c r="MW30" s="4"/>
+      <c r="MX30" s="4"/>
+      <c r="MY30" s="4"/>
+      <c r="MZ30" s="4"/>
+      <c r="NA30" s="4"/>
+      <c r="NB30" s="4"/>
+      <c r="NC30" s="4"/>
+      <c r="ND30" s="4"/>
+      <c r="NE30" s="4"/>
+      <c r="NF30" s="4"/>
+      <c r="NG30" s="4"/>
+      <c r="NH30" s="4"/>
+      <c r="NI30" s="4"/>
+      <c r="NJ30" s="4"/>
+      <c r="NK30" s="4"/>
+      <c r="NL30" s="4"/>
+      <c r="NM30" s="4"/>
+      <c r="NN30" s="4"/>
+      <c r="NO30" s="4"/>
+      <c r="NP30" s="4"/>
+      <c r="NQ30" s="4"/>
+      <c r="NR30" s="4"/>
+      <c r="NS30" s="4"/>
+      <c r="NT30" s="4"/>
+      <c r="NU30" s="4"/>
+      <c r="NV30" s="4"/>
+      <c r="NW30" s="4"/>
+      <c r="NX30" s="4"/>
+      <c r="NY30" s="4"/>
+      <c r="NZ30" s="4"/>
+      <c r="OA30" s="4"/>
+      <c r="OB30" s="4"/>
+      <c r="OC30" s="4"/>
+      <c r="OD30" s="4"/>
+      <c r="OE30" s="4"/>
+      <c r="OF30" s="4"/>
+      <c r="OG30" s="4"/>
+      <c r="OH30" s="4"/>
+      <c r="OI30" s="4"/>
+      <c r="OJ30" s="4"/>
+      <c r="OK30" s="4"/>
+      <c r="OL30" s="4"/>
+      <c r="OM30" s="4"/>
+      <c r="ON30" s="4"/>
+      <c r="OO30" s="4"/>
+      <c r="OP30" s="4"/>
+      <c r="OQ30" s="4"/>
+      <c r="OR30" s="4"/>
+      <c r="OS30" s="4"/>
+      <c r="OT30" s="4"/>
+      <c r="OU30" s="4"/>
+      <c r="OV30" s="4"/>
+      <c r="OW30" s="4"/>
+      <c r="OX30" s="4"/>
+      <c r="OY30" s="4"/>
+      <c r="OZ30" s="4"/>
+      <c r="PA30" s="4"/>
+      <c r="PB30" s="4"/>
+      <c r="PC30" s="4"/>
+      <c r="PD30" s="4"/>
+      <c r="PE30" s="4"/>
+      <c r="PF30" s="4"/>
+      <c r="PG30" s="4"/>
+      <c r="PH30" s="4"/>
+      <c r="PI30" s="4"/>
+      <c r="PJ30" s="4"/>
+      <c r="PK30" s="4"/>
+      <c r="PL30" s="4"/>
+      <c r="PM30" s="4"/>
+      <c r="PN30" s="4"/>
+      <c r="PO30" s="4"/>
+      <c r="PP30" s="4"/>
+      <c r="PQ30" s="4"/>
+      <c r="PR30" s="4"/>
+      <c r="PS30" s="4"/>
+      <c r="PT30" s="4"/>
+      <c r="PU30" s="4"/>
+      <c r="PV30" s="4"/>
+      <c r="PW30" s="4"/>
+      <c r="PX30" s="4"/>
+      <c r="PY30" s="4"/>
+      <c r="PZ30" s="4"/>
+      <c r="QA30" s="4"/>
+      <c r="QB30" s="4"/>
+      <c r="QC30" s="4"/>
+      <c r="QD30" s="4"/>
+      <c r="QE30" s="4"/>
+      <c r="QF30" s="4"/>
+      <c r="QG30" s="4"/>
+      <c r="QH30" s="4"/>
+      <c r="QI30" s="4"/>
+      <c r="QJ30" s="4"/>
+      <c r="QK30" s="4"/>
+      <c r="QL30" s="4"/>
+      <c r="QM30" s="4"/>
+      <c r="QN30" s="4"/>
+      <c r="QO30" s="4"/>
+      <c r="QP30" s="4"/>
+      <c r="QQ30" s="4"/>
+      <c r="QR30" s="4"/>
+      <c r="QS30" s="4"/>
+      <c r="QT30" s="4"/>
+      <c r="QU30" s="4"/>
+      <c r="QV30" s="4"/>
+      <c r="QW30" s="4"/>
+      <c r="QX30" s="4"/>
+      <c r="QY30" s="4"/>
+      <c r="QZ30" s="4"/>
+      <c r="RA30" s="4"/>
+      <c r="RB30" s="4"/>
+      <c r="RC30" s="4"/>
+      <c r="RD30" s="4"/>
+      <c r="RE30" s="4"/>
+      <c r="RF30" s="4"/>
+      <c r="RG30" s="4"/>
+      <c r="RH30" s="4"/>
+      <c r="RI30" s="4"/>
+      <c r="RJ30" s="4"/>
+      <c r="RK30" s="4"/>
+      <c r="RL30" s="4"/>
+      <c r="RM30" s="4"/>
+      <c r="RN30" s="4"/>
+      <c r="RO30" s="4"/>
+      <c r="RP30" s="4"/>
+      <c r="RQ30" s="4"/>
+      <c r="RR30" s="4"/>
+      <c r="RS30" s="4"/>
+      <c r="RT30" s="4"/>
+      <c r="RU30" s="4"/>
+      <c r="RV30" s="4"/>
+      <c r="RW30" s="4"/>
+      <c r="RX30" s="4"/>
+      <c r="RY30" s="4"/>
+      <c r="RZ30" s="4"/>
+      <c r="SA30" s="4"/>
+      <c r="SB30" s="4"/>
+      <c r="SC30" s="4"/>
+      <c r="SD30" s="4"/>
+      <c r="SE30" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SF30" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SG30" s="4"/>
+      <c r="SH30" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI30" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="SJ30" s="4"/>
+      <c r="SK30" s="4"/>
+      <c r="SL30" s="4"/>
+      <c r="SM30" s="4"/>
+      <c r="SN30" s="4"/>
+      <c r="SO30" s="4"/>
+      <c r="SP30" s="4"/>
+      <c r="SQ30" s="4"/>
+      <c r="SR30" s="4"/>
+      <c r="SS30" s="4"/>
+      <c r="ST30" s="4"/>
+      <c r="SU30" s="4"/>
+      <c r="SV30" s="4"/>
+      <c r="SW30" s="5">
+        <v>43123.544548611113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B31" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+      <c r="BL31" s="4"/>
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="4"/>
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
+      <c r="BS31" s="4"/>
+      <c r="BT31" s="4"/>
+      <c r="BU31" s="4"/>
+      <c r="BV31" s="4"/>
+      <c r="BW31" s="4"/>
+      <c r="BX31" s="4"/>
+      <c r="BY31" s="4"/>
+      <c r="BZ31" s="4"/>
+      <c r="CA31" s="4"/>
+      <c r="CB31" s="4"/>
+      <c r="CC31" s="4"/>
+      <c r="CD31" s="4"/>
+      <c r="CE31" s="4"/>
+      <c r="CF31" s="4"/>
+      <c r="CG31" s="4"/>
+      <c r="CH31" s="4"/>
+      <c r="CI31" s="4"/>
+      <c r="CJ31" s="4"/>
+      <c r="CK31" s="4"/>
+      <c r="CL31" s="4"/>
+      <c r="CM31" s="4"/>
+      <c r="CN31" s="4"/>
+      <c r="CO31" s="4"/>
+      <c r="CP31" s="4"/>
+      <c r="CQ31" s="4"/>
+      <c r="CR31" s="4"/>
+      <c r="CS31" s="4"/>
+      <c r="CT31" s="4"/>
+      <c r="CU31" s="4"/>
+      <c r="CV31" s="4"/>
+      <c r="CW31" s="4"/>
+      <c r="CX31" s="4"/>
+      <c r="CY31" s="4"/>
+      <c r="CZ31" s="4"/>
+      <c r="DA31" s="4"/>
+      <c r="DB31" s="4"/>
+      <c r="DC31" s="4"/>
+      <c r="DD31" s="4"/>
+      <c r="DE31" s="4"/>
+      <c r="DF31" s="4"/>
+      <c r="DG31" s="4"/>
+      <c r="DH31" s="4"/>
+      <c r="DI31" s="4"/>
+      <c r="DJ31" s="4"/>
+      <c r="DK31" s="4"/>
+      <c r="DL31" s="4"/>
+      <c r="DM31" s="4"/>
+      <c r="DN31" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY31" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA31" s="4"/>
+      <c r="EB31" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="EC31" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="ED31" s="4"/>
+      <c r="EE31" s="4"/>
+      <c r="EF31" s="4"/>
+      <c r="EG31" s="4"/>
+      <c r="EH31" s="4"/>
+      <c r="EI31" s="4"/>
+      <c r="EJ31" s="4"/>
+      <c r="EK31" s="4"/>
+      <c r="EL31" s="4"/>
+      <c r="EM31" s="4"/>
+      <c r="EN31" s="4"/>
+      <c r="EO31" s="4"/>
+      <c r="EP31" s="4"/>
+      <c r="EQ31" s="4"/>
+      <c r="ER31" s="4"/>
+      <c r="ES31" s="4"/>
+      <c r="ET31" s="4"/>
+      <c r="EU31" s="4"/>
+      <c r="EV31" s="4"/>
+      <c r="EW31" s="4"/>
+      <c r="EX31" s="4"/>
+      <c r="EY31" s="4"/>
+      <c r="EZ31" s="4"/>
+      <c r="FA31" s="4"/>
+      <c r="FB31" s="4"/>
+      <c r="FC31" s="4"/>
+      <c r="FD31" s="4"/>
+      <c r="FE31" s="4"/>
+      <c r="FF31" s="4"/>
+      <c r="FG31" s="4"/>
+      <c r="FH31" s="4"/>
+      <c r="FI31" s="4"/>
+      <c r="FJ31" s="4"/>
+      <c r="FK31" s="4"/>
+      <c r="FL31" s="4"/>
+      <c r="FM31" s="4"/>
+      <c r="FN31" s="4"/>
+      <c r="FO31" s="4"/>
+      <c r="FP31" s="4"/>
+      <c r="FQ31" s="4"/>
+      <c r="FR31" s="4"/>
+      <c r="FS31" s="4"/>
+      <c r="FT31" s="4"/>
+      <c r="FU31" s="4"/>
+      <c r="FV31" s="4"/>
+      <c r="FW31" s="4"/>
+      <c r="FX31" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="FY31" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="FZ31" s="4"/>
+      <c r="GA31" s="4"/>
+      <c r="GB31" s="4"/>
+      <c r="GC31" s="4"/>
+      <c r="GD31" s="4"/>
+      <c r="GE31" s="4"/>
+      <c r="GF31" s="4"/>
+      <c r="GG31" s="4"/>
+      <c r="GH31" s="4"/>
+      <c r="GI31" s="4"/>
+      <c r="GJ31" s="4"/>
+      <c r="GK31" s="4"/>
+      <c r="GL31" s="4"/>
+      <c r="GM31" s="4"/>
+      <c r="GN31" s="4"/>
+      <c r="GO31" s="4"/>
+      <c r="GP31" s="4"/>
+      <c r="GQ31" s="4"/>
+      <c r="GR31" s="4"/>
+      <c r="GS31" s="4"/>
+      <c r="GT31" s="4"/>
+      <c r="GU31" s="4"/>
+      <c r="GV31" s="4"/>
+      <c r="GW31" s="4"/>
+      <c r="GX31" s="4"/>
+      <c r="GY31" s="4"/>
+      <c r="GZ31" s="4"/>
+      <c r="HA31" s="4"/>
+      <c r="HB31" s="4"/>
+      <c r="HC31" s="4"/>
+      <c r="HD31" s="4"/>
+      <c r="HE31" s="4"/>
+      <c r="HF31" s="4"/>
+      <c r="HG31" s="4"/>
+      <c r="HH31" s="4"/>
+      <c r="HI31" s="4"/>
+      <c r="HJ31" s="4"/>
+      <c r="HK31" s="4"/>
+      <c r="HL31" s="4"/>
+      <c r="HM31" s="4"/>
+      <c r="HN31" s="4"/>
+      <c r="HO31" s="4"/>
+      <c r="HP31" s="4"/>
+      <c r="HQ31" s="4"/>
+      <c r="HR31" s="4"/>
+      <c r="HS31" s="4"/>
+      <c r="HT31" s="4"/>
+      <c r="HU31" s="4"/>
+      <c r="HV31" s="4"/>
+      <c r="HW31" s="4"/>
+      <c r="HX31" s="4"/>
+      <c r="HY31" s="4"/>
+      <c r="HZ31" s="4"/>
+      <c r="IA31" s="4"/>
+      <c r="IB31" s="4"/>
+      <c r="IC31" s="4"/>
+      <c r="ID31" s="4"/>
+      <c r="IE31" s="4"/>
+      <c r="IF31" s="4"/>
+      <c r="IG31" s="4"/>
+      <c r="IH31" s="4"/>
+      <c r="II31" s="4"/>
+      <c r="IJ31" s="4"/>
+      <c r="IK31" s="4"/>
+      <c r="IL31" s="4"/>
+      <c r="IM31" s="4"/>
+      <c r="IN31" s="4"/>
+      <c r="IO31" s="4"/>
+      <c r="IP31" s="4"/>
+      <c r="IQ31" s="4"/>
+      <c r="IR31" s="4"/>
+      <c r="IS31" s="4"/>
+      <c r="IT31" s="4"/>
+      <c r="IU31" s="4"/>
+      <c r="IV31" s="4"/>
+      <c r="IW31" s="4"/>
+      <c r="IX31" s="4"/>
+      <c r="IY31" s="4"/>
+      <c r="IZ31" s="4"/>
+      <c r="JA31" s="4"/>
+      <c r="JB31" s="4"/>
+      <c r="JC31" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="JD31" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="JE31" s="4"/>
+      <c r="JF31" s="4"/>
+      <c r="JG31" s="4"/>
+      <c r="JH31" s="4"/>
+      <c r="JI31" s="4"/>
+      <c r="JJ31" s="4"/>
+      <c r="JK31" s="4">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="JL31" s="4">
+        <v>2.1817699999999999E-2</v>
+      </c>
+      <c r="JM31" s="4"/>
+      <c r="JN31" s="4"/>
+      <c r="JO31" s="4"/>
+      <c r="JP31" s="4"/>
+      <c r="JQ31" s="4"/>
+      <c r="JR31" s="4"/>
+      <c r="JS31" s="4"/>
+      <c r="JT31" s="4"/>
+      <c r="JU31" s="4"/>
+      <c r="JV31" s="4"/>
+      <c r="JW31" s="4"/>
+      <c r="JX31" s="4"/>
+      <c r="JY31" s="4"/>
+      <c r="JZ31" s="4"/>
+      <c r="KA31" s="4"/>
+      <c r="KB31" s="4"/>
+      <c r="KC31" s="4"/>
+      <c r="KD31" s="4"/>
+      <c r="KE31" s="4"/>
+      <c r="KF31" s="4"/>
+      <c r="KG31" s="4"/>
+      <c r="KH31" s="4"/>
+      <c r="KI31" s="4"/>
+      <c r="KJ31" s="4"/>
+      <c r="KK31" s="4"/>
+      <c r="KL31" s="4"/>
+      <c r="KM31" s="4"/>
+      <c r="KN31" s="4"/>
+      <c r="KO31" s="4"/>
+      <c r="KP31" s="4"/>
+      <c r="KQ31" s="4"/>
+      <c r="KR31" s="4"/>
+      <c r="KS31" s="4"/>
+      <c r="KT31" s="4"/>
+      <c r="KU31" s="4"/>
+      <c r="KV31" s="4"/>
+      <c r="KW31" s="4"/>
+      <c r="KX31" s="4"/>
+      <c r="KY31" s="4"/>
+      <c r="KZ31" s="4"/>
+      <c r="LA31" s="4"/>
+      <c r="LB31" s="4"/>
+      <c r="LC31" s="4">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="LD31" s="4">
+        <v>3.1817699999999997E-2</v>
+      </c>
+      <c r="LE31" s="4"/>
+      <c r="LF31" s="4"/>
+      <c r="LG31" s="4"/>
+      <c r="LH31" s="4"/>
+      <c r="LI31" s="4"/>
+      <c r="LJ31" s="4"/>
+      <c r="LK31" s="4"/>
+      <c r="LL31" s="4"/>
+      <c r="LM31" s="4"/>
+      <c r="LN31" s="4"/>
+      <c r="LO31" s="4"/>
+      <c r="LP31" s="4"/>
+      <c r="LQ31" s="4"/>
+      <c r="LR31" s="4"/>
+      <c r="LS31" s="4"/>
+      <c r="LT31" s="4"/>
+      <c r="LU31" s="4"/>
+      <c r="LV31" s="4"/>
+      <c r="LW31" s="4"/>
+      <c r="LX31" s="4"/>
+      <c r="LY31" s="4"/>
+      <c r="LZ31" s="4"/>
+      <c r="MA31" s="4"/>
+      <c r="MB31" s="4"/>
+      <c r="MC31" s="4"/>
+      <c r="MD31" s="4"/>
+      <c r="ME31" s="4"/>
+      <c r="MF31" s="4"/>
+      <c r="MG31" s="4"/>
+      <c r="MH31" s="4"/>
+      <c r="MI31" s="4"/>
+      <c r="MJ31" s="4"/>
+      <c r="MK31" s="4"/>
+      <c r="ML31" s="4"/>
+      <c r="MM31" s="4"/>
+      <c r="MN31" s="4"/>
+      <c r="MO31" s="4"/>
+      <c r="MP31" s="4"/>
+      <c r="MQ31" s="4"/>
+      <c r="MR31" s="4"/>
+      <c r="MS31" s="4"/>
+      <c r="MT31" s="4"/>
+      <c r="MU31" s="4"/>
+      <c r="MV31" s="4"/>
+      <c r="MW31" s="4"/>
+      <c r="MX31" s="4"/>
+      <c r="MY31" s="4"/>
+      <c r="MZ31" s="4"/>
+      <c r="NA31" s="4"/>
+      <c r="NB31" s="4"/>
+      <c r="NC31" s="4"/>
+      <c r="ND31" s="4"/>
+      <c r="NE31" s="4"/>
+      <c r="NF31" s="4"/>
+      <c r="NG31" s="4"/>
+      <c r="NH31" s="4"/>
+      <c r="NI31" s="4"/>
+      <c r="NJ31" s="4"/>
+      <c r="NK31" s="4"/>
+      <c r="NL31" s="4"/>
+      <c r="NM31" s="4"/>
+      <c r="NN31" s="4"/>
+      <c r="NO31" s="4"/>
+      <c r="NP31" s="4"/>
+      <c r="NQ31" s="4"/>
+      <c r="NR31" s="4"/>
+      <c r="NS31" s="4"/>
+      <c r="NT31" s="4"/>
+      <c r="NU31" s="4"/>
+      <c r="NV31" s="4"/>
+      <c r="NW31" s="4"/>
+      <c r="NX31" s="4"/>
+      <c r="NY31" s="4"/>
+      <c r="NZ31" s="4"/>
+      <c r="OA31" s="4"/>
+      <c r="OB31" s="4"/>
+      <c r="OC31" s="4"/>
+      <c r="OD31" s="4"/>
+      <c r="OE31" s="4"/>
+      <c r="OF31" s="4"/>
+      <c r="OG31" s="4"/>
+      <c r="OH31" s="4"/>
+      <c r="OI31" s="4"/>
+      <c r="OJ31" s="4"/>
+      <c r="OK31" s="4"/>
+      <c r="OL31" s="4"/>
+      <c r="OM31" s="4"/>
+      <c r="ON31" s="4"/>
+      <c r="OO31" s="4"/>
+      <c r="OP31" s="4"/>
+      <c r="OQ31" s="4"/>
+      <c r="OR31" s="4"/>
+      <c r="OS31" s="4"/>
+      <c r="OT31" s="4"/>
+      <c r="OU31" s="4"/>
+      <c r="OV31" s="4"/>
+      <c r="OW31" s="4"/>
+      <c r="OX31" s="4"/>
+      <c r="OY31" s="4"/>
+      <c r="OZ31" s="4"/>
+      <c r="PA31" s="4"/>
+      <c r="PB31" s="4"/>
+      <c r="PC31" s="4"/>
+      <c r="PD31" s="4"/>
+      <c r="PE31" s="4"/>
+      <c r="PF31" s="4"/>
+      <c r="PG31" s="4"/>
+      <c r="PH31" s="4"/>
+      <c r="PI31" s="4"/>
+      <c r="PJ31" s="4"/>
+      <c r="PK31" s="4"/>
+      <c r="PL31" s="4"/>
+      <c r="PM31" s="4"/>
+      <c r="PN31" s="4"/>
+      <c r="PO31" s="4"/>
+      <c r="PP31" s="4"/>
+      <c r="PQ31" s="4"/>
+      <c r="PR31" s="4"/>
+      <c r="PS31" s="4"/>
+      <c r="PT31" s="4"/>
+      <c r="PU31" s="4"/>
+      <c r="PV31" s="4"/>
+      <c r="PW31" s="4"/>
+      <c r="PX31" s="4"/>
+      <c r="PY31" s="4"/>
+      <c r="PZ31" s="4"/>
+      <c r="QA31" s="4"/>
+      <c r="QB31" s="4"/>
+      <c r="QC31" s="4"/>
+      <c r="QD31" s="4"/>
+      <c r="QE31" s="4"/>
+      <c r="QF31" s="4"/>
+      <c r="QG31" s="4"/>
+      <c r="QH31" s="4"/>
+      <c r="QI31" s="4"/>
+      <c r="QJ31" s="4"/>
+      <c r="QK31" s="4"/>
+      <c r="QL31" s="4"/>
+      <c r="QM31" s="4"/>
+      <c r="QN31" s="4"/>
+      <c r="QO31" s="4"/>
+      <c r="QP31" s="4"/>
+      <c r="QQ31" s="4"/>
+      <c r="QR31" s="4"/>
+      <c r="QS31" s="4"/>
+      <c r="QT31" s="4"/>
+      <c r="QU31" s="4"/>
+      <c r="QV31" s="4"/>
+      <c r="QW31" s="4"/>
+      <c r="QX31" s="4"/>
+      <c r="QY31" s="4"/>
+      <c r="QZ31" s="4"/>
+      <c r="RA31" s="4"/>
+      <c r="RB31" s="4"/>
+      <c r="RC31" s="4"/>
+      <c r="RD31" s="4"/>
+      <c r="RE31" s="4"/>
+      <c r="RF31" s="4"/>
+      <c r="RG31" s="4"/>
+      <c r="RH31" s="4"/>
+      <c r="RI31" s="4"/>
+      <c r="RJ31" s="4"/>
+      <c r="RK31" s="4"/>
+      <c r="RL31" s="4"/>
+      <c r="RM31" s="4"/>
+      <c r="RN31" s="4"/>
+      <c r="RO31" s="4"/>
+      <c r="RP31" s="4"/>
+      <c r="RQ31" s="4"/>
+      <c r="RR31" s="4"/>
+      <c r="RS31" s="4"/>
+      <c r="RT31" s="4"/>
+      <c r="RU31" s="4"/>
+      <c r="RV31" s="4"/>
+      <c r="RW31" s="4"/>
+      <c r="RX31" s="4"/>
+      <c r="RY31" s="4"/>
+      <c r="RZ31" s="4"/>
+      <c r="SA31" s="4"/>
+      <c r="SB31" s="4"/>
+      <c r="SC31" s="4"/>
+      <c r="SD31" s="4"/>
+      <c r="SE31" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="SF31" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SG31" s="4"/>
+      <c r="SH31" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI31" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="SJ31" s="4"/>
+      <c r="SK31" s="4"/>
+      <c r="SL31" s="4"/>
+      <c r="SM31" s="4"/>
+      <c r="SN31" s="4"/>
+      <c r="SO31" s="4"/>
+      <c r="SP31" s="4"/>
+      <c r="SQ31" s="4"/>
+      <c r="SR31" s="4"/>
+      <c r="SS31" s="4"/>
+      <c r="ST31" s="4"/>
+      <c r="SU31" s="4"/>
+      <c r="SV31" s="4"/>
+      <c r="SW31" s="5">
+        <v>43126.55395833333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="4"/>
+      <c r="BT32" s="4"/>
+      <c r="BU32" s="4"/>
+      <c r="BV32" s="4"/>
+      <c r="BW32" s="4"/>
+      <c r="BX32" s="4"/>
+      <c r="BY32" s="4"/>
+      <c r="BZ32" s="4"/>
+      <c r="CA32" s="4"/>
+      <c r="CB32" s="4"/>
+      <c r="CC32" s="4"/>
+      <c r="CD32" s="4"/>
+      <c r="CE32" s="4"/>
+      <c r="CF32" s="4"/>
+      <c r="CG32" s="4"/>
+      <c r="CH32" s="4"/>
+      <c r="CI32" s="4"/>
+      <c r="CJ32" s="4"/>
+      <c r="CK32" s="4"/>
+      <c r="CL32" s="4"/>
+      <c r="CM32" s="4"/>
+      <c r="CN32" s="4"/>
+      <c r="CO32" s="4"/>
+      <c r="CP32" s="4"/>
+      <c r="CQ32" s="4"/>
+      <c r="CR32" s="4"/>
+      <c r="CS32" s="4"/>
+      <c r="CT32" s="4"/>
+      <c r="CU32" s="4"/>
+      <c r="CV32" s="4"/>
+      <c r="CW32" s="4"/>
+      <c r="CX32" s="4"/>
+      <c r="CY32" s="4"/>
+      <c r="CZ32" s="4"/>
+      <c r="DA32" s="4"/>
+      <c r="DB32" s="4"/>
+      <c r="DC32" s="4"/>
+      <c r="DD32" s="4"/>
+      <c r="DE32" s="4"/>
+      <c r="DF32" s="4"/>
+      <c r="DG32" s="4"/>
+      <c r="DH32" s="4"/>
+      <c r="DI32" s="4"/>
+      <c r="DJ32" s="4"/>
+      <c r="DK32" s="4"/>
+      <c r="DL32" s="4"/>
+      <c r="DM32" s="4"/>
+      <c r="DN32" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO32" s="4"/>
+      <c r="DP32" s="4"/>
+      <c r="DQ32" s="4"/>
+      <c r="DR32" s="4"/>
+      <c r="DS32" s="4"/>
+      <c r="DT32" s="4"/>
+      <c r="DU32" s="4"/>
+      <c r="DV32" s="4"/>
+      <c r="DW32" s="4"/>
+      <c r="DX32" s="4"/>
+      <c r="DY32" s="4"/>
+      <c r="DZ32" s="4"/>
+      <c r="EA32" s="4"/>
+      <c r="EB32" s="4"/>
+      <c r="EC32" s="4"/>
+      <c r="ED32" s="4"/>
+      <c r="EE32" s="4"/>
+      <c r="EF32" s="4"/>
+      <c r="EG32" s="4"/>
+      <c r="EH32" s="4"/>
+      <c r="EI32" s="4"/>
+      <c r="EJ32" s="4"/>
+      <c r="EK32" s="4"/>
+      <c r="EL32" s="4"/>
+      <c r="EM32" s="4"/>
+      <c r="EN32" s="4"/>
+      <c r="EO32" s="4"/>
+      <c r="EP32" s="4"/>
+      <c r="EQ32" s="4"/>
+      <c r="ER32" s="4"/>
+      <c r="ES32" s="4"/>
+      <c r="ET32" s="4"/>
+      <c r="EU32" s="4"/>
+      <c r="EV32" s="4"/>
+      <c r="EW32" s="4"/>
+      <c r="EX32" s="4"/>
+      <c r="EY32" s="4"/>
+      <c r="EZ32" s="4"/>
+      <c r="FA32" s="4"/>
+      <c r="FB32" s="4"/>
+      <c r="FC32" s="4"/>
+      <c r="FD32" s="4"/>
+      <c r="FE32" s="4"/>
+      <c r="FF32" s="4"/>
+      <c r="FG32" s="4"/>
+      <c r="FH32" s="4"/>
+      <c r="FI32" s="4"/>
+      <c r="FJ32" s="4"/>
+      <c r="FK32" s="4"/>
+      <c r="FL32" s="4"/>
+      <c r="FM32" s="4"/>
+      <c r="FN32" s="4"/>
+      <c r="FO32" s="4"/>
+      <c r="FP32" s="4"/>
+      <c r="FQ32" s="4"/>
+      <c r="FR32" s="4"/>
+      <c r="FS32" s="4"/>
+      <c r="FT32" s="4"/>
+      <c r="FU32" s="4"/>
+      <c r="FV32" s="4"/>
+      <c r="FW32" s="4"/>
+      <c r="FX32" s="4"/>
+      <c r="FY32" s="4"/>
+      <c r="FZ32" s="4"/>
+      <c r="GA32" s="4"/>
+      <c r="GB32" s="4"/>
+      <c r="GC32" s="4"/>
+      <c r="GD32" s="4"/>
+      <c r="GE32" s="4"/>
+      <c r="GF32" s="4"/>
+      <c r="GG32" s="4"/>
+      <c r="GH32" s="4"/>
+      <c r="GI32" s="4"/>
+      <c r="GJ32" s="4"/>
+      <c r="GK32" s="4"/>
+      <c r="GL32" s="4"/>
+      <c r="GM32" s="4"/>
+      <c r="GN32" s="4"/>
+      <c r="GO32" s="4"/>
+      <c r="GP32" s="4"/>
+      <c r="GQ32" s="4"/>
+      <c r="GR32" s="4"/>
+      <c r="GS32" s="4"/>
+      <c r="GT32" s="4"/>
+      <c r="GU32" s="4"/>
+      <c r="GV32" s="4"/>
+      <c r="GW32" s="4"/>
+      <c r="GX32" s="4"/>
+      <c r="GY32" s="4"/>
+      <c r="GZ32" s="4"/>
+      <c r="HA32" s="4"/>
+      <c r="HB32" s="4"/>
+      <c r="HC32" s="4"/>
+      <c r="HD32" s="4"/>
+      <c r="HE32" s="4"/>
+      <c r="HF32" s="4"/>
+      <c r="HG32" s="4"/>
+      <c r="HH32" s="4"/>
+      <c r="HI32" s="4"/>
+      <c r="HJ32" s="4"/>
+      <c r="HK32" s="4"/>
+      <c r="HL32" s="4"/>
+      <c r="HM32" s="4"/>
+      <c r="HN32" s="4"/>
+      <c r="HO32" s="4"/>
+      <c r="HP32" s="4"/>
+      <c r="HQ32" s="4"/>
+      <c r="HR32" s="4"/>
+      <c r="HS32" s="4"/>
+      <c r="HT32" s="4"/>
+      <c r="HU32" s="4"/>
+      <c r="HV32" s="4"/>
+      <c r="HW32" s="4"/>
+      <c r="HX32" s="4"/>
+      <c r="HY32" s="4"/>
+      <c r="HZ32" s="4"/>
+      <c r="IA32" s="4"/>
+      <c r="IB32" s="4"/>
+      <c r="IC32" s="4"/>
+      <c r="ID32" s="4"/>
+      <c r="IE32" s="4"/>
+      <c r="IF32" s="4"/>
+      <c r="IG32" s="4"/>
+      <c r="IH32" s="4"/>
+      <c r="II32" s="4"/>
+      <c r="IJ32" s="4"/>
+      <c r="IK32" s="4"/>
+      <c r="IL32" s="4"/>
+      <c r="IM32" s="4"/>
+      <c r="IN32" s="4"/>
+      <c r="IO32" s="4"/>
+      <c r="IP32" s="4"/>
+      <c r="IQ32" s="4"/>
+      <c r="IR32" s="4"/>
+      <c r="IS32" s="4"/>
+      <c r="IT32" s="4"/>
+      <c r="IU32" s="4"/>
+      <c r="IV32" s="4"/>
+      <c r="IW32" s="4"/>
+      <c r="IX32" s="4"/>
+      <c r="IY32" s="4"/>
+      <c r="IZ32" s="4"/>
+      <c r="JA32" s="4"/>
+      <c r="JB32" s="4"/>
+      <c r="JC32" s="4"/>
+      <c r="JD32" s="4"/>
+      <c r="JE32" s="4"/>
+      <c r="JF32" s="4"/>
+      <c r="JG32" s="4"/>
+      <c r="JH32" s="4"/>
+      <c r="JI32" s="4"/>
+      <c r="JJ32" s="4"/>
+      <c r="JK32" s="4">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="JL32" s="4">
+        <v>3.4001299999999998E-2</v>
+      </c>
+      <c r="JM32" s="4"/>
+      <c r="JN32" s="4"/>
+      <c r="JO32" s="4"/>
+      <c r="JP32" s="4"/>
+      <c r="JQ32" s="4"/>
+      <c r="JR32" s="4"/>
+      <c r="JS32" s="4"/>
+      <c r="JT32" s="4"/>
+      <c r="JU32" s="4"/>
+      <c r="JV32" s="4"/>
+      <c r="JW32" s="4"/>
+      <c r="JX32" s="4"/>
+      <c r="JY32" s="4"/>
+      <c r="JZ32" s="4"/>
+      <c r="KA32" s="4"/>
+      <c r="KB32" s="4"/>
+      <c r="KC32" s="4"/>
+      <c r="KD32" s="4"/>
+      <c r="KE32" s="4"/>
+      <c r="KF32" s="4"/>
+      <c r="KG32" s="4"/>
+      <c r="KH32" s="4"/>
+      <c r="KI32" s="4"/>
+      <c r="KJ32" s="4"/>
+      <c r="KK32" s="4"/>
+      <c r="KL32" s="4"/>
+      <c r="KM32" s="4"/>
+      <c r="KN32" s="4"/>
+      <c r="KO32" s="4"/>
+      <c r="KP32" s="4"/>
+      <c r="KQ32" s="4"/>
+      <c r="KR32" s="4"/>
+      <c r="KS32" s="4"/>
+      <c r="KT32" s="4"/>
+      <c r="KU32" s="4"/>
+      <c r="KV32" s="4"/>
+      <c r="KW32" s="4"/>
+      <c r="KX32" s="4"/>
+      <c r="KY32" s="4"/>
+      <c r="KZ32" s="4"/>
+      <c r="LA32" s="4"/>
+      <c r="LB32" s="4"/>
+      <c r="LC32" s="4">
+        <v>5.4129999999999998E-2</v>
+      </c>
+      <c r="LD32" s="4">
+        <v>4.42076E-2</v>
+      </c>
+      <c r="LE32" s="4"/>
+      <c r="LF32" s="4"/>
+      <c r="LG32" s="4"/>
+      <c r="LH32" s="4"/>
+      <c r="LI32" s="4"/>
+      <c r="LJ32" s="4"/>
+      <c r="LK32" s="4"/>
+      <c r="LL32" s="4"/>
+      <c r="LM32" s="4"/>
+      <c r="LN32" s="4"/>
+      <c r="LO32" s="4"/>
+      <c r="LP32" s="4"/>
+      <c r="LQ32" s="4"/>
+      <c r="LR32" s="4"/>
+      <c r="LS32" s="4"/>
+      <c r="LT32" s="4"/>
+      <c r="LU32" s="4"/>
+      <c r="LV32" s="4"/>
+      <c r="LW32" s="4"/>
+      <c r="LX32" s="4"/>
+      <c r="LY32" s="4"/>
+      <c r="LZ32" s="4"/>
+      <c r="MA32" s="4"/>
+      <c r="MB32" s="4"/>
+      <c r="MC32" s="4"/>
+      <c r="MD32" s="4"/>
+      <c r="ME32" s="4"/>
+      <c r="MF32" s="4"/>
+      <c r="MG32" s="4"/>
+      <c r="MH32" s="4"/>
+      <c r="MI32" s="4">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="MJ32" s="4">
+        <v>4.4942599999999999E-2</v>
+      </c>
+      <c r="MK32" s="4"/>
+      <c r="ML32" s="4"/>
+      <c r="MM32" s="4"/>
+      <c r="MN32" s="4"/>
+      <c r="MO32" s="4"/>
+      <c r="MP32" s="4"/>
+      <c r="MQ32" s="4"/>
+      <c r="MR32" s="4"/>
+      <c r="MS32" s="4"/>
+      <c r="MT32" s="4"/>
+      <c r="MU32" s="4"/>
+      <c r="MV32" s="4"/>
+      <c r="MW32" s="4"/>
+      <c r="MX32" s="4"/>
+      <c r="MY32" s="4"/>
+      <c r="MZ32" s="4"/>
+      <c r="NA32" s="4"/>
+      <c r="NB32" s="4"/>
+      <c r="NC32" s="4">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="ND32" s="4">
+        <v>4.4845000000000003E-2</v>
+      </c>
+      <c r="NE32" s="4"/>
+      <c r="NF32" s="4"/>
+      <c r="NG32" s="4"/>
+      <c r="NH32" s="4"/>
+      <c r="NI32" s="4"/>
+      <c r="NJ32" s="4"/>
+      <c r="NK32" s="4"/>
+      <c r="NL32" s="4"/>
+      <c r="NM32" s="4"/>
+      <c r="NN32" s="4"/>
+      <c r="NO32" s="4"/>
+      <c r="NP32" s="4"/>
+      <c r="NQ32" s="4"/>
+      <c r="NR32" s="4"/>
+      <c r="NS32" s="4"/>
+      <c r="NT32" s="4"/>
+      <c r="NU32" s="4"/>
+      <c r="NV32" s="4"/>
+      <c r="NW32" s="4">
+        <v>0.13814000000000001</v>
+      </c>
+      <c r="NX32" s="4">
+        <v>4.5988599999999998E-2</v>
+      </c>
+      <c r="NY32" s="4"/>
+      <c r="NZ32" s="4"/>
+      <c r="OA32" s="4"/>
+      <c r="OB32" s="4"/>
+      <c r="OC32" s="4"/>
+      <c r="OD32" s="4"/>
+      <c r="OE32" s="4"/>
+      <c r="OF32" s="4"/>
+      <c r="OG32" s="4"/>
+      <c r="OH32" s="4"/>
+      <c r="OI32" s="4"/>
+      <c r="OJ32" s="4"/>
+      <c r="OK32" s="4"/>
+      <c r="OL32" s="4"/>
+      <c r="OM32" s="4"/>
+      <c r="ON32" s="4"/>
+      <c r="OO32" s="4"/>
+      <c r="OP32" s="4"/>
+      <c r="OQ32" s="4"/>
+      <c r="OR32" s="4"/>
+      <c r="OS32" s="4"/>
+      <c r="OT32" s="4"/>
+      <c r="OU32" s="4"/>
+      <c r="OV32" s="4"/>
+      <c r="OW32" s="4"/>
+      <c r="OX32" s="4"/>
+      <c r="OY32" s="4"/>
+      <c r="OZ32" s="4"/>
+      <c r="PA32" s="4"/>
+      <c r="PB32" s="4"/>
+      <c r="PC32" s="4"/>
+      <c r="PD32" s="4"/>
+      <c r="PE32" s="4"/>
+      <c r="PF32" s="4"/>
+      <c r="PG32" s="4"/>
+      <c r="PH32" s="4"/>
+      <c r="PI32" s="4"/>
+      <c r="PJ32" s="4"/>
+      <c r="PK32" s="4"/>
+      <c r="PL32" s="4"/>
+      <c r="PM32" s="4"/>
+      <c r="PN32" s="4"/>
+      <c r="PO32" s="4"/>
+      <c r="PP32" s="4"/>
+      <c r="PQ32" s="4"/>
+      <c r="PR32" s="4"/>
+      <c r="PS32" s="4"/>
+      <c r="PT32" s="4"/>
+      <c r="PU32" s="4"/>
+      <c r="PV32" s="4"/>
+      <c r="PW32" s="4"/>
+      <c r="PX32" s="4"/>
+      <c r="PY32" s="4"/>
+      <c r="PZ32" s="4"/>
+      <c r="QA32" s="4"/>
+      <c r="QB32" s="4"/>
+      <c r="QC32" s="4"/>
+      <c r="QD32" s="4"/>
+      <c r="QE32" s="4"/>
+      <c r="QF32" s="4"/>
+      <c r="QG32" s="4"/>
+      <c r="QH32" s="4"/>
+      <c r="QI32" s="4"/>
+      <c r="QJ32" s="4"/>
+      <c r="QK32" s="4"/>
+      <c r="QL32" s="4"/>
+      <c r="QM32" s="4"/>
+      <c r="QN32" s="4"/>
+      <c r="QO32" s="4"/>
+      <c r="QP32" s="4"/>
+      <c r="QQ32" s="4"/>
+      <c r="QR32" s="4"/>
+      <c r="QS32" s="4"/>
+      <c r="QT32" s="4"/>
+      <c r="QU32" s="4"/>
+      <c r="QV32" s="4"/>
+      <c r="QW32" s="4"/>
+      <c r="QX32" s="4"/>
+      <c r="QY32" s="4"/>
+      <c r="QZ32" s="4"/>
+      <c r="RA32" s="4"/>
+      <c r="RB32" s="4"/>
+      <c r="RC32" s="4"/>
+      <c r="RD32" s="4"/>
+      <c r="RE32" s="4"/>
+      <c r="RF32" s="4"/>
+      <c r="RG32" s="4"/>
+      <c r="RH32" s="4"/>
+      <c r="RI32" s="4"/>
+      <c r="RJ32" s="4"/>
+      <c r="RK32" s="4"/>
+      <c r="RL32" s="4"/>
+      <c r="RM32" s="4"/>
+      <c r="RN32" s="4"/>
+      <c r="RO32" s="4"/>
+      <c r="RP32" s="4"/>
+      <c r="RQ32" s="4"/>
+      <c r="RR32" s="4"/>
+      <c r="RS32" s="4"/>
+      <c r="RT32" s="4"/>
+      <c r="RU32" s="4"/>
+      <c r="RV32" s="4"/>
+      <c r="RW32" s="4"/>
+      <c r="RX32" s="4"/>
+      <c r="RY32" s="4"/>
+      <c r="RZ32" s="4"/>
+      <c r="SA32" s="4"/>
+      <c r="SB32" s="4"/>
+      <c r="SC32" s="4"/>
+      <c r="SD32" s="4"/>
+      <c r="SE32" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="SF32" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="SG32" s="4"/>
+      <c r="SH32" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI32" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="SJ32" s="4"/>
+      <c r="SK32" s="4"/>
+      <c r="SL32" s="4"/>
+      <c r="SM32" s="4"/>
+      <c r="SN32" s="4"/>
+      <c r="SO32" s="4"/>
+      <c r="SP32" s="4"/>
+      <c r="SQ32" s="4"/>
+      <c r="SR32" s="4"/>
+      <c r="SS32" s="4"/>
+      <c r="ST32" s="4"/>
+      <c r="SU32" s="4"/>
+      <c r="SV32" s="4"/>
+      <c r="SW32" s="5">
+        <v>43126.560717592591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B33" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>25</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="4"/>
+      <c r="BT33" s="4"/>
+      <c r="BU33" s="4"/>
+      <c r="BV33" s="4"/>
+      <c r="BW33" s="4"/>
+      <c r="BX33" s="4"/>
+      <c r="BY33" s="4"/>
+      <c r="BZ33" s="4"/>
+      <c r="CA33" s="4"/>
+      <c r="CB33" s="4"/>
+      <c r="CC33" s="4"/>
+      <c r="CD33" s="4"/>
+      <c r="CE33" s="4"/>
+      <c r="CF33" s="4"/>
+      <c r="CG33" s="4"/>
+      <c r="CH33" s="4"/>
+      <c r="CI33" s="4"/>
+      <c r="CJ33" s="4"/>
+      <c r="CK33" s="4"/>
+      <c r="CL33" s="4"/>
+      <c r="CM33" s="4"/>
+      <c r="CN33" s="4"/>
+      <c r="CO33" s="4"/>
+      <c r="CP33" s="4"/>
+      <c r="CQ33" s="4"/>
+      <c r="CR33" s="4"/>
+      <c r="CS33" s="4"/>
+      <c r="CT33" s="4"/>
+      <c r="CU33" s="4"/>
+      <c r="CV33" s="4"/>
+      <c r="CW33" s="4"/>
+      <c r="CX33" s="4"/>
+      <c r="CY33" s="4"/>
+      <c r="CZ33" s="4"/>
+      <c r="DA33" s="4"/>
+      <c r="DB33" s="4"/>
+      <c r="DC33" s="4"/>
+      <c r="DD33" s="4"/>
+      <c r="DE33" s="4"/>
+      <c r="DF33" s="4"/>
+      <c r="DG33" s="4"/>
+      <c r="DH33" s="4"/>
+      <c r="DI33" s="4"/>
+      <c r="DJ33" s="4"/>
+      <c r="DK33" s="4"/>
+      <c r="DL33" s="4"/>
+      <c r="DM33" s="4"/>
+      <c r="DN33" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO33" s="4"/>
+      <c r="DP33" s="4"/>
+      <c r="DQ33" s="4"/>
+      <c r="DR33" s="4"/>
+      <c r="DS33" s="4"/>
+      <c r="DT33" s="4"/>
+      <c r="DU33" s="4"/>
+      <c r="DV33" s="4"/>
+      <c r="DW33" s="4"/>
+      <c r="DX33" s="4"/>
+      <c r="DY33" s="4"/>
+      <c r="DZ33" s="4"/>
+      <c r="EA33" s="4"/>
+      <c r="EB33" s="4"/>
+      <c r="EC33" s="4"/>
+      <c r="ED33" s="4"/>
+      <c r="EE33" s="4"/>
+      <c r="EF33" s="4"/>
+      <c r="EG33" s="4"/>
+      <c r="EH33" s="4"/>
+      <c r="EI33" s="4"/>
+      <c r="EJ33" s="4"/>
+      <c r="EK33" s="4"/>
+      <c r="EL33" s="4"/>
+      <c r="EM33" s="4"/>
+      <c r="EN33" s="4"/>
+      <c r="EO33" s="4"/>
+      <c r="EP33" s="4"/>
+      <c r="EQ33" s="4"/>
+      <c r="ER33" s="4"/>
+      <c r="ES33" s="4"/>
+      <c r="ET33" s="4"/>
+      <c r="EU33" s="4"/>
+      <c r="EV33" s="4"/>
+      <c r="EW33" s="4"/>
+      <c r="EX33" s="4"/>
+      <c r="EY33" s="4"/>
+      <c r="EZ33" s="4"/>
+      <c r="FA33" s="4"/>
+      <c r="FB33" s="4"/>
+      <c r="FC33" s="4"/>
+      <c r="FD33" s="4"/>
+      <c r="FE33" s="4"/>
+      <c r="FF33" s="4"/>
+      <c r="FG33" s="4"/>
+      <c r="FH33" s="4"/>
+      <c r="FI33" s="4"/>
+      <c r="FJ33" s="4"/>
+      <c r="FK33" s="4"/>
+      <c r="FL33" s="4"/>
+      <c r="FM33" s="4"/>
+      <c r="FN33" s="4"/>
+      <c r="FO33" s="4"/>
+      <c r="FP33" s="4"/>
+      <c r="FQ33" s="4"/>
+      <c r="FR33" s="4"/>
+      <c r="FS33" s="4"/>
+      <c r="FT33" s="4"/>
+      <c r="FU33" s="4"/>
+      <c r="FV33" s="4"/>
+      <c r="FW33" s="4"/>
+      <c r="FX33" s="4"/>
+      <c r="FY33" s="4"/>
+      <c r="FZ33" s="4"/>
+      <c r="GA33" s="4"/>
+      <c r="GB33" s="4"/>
+      <c r="GC33" s="4"/>
+      <c r="GD33" s="4"/>
+      <c r="GE33" s="4"/>
+      <c r="GF33" s="4"/>
+      <c r="GG33" s="4"/>
+      <c r="GH33" s="4"/>
+      <c r="GI33" s="4"/>
+      <c r="GJ33" s="4"/>
+      <c r="GK33" s="4"/>
+      <c r="GL33" s="4"/>
+      <c r="GM33" s="4"/>
+      <c r="GN33" s="4"/>
+      <c r="GO33" s="4"/>
+      <c r="GP33" s="4"/>
+      <c r="GQ33" s="4"/>
+      <c r="GR33" s="4"/>
+      <c r="GS33" s="4"/>
+      <c r="GT33" s="4"/>
+      <c r="GU33" s="4"/>
+      <c r="GV33" s="4"/>
+      <c r="GW33" s="4"/>
+      <c r="GX33" s="4"/>
+      <c r="GY33" s="4"/>
+      <c r="GZ33" s="4"/>
+      <c r="HA33" s="4"/>
+      <c r="HB33" s="4"/>
+      <c r="HC33" s="4"/>
+      <c r="HD33" s="4"/>
+      <c r="HE33" s="4"/>
+      <c r="HF33" s="4"/>
+      <c r="HG33" s="4"/>
+      <c r="HH33" s="4"/>
+      <c r="HI33" s="4"/>
+      <c r="HJ33" s="4"/>
+      <c r="HK33" s="4"/>
+      <c r="HL33" s="4"/>
+      <c r="HM33" s="4"/>
+      <c r="HN33" s="4"/>
+      <c r="HO33" s="4"/>
+      <c r="HP33" s="4"/>
+      <c r="HQ33" s="4"/>
+      <c r="HR33" s="4"/>
+      <c r="HS33" s="4"/>
+      <c r="HT33" s="4"/>
+      <c r="HU33" s="4"/>
+      <c r="HV33" s="4"/>
+      <c r="HW33" s="4"/>
+      <c r="HX33" s="4"/>
+      <c r="HY33" s="4"/>
+      <c r="HZ33" s="4"/>
+      <c r="IA33" s="4"/>
+      <c r="IB33" s="4"/>
+      <c r="IC33" s="4"/>
+      <c r="ID33" s="4"/>
+      <c r="IE33" s="4"/>
+      <c r="IF33" s="4"/>
+      <c r="IG33" s="4"/>
+      <c r="IH33" s="4"/>
+      <c r="II33" s="4"/>
+      <c r="IJ33" s="4"/>
+      <c r="IK33" s="4"/>
+      <c r="IL33" s="4"/>
+      <c r="IM33" s="4"/>
+      <c r="IN33" s="4"/>
+      <c r="IO33" s="4"/>
+      <c r="IP33" s="4"/>
+      <c r="IQ33" s="4"/>
+      <c r="IR33" s="4"/>
+      <c r="IS33" s="4"/>
+      <c r="IT33" s="4"/>
+      <c r="IU33" s="4"/>
+      <c r="IV33" s="4"/>
+      <c r="IW33" s="4"/>
+      <c r="IX33" s="4"/>
+      <c r="IY33" s="4"/>
+      <c r="IZ33" s="4"/>
+      <c r="JA33" s="4"/>
+      <c r="JB33" s="4"/>
+      <c r="JC33" s="4"/>
+      <c r="JD33" s="4"/>
+      <c r="JE33" s="4"/>
+      <c r="JF33" s="4"/>
+      <c r="JG33" s="4"/>
+      <c r="JH33" s="4"/>
+      <c r="JI33" s="4"/>
+      <c r="JJ33" s="4"/>
+      <c r="JK33" s="4">
+        <v>4.2560000000000001E-2</v>
+      </c>
+      <c r="JL33" s="4">
+        <v>3.91023E-2</v>
+      </c>
+      <c r="JM33" s="4"/>
+      <c r="JN33" s="4"/>
+      <c r="JO33" s="4"/>
+      <c r="JP33" s="4"/>
+      <c r="JQ33" s="4"/>
+      <c r="JR33" s="4"/>
+      <c r="JS33" s="4"/>
+      <c r="JT33" s="4"/>
+      <c r="JU33" s="4"/>
+      <c r="JV33" s="4"/>
+      <c r="JW33" s="4"/>
+      <c r="JX33" s="4"/>
+      <c r="JY33" s="4"/>
+      <c r="JZ33" s="4"/>
+      <c r="KA33" s="4"/>
+      <c r="KB33" s="4"/>
+      <c r="KC33" s="4"/>
+      <c r="KD33" s="4"/>
+      <c r="KE33" s="4"/>
+      <c r="KF33" s="4"/>
+      <c r="KG33" s="4"/>
+      <c r="KH33" s="4"/>
+      <c r="KI33" s="4"/>
+      <c r="KJ33" s="4"/>
+      <c r="KK33" s="4"/>
+      <c r="KL33" s="4"/>
+      <c r="KM33" s="4"/>
+      <c r="KN33" s="4"/>
+      <c r="KO33" s="4"/>
+      <c r="KP33" s="4"/>
+      <c r="KQ33" s="4"/>
+      <c r="KR33" s="4"/>
+      <c r="KS33" s="4"/>
+      <c r="KT33" s="4"/>
+      <c r="KU33" s="4"/>
+      <c r="KV33" s="4"/>
+      <c r="KW33" s="4"/>
+      <c r="KX33" s="4"/>
+      <c r="KY33" s="4"/>
+      <c r="KZ33" s="4"/>
+      <c r="LA33" s="4"/>
+      <c r="LB33" s="4"/>
+      <c r="LC33" s="4">
+        <v>8.5120000000000001E-2</v>
+      </c>
+      <c r="LD33" s="4">
+        <v>4.0004499999999998E-2</v>
+      </c>
+      <c r="LE33" s="4"/>
+      <c r="LF33" s="4"/>
+      <c r="LG33" s="4"/>
+      <c r="LH33" s="4"/>
+      <c r="LI33" s="4"/>
+      <c r="LJ33" s="4"/>
+      <c r="LK33" s="4"/>
+      <c r="LL33" s="4"/>
+      <c r="LM33" s="4"/>
+      <c r="LN33" s="4"/>
+      <c r="LO33" s="4"/>
+      <c r="LP33" s="4"/>
+      <c r="LQ33" s="4"/>
+      <c r="LR33" s="4"/>
+      <c r="LS33" s="4"/>
+      <c r="LT33" s="4"/>
+      <c r="LU33" s="4"/>
+      <c r="LV33" s="4"/>
+      <c r="LW33" s="4"/>
+      <c r="LX33" s="4"/>
+      <c r="LY33" s="4"/>
+      <c r="LZ33" s="4"/>
+      <c r="MA33" s="4"/>
+      <c r="MB33" s="4"/>
+      <c r="MC33" s="4"/>
+      <c r="MD33" s="4"/>
+      <c r="ME33" s="4"/>
+      <c r="MF33" s="4"/>
+      <c r="MG33" s="4"/>
+      <c r="MH33" s="4"/>
+      <c r="MI33" s="4"/>
+      <c r="MJ33" s="4"/>
+      <c r="MK33" s="4"/>
+      <c r="ML33" s="4"/>
+      <c r="MM33" s="4"/>
+      <c r="MN33" s="4"/>
+      <c r="MO33" s="4"/>
+      <c r="MP33" s="4"/>
+      <c r="MQ33" s="4"/>
+      <c r="MR33" s="4"/>
+      <c r="MS33" s="4"/>
+      <c r="MT33" s="4"/>
+      <c r="MU33" s="4"/>
+      <c r="MV33" s="4"/>
+      <c r="MW33" s="4"/>
+      <c r="MX33" s="4"/>
+      <c r="MY33" s="4"/>
+      <c r="MZ33" s="4"/>
+      <c r="NA33" s="4"/>
+      <c r="NB33" s="4"/>
+      <c r="NC33" s="4"/>
+      <c r="ND33" s="4"/>
+      <c r="NE33" s="4"/>
+      <c r="NF33" s="4"/>
+      <c r="NG33" s="4"/>
+      <c r="NH33" s="4"/>
+      <c r="NI33" s="4"/>
+      <c r="NJ33" s="4"/>
+      <c r="NK33" s="4"/>
+      <c r="NL33" s="4"/>
+      <c r="NM33" s="4"/>
+      <c r="NN33" s="4"/>
+      <c r="NO33" s="4"/>
+      <c r="NP33" s="4"/>
+      <c r="NQ33" s="4"/>
+      <c r="NR33" s="4"/>
+      <c r="NS33" s="4"/>
+      <c r="NT33" s="4"/>
+      <c r="NU33" s="4"/>
+      <c r="NV33" s="4"/>
+      <c r="NW33" s="4"/>
+      <c r="NX33" s="4"/>
+      <c r="NY33" s="4"/>
+      <c r="NZ33" s="4"/>
+      <c r="OA33" s="4"/>
+      <c r="OB33" s="4"/>
+      <c r="OC33" s="4"/>
+      <c r="OD33" s="4"/>
+      <c r="OE33" s="4"/>
+      <c r="OF33" s="4"/>
+      <c r="OG33" s="4"/>
+      <c r="OH33" s="4"/>
+      <c r="OI33" s="4"/>
+      <c r="OJ33" s="4"/>
+      <c r="OK33" s="4"/>
+      <c r="OL33" s="4"/>
+      <c r="OM33" s="4"/>
+      <c r="ON33" s="4"/>
+      <c r="OO33" s="4"/>
+      <c r="OP33" s="4"/>
+      <c r="OQ33" s="4"/>
+      <c r="OR33" s="4"/>
+      <c r="OS33" s="4"/>
+      <c r="OT33" s="4"/>
+      <c r="OU33" s="4"/>
+      <c r="OV33" s="4"/>
+      <c r="OW33" s="4"/>
+      <c r="OX33" s="4"/>
+      <c r="OY33" s="4"/>
+      <c r="OZ33" s="4"/>
+      <c r="PA33" s="4"/>
+      <c r="PB33" s="4"/>
+      <c r="PC33" s="4"/>
+      <c r="PD33" s="4"/>
+      <c r="PE33" s="4"/>
+      <c r="PF33" s="4"/>
+      <c r="PG33" s="4"/>
+      <c r="PH33" s="4"/>
+      <c r="PI33" s="4"/>
+      <c r="PJ33" s="4"/>
+      <c r="PK33" s="4"/>
+      <c r="PL33" s="4"/>
+      <c r="PM33" s="4"/>
+      <c r="PN33" s="4"/>
+      <c r="PO33" s="4"/>
+      <c r="PP33" s="4"/>
+      <c r="PQ33" s="4"/>
+      <c r="PR33" s="4"/>
+      <c r="PS33" s="4"/>
+      <c r="PT33" s="4"/>
+      <c r="PU33" s="4"/>
+      <c r="PV33" s="4"/>
+      <c r="PW33" s="4"/>
+      <c r="PX33" s="4"/>
+      <c r="PY33" s="4"/>
+      <c r="PZ33" s="4"/>
+      <c r="QA33" s="4"/>
+      <c r="QB33" s="4"/>
+      <c r="QC33" s="4"/>
+      <c r="QD33" s="4"/>
+      <c r="QE33" s="4"/>
+      <c r="QF33" s="4"/>
+      <c r="QG33" s="4"/>
+      <c r="QH33" s="4"/>
+      <c r="QI33" s="4"/>
+      <c r="QJ33" s="4"/>
+      <c r="QK33" s="4"/>
+      <c r="QL33" s="4"/>
+      <c r="QM33" s="4"/>
+      <c r="QN33" s="4"/>
+      <c r="QO33" s="4"/>
+      <c r="QP33" s="4"/>
+      <c r="QQ33" s="4"/>
+      <c r="QR33" s="4"/>
+      <c r="QS33" s="4"/>
+      <c r="QT33" s="4"/>
+      <c r="QU33" s="4"/>
+      <c r="QV33" s="4"/>
+      <c r="QW33" s="4"/>
+      <c r="QX33" s="4"/>
+      <c r="QY33" s="4"/>
+      <c r="QZ33" s="4"/>
+      <c r="RA33" s="4"/>
+      <c r="RB33" s="4"/>
+      <c r="RC33" s="4"/>
+      <c r="RD33" s="4"/>
+      <c r="RE33" s="4"/>
+      <c r="RF33" s="4"/>
+      <c r="RG33" s="4"/>
+      <c r="RH33" s="4"/>
+      <c r="RI33" s="4"/>
+      <c r="RJ33" s="4"/>
+      <c r="RK33" s="4"/>
+      <c r="RL33" s="4"/>
+      <c r="RM33" s="4"/>
+      <c r="RN33" s="4"/>
+      <c r="RO33" s="4"/>
+      <c r="RP33" s="4"/>
+      <c r="RQ33" s="4"/>
+      <c r="RR33" s="4"/>
+      <c r="RS33" s="4"/>
+      <c r="RT33" s="4"/>
+      <c r="RU33" s="4"/>
+      <c r="RV33" s="4"/>
+      <c r="RW33" s="4"/>
+      <c r="RX33" s="4"/>
+      <c r="RY33" s="4"/>
+      <c r="RZ33" s="4"/>
+      <c r="SA33" s="4"/>
+      <c r="SB33" s="4"/>
+      <c r="SC33" s="4"/>
+      <c r="SD33" s="4"/>
+      <c r="SE33" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SF33" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SG33" s="4"/>
+      <c r="SH33" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI33" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="SJ33" s="4"/>
+      <c r="SK33" s="4"/>
+      <c r="SL33" s="4"/>
+      <c r="SM33" s="4"/>
+      <c r="SN33" s="4"/>
+      <c r="SO33" s="4"/>
+      <c r="SP33" s="4"/>
+      <c r="SQ33" s="4"/>
+      <c r="SR33" s="4"/>
+      <c r="SS33" s="4"/>
+      <c r="ST33" s="4"/>
+      <c r="SU33" s="4"/>
+      <c r="SV33" s="4"/>
+      <c r="SW33" s="5">
+        <v>43126.564988425926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B34" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D34" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4">
+        <v>44.43</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+      <c r="BS34" s="4"/>
+      <c r="BT34" s="4"/>
+      <c r="BU34" s="4"/>
+      <c r="BV34" s="4"/>
+      <c r="BW34" s="4"/>
+      <c r="BX34" s="4"/>
+      <c r="BY34" s="4"/>
+      <c r="BZ34" s="4"/>
+      <c r="CA34" s="4"/>
+      <c r="CB34" s="4"/>
+      <c r="CC34" s="4"/>
+      <c r="CD34" s="4"/>
+      <c r="CE34" s="4"/>
+      <c r="CF34" s="4"/>
+      <c r="CG34" s="4"/>
+      <c r="CH34" s="4"/>
+      <c r="CI34" s="4"/>
+      <c r="CJ34" s="4"/>
+      <c r="CK34" s="4"/>
+      <c r="CL34" s="4"/>
+      <c r="CM34" s="4"/>
+      <c r="CN34" s="4"/>
+      <c r="CO34" s="4"/>
+      <c r="CP34" s="4"/>
+      <c r="CQ34" s="4"/>
+      <c r="CR34" s="4"/>
+      <c r="CS34" s="4"/>
+      <c r="CT34" s="4"/>
+      <c r="CU34" s="4"/>
+      <c r="CV34" s="4"/>
+      <c r="CW34" s="4"/>
+      <c r="CX34" s="4"/>
+      <c r="CY34" s="4"/>
+      <c r="CZ34" s="4"/>
+      <c r="DA34" s="4"/>
+      <c r="DB34" s="4"/>
+      <c r="DC34" s="4"/>
+      <c r="DD34" s="4"/>
+      <c r="DE34" s="4"/>
+      <c r="DF34" s="4"/>
+      <c r="DG34" s="4"/>
+      <c r="DH34" s="4"/>
+      <c r="DI34" s="4"/>
+      <c r="DJ34" s="4"/>
+      <c r="DK34" s="4"/>
+      <c r="DL34" s="4"/>
+      <c r="DM34" s="4"/>
+      <c r="DN34" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY34" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA34" s="4"/>
+      <c r="EB34" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="EC34" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="ED34" s="4"/>
+      <c r="EE34" s="4"/>
+      <c r="EF34" s="4"/>
+      <c r="EG34" s="4"/>
+      <c r="EH34" s="4"/>
+      <c r="EI34" s="4"/>
+      <c r="EJ34" s="4"/>
+      <c r="EK34" s="4"/>
+      <c r="EL34" s="4"/>
+      <c r="EM34" s="4"/>
+      <c r="EN34" s="4"/>
+      <c r="EO34" s="4"/>
+      <c r="EP34" s="4"/>
+      <c r="EQ34" s="4"/>
+      <c r="ER34" s="4"/>
+      <c r="ES34" s="4"/>
+      <c r="ET34" s="4"/>
+      <c r="EU34" s="4"/>
+      <c r="EV34" s="4"/>
+      <c r="EW34" s="4"/>
+      <c r="EX34" s="4"/>
+      <c r="EY34" s="4"/>
+      <c r="EZ34" s="4"/>
+      <c r="FA34" s="4"/>
+      <c r="FB34" s="4"/>
+      <c r="FC34" s="4"/>
+      <c r="FD34" s="4"/>
+      <c r="FE34" s="4"/>
+      <c r="FF34" s="4"/>
+      <c r="FG34" s="4"/>
+      <c r="FH34" s="4"/>
+      <c r="FI34" s="4"/>
+      <c r="FJ34" s="4"/>
+      <c r="FK34" s="4"/>
+      <c r="FL34" s="4"/>
+      <c r="FM34" s="4"/>
+      <c r="FN34" s="4"/>
+      <c r="FO34" s="4"/>
+      <c r="FP34" s="4"/>
+      <c r="FQ34" s="4"/>
+      <c r="FR34" s="4"/>
+      <c r="FS34" s="4"/>
+      <c r="FT34" s="4"/>
+      <c r="FU34" s="4"/>
+      <c r="FV34" s="4"/>
+      <c r="FW34" s="4"/>
+      <c r="FX34" s="4">
+        <v>14.02</v>
+      </c>
+      <c r="FY34" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="FZ34" s="4"/>
+      <c r="GA34" s="4"/>
+      <c r="GB34" s="4"/>
+      <c r="GC34" s="4"/>
+      <c r="GD34" s="4"/>
+      <c r="GE34" s="4"/>
+      <c r="GF34" s="4"/>
+      <c r="GG34" s="4"/>
+      <c r="GH34" s="4"/>
+      <c r="GI34" s="4"/>
+      <c r="GJ34" s="4"/>
+      <c r="GK34" s="4"/>
+      <c r="GL34" s="4"/>
+      <c r="GM34" s="4"/>
+      <c r="GN34" s="4"/>
+      <c r="GO34" s="4"/>
+      <c r="GP34" s="4"/>
+      <c r="GQ34" s="4"/>
+      <c r="GR34" s="4"/>
+      <c r="GS34" s="4"/>
+      <c r="GT34" s="4"/>
+      <c r="GU34" s="4"/>
+      <c r="GV34" s="4"/>
+      <c r="GW34" s="4"/>
+      <c r="GX34" s="4"/>
+      <c r="GY34" s="4"/>
+      <c r="GZ34" s="4"/>
+      <c r="HA34" s="4"/>
+      <c r="HB34" s="4"/>
+      <c r="HC34" s="4"/>
+      <c r="HD34" s="4"/>
+      <c r="HE34" s="4"/>
+      <c r="HF34" s="4"/>
+      <c r="HG34" s="4"/>
+      <c r="HH34" s="4"/>
+      <c r="HI34" s="4"/>
+      <c r="HJ34" s="4"/>
+      <c r="HK34" s="4"/>
+      <c r="HL34" s="4"/>
+      <c r="HM34" s="4"/>
+      <c r="HN34" s="4"/>
+      <c r="HO34" s="4"/>
+      <c r="HP34" s="4"/>
+      <c r="HQ34" s="4"/>
+      <c r="HR34" s="4"/>
+      <c r="HS34" s="4"/>
+      <c r="HT34" s="4"/>
+      <c r="HU34" s="4"/>
+      <c r="HV34" s="4"/>
+      <c r="HW34" s="4"/>
+      <c r="HX34" s="4"/>
+      <c r="HY34" s="4"/>
+      <c r="HZ34" s="4"/>
+      <c r="IA34" s="4"/>
+      <c r="IB34" s="4"/>
+      <c r="IC34" s="4"/>
+      <c r="ID34" s="4"/>
+      <c r="IE34" s="4"/>
+      <c r="IF34" s="4"/>
+      <c r="IG34" s="4"/>
+      <c r="IH34" s="4"/>
+      <c r="II34" s="4"/>
+      <c r="IJ34" s="4"/>
+      <c r="IK34" s="4"/>
+      <c r="IL34" s="4"/>
+      <c r="IM34" s="4"/>
+      <c r="IN34" s="4"/>
+      <c r="IO34" s="4"/>
+      <c r="IP34" s="4"/>
+      <c r="IQ34" s="4"/>
+      <c r="IR34" s="4"/>
+      <c r="IS34" s="4"/>
+      <c r="IT34" s="4"/>
+      <c r="IU34" s="4"/>
+      <c r="IV34" s="4"/>
+      <c r="IW34" s="4"/>
+      <c r="IX34" s="4"/>
+      <c r="IY34" s="4"/>
+      <c r="IZ34" s="4"/>
+      <c r="JA34" s="4"/>
+      <c r="JB34" s="4"/>
+      <c r="JC34" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="JD34" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="JE34" s="4"/>
+      <c r="JF34" s="4"/>
+      <c r="JG34" s="4"/>
+      <c r="JH34" s="4"/>
+      <c r="JI34" s="4"/>
+      <c r="JJ34" s="4"/>
+      <c r="JK34" s="4">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="JL34" s="4">
+        <v>2.8047699999999998E-2</v>
+      </c>
+      <c r="JM34" s="4"/>
+      <c r="JN34" s="4"/>
+      <c r="JO34" s="4"/>
+      <c r="JP34" s="4"/>
+      <c r="JQ34" s="4"/>
+      <c r="JR34" s="4"/>
+      <c r="JS34" s="4"/>
+      <c r="JT34" s="4"/>
+      <c r="JU34" s="4"/>
+      <c r="JV34" s="4"/>
+      <c r="JW34" s="4"/>
+      <c r="JX34" s="4"/>
+      <c r="JY34" s="4"/>
+      <c r="JZ34" s="4"/>
+      <c r="KA34" s="4"/>
+      <c r="KB34" s="4"/>
+      <c r="KC34" s="4"/>
+      <c r="KD34" s="4"/>
+      <c r="KE34" s="4"/>
+      <c r="KF34" s="4"/>
+      <c r="KG34" s="4"/>
+      <c r="KH34" s="4"/>
+      <c r="KI34" s="4"/>
+      <c r="KJ34" s="4"/>
+      <c r="KK34" s="4"/>
+      <c r="KL34" s="4"/>
+      <c r="KM34" s="4"/>
+      <c r="KN34" s="4"/>
+      <c r="KO34" s="4"/>
+      <c r="KP34" s="4"/>
+      <c r="KQ34" s="4"/>
+      <c r="KR34" s="4"/>
+      <c r="KS34" s="4"/>
+      <c r="KT34" s="4"/>
+      <c r="KU34" s="4"/>
+      <c r="KV34" s="4"/>
+      <c r="KW34" s="4"/>
+      <c r="KX34" s="4"/>
+      <c r="KY34" s="4"/>
+      <c r="KZ34" s="4"/>
+      <c r="LA34" s="4"/>
+      <c r="LB34" s="4"/>
+      <c r="LC34" s="4"/>
+      <c r="LD34" s="4"/>
+      <c r="LE34" s="4"/>
+      <c r="LF34" s="4"/>
+      <c r="LG34" s="4"/>
+      <c r="LH34" s="4"/>
+      <c r="LI34" s="4"/>
+      <c r="LJ34" s="4"/>
+      <c r="LK34" s="4"/>
+      <c r="LL34" s="4"/>
+      <c r="LM34" s="4"/>
+      <c r="LN34" s="4"/>
+      <c r="LO34" s="4"/>
+      <c r="LP34" s="4"/>
+      <c r="LQ34" s="4"/>
+      <c r="LR34" s="4"/>
+      <c r="LS34" s="4"/>
+      <c r="LT34" s="4"/>
+      <c r="LU34" s="4"/>
+      <c r="LV34" s="4"/>
+      <c r="LW34" s="4"/>
+      <c r="LX34" s="4"/>
+      <c r="LY34" s="4"/>
+      <c r="LZ34" s="4"/>
+      <c r="MA34" s="4"/>
+      <c r="MB34" s="4"/>
+      <c r="MC34" s="4"/>
+      <c r="MD34" s="4"/>
+      <c r="ME34" s="4"/>
+      <c r="MF34" s="4"/>
+      <c r="MG34" s="4"/>
+      <c r="MH34" s="4"/>
+      <c r="MI34" s="4"/>
+      <c r="MJ34" s="4"/>
+      <c r="MK34" s="4"/>
+      <c r="ML34" s="4"/>
+      <c r="MM34" s="4"/>
+      <c r="MN34" s="4"/>
+      <c r="MO34" s="4"/>
+      <c r="MP34" s="4"/>
+      <c r="MQ34" s="4"/>
+      <c r="MR34" s="4"/>
+      <c r="MS34" s="4"/>
+      <c r="MT34" s="4"/>
+      <c r="MU34" s="4"/>
+      <c r="MV34" s="4"/>
+      <c r="MW34" s="4"/>
+      <c r="MX34" s="4"/>
+      <c r="MY34" s="4"/>
+      <c r="MZ34" s="4"/>
+      <c r="NA34" s="4"/>
+      <c r="NB34" s="4"/>
+      <c r="NC34" s="4"/>
+      <c r="ND34" s="4"/>
+      <c r="NE34" s="4"/>
+      <c r="NF34" s="4"/>
+      <c r="NG34" s="4"/>
+      <c r="NH34" s="4"/>
+      <c r="NI34" s="4"/>
+      <c r="NJ34" s="4"/>
+      <c r="NK34" s="4"/>
+      <c r="NL34" s="4"/>
+      <c r="NM34" s="4"/>
+      <c r="NN34" s="4"/>
+      <c r="NO34" s="4"/>
+      <c r="NP34" s="4"/>
+      <c r="NQ34" s="4"/>
+      <c r="NR34" s="4"/>
+      <c r="NS34" s="4"/>
+      <c r="NT34" s="4"/>
+      <c r="NU34" s="4"/>
+      <c r="NV34" s="4"/>
+      <c r="NW34" s="4"/>
+      <c r="NX34" s="4"/>
+      <c r="NY34" s="4"/>
+      <c r="NZ34" s="4"/>
+      <c r="OA34" s="4"/>
+      <c r="OB34" s="4"/>
+      <c r="OC34" s="4"/>
+      <c r="OD34" s="4"/>
+      <c r="OE34" s="4"/>
+      <c r="OF34" s="4"/>
+      <c r="OG34" s="4"/>
+      <c r="OH34" s="4"/>
+      <c r="OI34" s="4"/>
+      <c r="OJ34" s="4"/>
+      <c r="OK34" s="4"/>
+      <c r="OL34" s="4"/>
+      <c r="OM34" s="4"/>
+      <c r="ON34" s="4"/>
+      <c r="OO34" s="4"/>
+      <c r="OP34" s="4"/>
+      <c r="OQ34" s="4"/>
+      <c r="OR34" s="4"/>
+      <c r="OS34" s="4"/>
+      <c r="OT34" s="4"/>
+      <c r="OU34" s="4"/>
+      <c r="OV34" s="4"/>
+      <c r="OW34" s="4"/>
+      <c r="OX34" s="4"/>
+      <c r="OY34" s="4"/>
+      <c r="OZ34" s="4"/>
+      <c r="PA34" s="4"/>
+      <c r="PB34" s="4"/>
+      <c r="PC34" s="4"/>
+      <c r="PD34" s="4"/>
+      <c r="PE34" s="4"/>
+      <c r="PF34" s="4"/>
+      <c r="PG34" s="4"/>
+      <c r="PH34" s="4"/>
+      <c r="PI34" s="4"/>
+      <c r="PJ34" s="4"/>
+      <c r="PK34" s="4"/>
+      <c r="PL34" s="4"/>
+      <c r="PM34" s="4"/>
+      <c r="PN34" s="4"/>
+      <c r="PO34" s="4"/>
+      <c r="PP34" s="4"/>
+      <c r="PQ34" s="4"/>
+      <c r="PR34" s="4"/>
+      <c r="PS34" s="4"/>
+      <c r="PT34" s="4"/>
+      <c r="PU34" s="4"/>
+      <c r="PV34" s="4"/>
+      <c r="PW34" s="4"/>
+      <c r="PX34" s="4"/>
+      <c r="PY34" s="4"/>
+      <c r="PZ34" s="4"/>
+      <c r="QA34" s="4"/>
+      <c r="QB34" s="4"/>
+      <c r="QC34" s="4"/>
+      <c r="QD34" s="4"/>
+      <c r="QE34" s="4"/>
+      <c r="QF34" s="4"/>
+      <c r="QG34" s="4"/>
+      <c r="QH34" s="4"/>
+      <c r="QI34" s="4"/>
+      <c r="QJ34" s="4"/>
+      <c r="QK34" s="4"/>
+      <c r="QL34" s="4"/>
+      <c r="QM34" s="4"/>
+      <c r="QN34" s="4"/>
+      <c r="QO34" s="4"/>
+      <c r="QP34" s="4"/>
+      <c r="QQ34" s="4"/>
+      <c r="QR34" s="4"/>
+      <c r="QS34" s="4"/>
+      <c r="QT34" s="4"/>
+      <c r="QU34" s="4"/>
+      <c r="QV34" s="4"/>
+      <c r="QW34" s="4"/>
+      <c r="QX34" s="4"/>
+      <c r="QY34" s="4"/>
+      <c r="QZ34" s="4"/>
+      <c r="RA34" s="4"/>
+      <c r="RB34" s="4"/>
+      <c r="RC34" s="4"/>
+      <c r="RD34" s="4"/>
+      <c r="RE34" s="4"/>
+      <c r="RF34" s="4"/>
+      <c r="RG34" s="4"/>
+      <c r="RH34" s="4"/>
+      <c r="RI34" s="4"/>
+      <c r="RJ34" s="4"/>
+      <c r="RK34" s="4"/>
+      <c r="RL34" s="4"/>
+      <c r="RM34" s="4"/>
+      <c r="RN34" s="4"/>
+      <c r="RO34" s="4"/>
+      <c r="RP34" s="4"/>
+      <c r="RQ34" s="4"/>
+      <c r="RR34" s="4"/>
+      <c r="RS34" s="4"/>
+      <c r="RT34" s="4"/>
+      <c r="RU34" s="4"/>
+      <c r="RV34" s="4"/>
+      <c r="RW34" s="4"/>
+      <c r="RX34" s="4"/>
+      <c r="RY34" s="4"/>
+      <c r="RZ34" s="4"/>
+      <c r="SA34" s="4"/>
+      <c r="SB34" s="4"/>
+      <c r="SC34" s="4"/>
+      <c r="SD34" s="4"/>
+      <c r="SE34" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SF34" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SG34" s="4"/>
+      <c r="SH34" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI34" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="SJ34" s="4"/>
+      <c r="SK34" s="4"/>
+      <c r="SL34" s="4"/>
+      <c r="SM34" s="4"/>
+      <c r="SN34" s="4"/>
+      <c r="SO34" s="4"/>
+      <c r="SP34" s="4"/>
+      <c r="SQ34" s="4"/>
+      <c r="SR34" s="4"/>
+      <c r="SS34" s="4"/>
+      <c r="ST34" s="4"/>
+      <c r="SU34" s="4"/>
+      <c r="SV34" s="4"/>
+      <c r="SW34" s="5">
+        <v>43126.569016203706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B35" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D35" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
+        <v>44.43</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+      <c r="BS35" s="4"/>
+      <c r="BT35" s="4"/>
+      <c r="BU35" s="4"/>
+      <c r="BV35" s="4"/>
+      <c r="BW35" s="4"/>
+      <c r="BX35" s="4"/>
+      <c r="BY35" s="4"/>
+      <c r="BZ35" s="4"/>
+      <c r="CA35" s="4"/>
+      <c r="CB35" s="4"/>
+      <c r="CC35" s="4"/>
+      <c r="CD35" s="4"/>
+      <c r="CE35" s="4"/>
+      <c r="CF35" s="4"/>
+      <c r="CG35" s="4"/>
+      <c r="CH35" s="4"/>
+      <c r="CI35" s="4"/>
+      <c r="CJ35" s="4"/>
+      <c r="CK35" s="4"/>
+      <c r="CL35" s="4"/>
+      <c r="CM35" s="4"/>
+      <c r="CN35" s="4"/>
+      <c r="CO35" s="4"/>
+      <c r="CP35" s="4"/>
+      <c r="CQ35" s="4"/>
+      <c r="CR35" s="4"/>
+      <c r="CS35" s="4"/>
+      <c r="CT35" s="4"/>
+      <c r="CU35" s="4"/>
+      <c r="CV35" s="4"/>
+      <c r="CW35" s="4"/>
+      <c r="CX35" s="4"/>
+      <c r="CY35" s="4"/>
+      <c r="CZ35" s="4"/>
+      <c r="DA35" s="4"/>
+      <c r="DB35" s="4"/>
+      <c r="DC35" s="4"/>
+      <c r="DD35" s="4"/>
+      <c r="DE35" s="4"/>
+      <c r="DF35" s="4"/>
+      <c r="DG35" s="4"/>
+      <c r="DH35" s="4"/>
+      <c r="DI35" s="4"/>
+      <c r="DJ35" s="4"/>
+      <c r="DK35" s="4"/>
+      <c r="DL35" s="4"/>
+      <c r="DM35" s="4"/>
+      <c r="DN35" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY35" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ35" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA35" s="4"/>
+      <c r="EB35" s="4"/>
+      <c r="EC35" s="4"/>
+      <c r="ED35" s="4"/>
+      <c r="EE35" s="4"/>
+      <c r="EF35" s="4"/>
+      <c r="EG35" s="4"/>
+      <c r="EH35" s="4"/>
+      <c r="EI35" s="4"/>
+      <c r="EJ35" s="4"/>
+      <c r="EK35" s="4"/>
+      <c r="EL35" s="4"/>
+      <c r="EM35" s="4"/>
+      <c r="EN35" s="4"/>
+      <c r="EO35" s="4"/>
+      <c r="EP35" s="4"/>
+      <c r="EQ35" s="4"/>
+      <c r="ER35" s="4"/>
+      <c r="ES35" s="4"/>
+      <c r="ET35" s="4"/>
+      <c r="EU35" s="4"/>
+      <c r="EV35" s="4"/>
+      <c r="EW35" s="4"/>
+      <c r="EX35" s="4"/>
+      <c r="EY35" s="4"/>
+      <c r="EZ35" s="4"/>
+      <c r="FA35" s="4"/>
+      <c r="FB35" s="4"/>
+      <c r="FC35" s="4"/>
+      <c r="FD35" s="4"/>
+      <c r="FE35" s="4"/>
+      <c r="FF35" s="4"/>
+      <c r="FG35" s="4"/>
+      <c r="FH35" s="4"/>
+      <c r="FI35" s="4"/>
+      <c r="FJ35" s="4"/>
+      <c r="FK35" s="4"/>
+      <c r="FL35" s="4"/>
+      <c r="FM35" s="4"/>
+      <c r="FN35" s="4"/>
+      <c r="FO35" s="4"/>
+      <c r="FP35" s="4"/>
+      <c r="FQ35" s="4"/>
+      <c r="FR35" s="4"/>
+      <c r="FS35" s="4"/>
+      <c r="FT35" s="4"/>
+      <c r="FU35" s="4"/>
+      <c r="FV35" s="4"/>
+      <c r="FW35" s="4"/>
+      <c r="FX35" s="4"/>
+      <c r="FY35" s="4"/>
+      <c r="FZ35" s="4"/>
+      <c r="GA35" s="4"/>
+      <c r="GB35" s="4"/>
+      <c r="GC35" s="4"/>
+      <c r="GD35" s="4"/>
+      <c r="GE35" s="4"/>
+      <c r="GF35" s="4"/>
+      <c r="GG35" s="4"/>
+      <c r="GH35" s="4"/>
+      <c r="GI35" s="4"/>
+      <c r="GJ35" s="4"/>
+      <c r="GK35" s="4"/>
+      <c r="GL35" s="4"/>
+      <c r="GM35" s="4"/>
+      <c r="GN35" s="4"/>
+      <c r="GO35" s="4"/>
+      <c r="GP35" s="4"/>
+      <c r="GQ35" s="4"/>
+      <c r="GR35" s="4"/>
+      <c r="GS35" s="4"/>
+      <c r="GT35" s="4"/>
+      <c r="GU35" s="4"/>
+      <c r="GV35" s="4"/>
+      <c r="GW35" s="4"/>
+      <c r="GX35" s="4"/>
+      <c r="GY35" s="4"/>
+      <c r="GZ35" s="4"/>
+      <c r="HA35" s="4"/>
+      <c r="HB35" s="4"/>
+      <c r="HC35" s="4"/>
+      <c r="HD35" s="4"/>
+      <c r="HE35" s="4"/>
+      <c r="HF35" s="4"/>
+      <c r="HG35" s="4"/>
+      <c r="HH35" s="4"/>
+      <c r="HI35" s="4"/>
+      <c r="HJ35" s="4"/>
+      <c r="HK35" s="4"/>
+      <c r="HL35" s="4"/>
+      <c r="HM35" s="4"/>
+      <c r="HN35" s="4"/>
+      <c r="HO35" s="4"/>
+      <c r="HP35" s="4"/>
+      <c r="HQ35" s="4"/>
+      <c r="HR35" s="4"/>
+      <c r="HS35" s="4"/>
+      <c r="HT35" s="4"/>
+      <c r="HU35" s="4"/>
+      <c r="HV35" s="4"/>
+      <c r="HW35" s="4"/>
+      <c r="HX35" s="4"/>
+      <c r="HY35" s="4"/>
+      <c r="HZ35" s="4"/>
+      <c r="IA35" s="4"/>
+      <c r="IB35" s="4"/>
+      <c r="IC35" s="4"/>
+      <c r="ID35" s="4"/>
+      <c r="IE35" s="4"/>
+      <c r="IF35" s="4"/>
+      <c r="IG35" s="4"/>
+      <c r="IH35" s="4"/>
+      <c r="II35" s="4"/>
+      <c r="IJ35" s="4"/>
+      <c r="IK35" s="4"/>
+      <c r="IL35" s="4"/>
+      <c r="IM35" s="4"/>
+      <c r="IN35" s="4"/>
+      <c r="IO35" s="4"/>
+      <c r="IP35" s="4"/>
+      <c r="IQ35" s="4"/>
+      <c r="IR35" s="4"/>
+      <c r="IS35" s="4"/>
+      <c r="IT35" s="4"/>
+      <c r="IU35" s="4"/>
+      <c r="IV35" s="4"/>
+      <c r="IW35" s="4"/>
+      <c r="IX35" s="4"/>
+      <c r="IY35" s="4"/>
+      <c r="IZ35" s="4"/>
+      <c r="JA35" s="4"/>
+      <c r="JB35" s="4"/>
+      <c r="JC35" s="4"/>
+      <c r="JD35" s="4"/>
+      <c r="JE35" s="4"/>
+      <c r="JF35" s="4"/>
+      <c r="JG35" s="4"/>
+      <c r="JH35" s="4"/>
+      <c r="JI35" s="4"/>
+      <c r="JJ35" s="4"/>
+      <c r="JK35" s="4">
+        <v>0.12293</v>
+      </c>
+      <c r="JL35" s="4">
+        <v>7.4496099999999996E-2</v>
+      </c>
+      <c r="JM35" s="4"/>
+      <c r="JN35" s="4"/>
+      <c r="JO35" s="4"/>
+      <c r="JP35" s="4"/>
+      <c r="JQ35" s="4"/>
+      <c r="JR35" s="4"/>
+      <c r="JS35" s="4"/>
+      <c r="JT35" s="4"/>
+      <c r="JU35" s="4"/>
+      <c r="JV35" s="4"/>
+      <c r="JW35" s="4"/>
+      <c r="JX35" s="4"/>
+      <c r="JY35" s="4"/>
+      <c r="JZ35" s="4"/>
+      <c r="KA35" s="4"/>
+      <c r="KB35" s="4"/>
+      <c r="KC35" s="4"/>
+      <c r="KD35" s="4"/>
+      <c r="KE35" s="4"/>
+      <c r="KF35" s="4"/>
+      <c r="KG35" s="4"/>
+      <c r="KH35" s="4"/>
+      <c r="KI35" s="4"/>
+      <c r="KJ35" s="4"/>
+      <c r="KK35" s="4"/>
+      <c r="KL35" s="4"/>
+      <c r="KM35" s="4"/>
+      <c r="KN35" s="4"/>
+      <c r="KO35" s="4"/>
+      <c r="KP35" s="4"/>
+      <c r="KQ35" s="4"/>
+      <c r="KR35" s="4"/>
+      <c r="KS35" s="4"/>
+      <c r="KT35" s="4"/>
+      <c r="KU35" s="4"/>
+      <c r="KV35" s="4"/>
+      <c r="KW35" s="4"/>
+      <c r="KX35" s="4"/>
+      <c r="KY35" s="4"/>
+      <c r="KZ35" s="4"/>
+      <c r="LA35" s="4"/>
+      <c r="LB35" s="4"/>
+      <c r="LC35" s="4">
+        <v>0.17560999999999999</v>
+      </c>
+      <c r="LD35" s="4">
+        <v>7.5612899999999997E-2</v>
+      </c>
+      <c r="LE35" s="4"/>
+      <c r="LF35" s="4"/>
+      <c r="LG35" s="4"/>
+      <c r="LH35" s="4"/>
+      <c r="LI35" s="4"/>
+      <c r="LJ35" s="4"/>
+      <c r="LK35" s="4"/>
+      <c r="LL35" s="4"/>
+      <c r="LM35" s="4"/>
+      <c r="LN35" s="4"/>
+      <c r="LO35" s="4"/>
+      <c r="LP35" s="4"/>
+      <c r="LQ35" s="4"/>
+      <c r="LR35" s="4"/>
+      <c r="LS35" s="4"/>
+      <c r="LT35" s="4"/>
+      <c r="LU35" s="4"/>
+      <c r="LV35" s="4"/>
+      <c r="LW35" s="4"/>
+      <c r="LX35" s="4"/>
+      <c r="LY35" s="4"/>
+      <c r="LZ35" s="4"/>
+      <c r="MA35" s="4"/>
+      <c r="MB35" s="4"/>
+      <c r="MC35" s="4"/>
+      <c r="MD35" s="4"/>
+      <c r="ME35" s="4"/>
+      <c r="MF35" s="4"/>
+      <c r="MG35" s="4"/>
+      <c r="MH35" s="4"/>
+      <c r="MI35" s="4"/>
+      <c r="MJ35" s="4"/>
+      <c r="MK35" s="4"/>
+      <c r="ML35" s="4"/>
+      <c r="MM35" s="4"/>
+      <c r="MN35" s="4"/>
+      <c r="MO35" s="4"/>
+      <c r="MP35" s="4"/>
+      <c r="MQ35" s="4"/>
+      <c r="MR35" s="4"/>
+      <c r="MS35" s="4"/>
+      <c r="MT35" s="4"/>
+      <c r="MU35" s="4"/>
+      <c r="MV35" s="4"/>
+      <c r="MW35" s="4"/>
+      <c r="MX35" s="4"/>
+      <c r="MY35" s="4"/>
+      <c r="MZ35" s="4"/>
+      <c r="NA35" s="4"/>
+      <c r="NB35" s="4"/>
+      <c r="NC35" s="4"/>
+      <c r="ND35" s="4"/>
+      <c r="NE35" s="4"/>
+      <c r="NF35" s="4"/>
+      <c r="NG35" s="4"/>
+      <c r="NH35" s="4"/>
+      <c r="NI35" s="4"/>
+      <c r="NJ35" s="4"/>
+      <c r="NK35" s="4"/>
+      <c r="NL35" s="4"/>
+      <c r="NM35" s="4"/>
+      <c r="NN35" s="4"/>
+      <c r="NO35" s="4"/>
+      <c r="NP35" s="4"/>
+      <c r="NQ35" s="4"/>
+      <c r="NR35" s="4"/>
+      <c r="NS35" s="4"/>
+      <c r="NT35" s="4"/>
+      <c r="NU35" s="4"/>
+      <c r="NV35" s="4"/>
+      <c r="NW35" s="4"/>
+      <c r="NX35" s="4"/>
+      <c r="NY35" s="4"/>
+      <c r="NZ35" s="4"/>
+      <c r="OA35" s="4"/>
+      <c r="OB35" s="4"/>
+      <c r="OC35" s="4"/>
+      <c r="OD35" s="4"/>
+      <c r="OE35" s="4"/>
+      <c r="OF35" s="4"/>
+      <c r="OG35" s="4"/>
+      <c r="OH35" s="4"/>
+      <c r="OI35" s="4"/>
+      <c r="OJ35" s="4"/>
+      <c r="OK35" s="4"/>
+      <c r="OL35" s="4"/>
+      <c r="OM35" s="4"/>
+      <c r="ON35" s="4"/>
+      <c r="OO35" s="4"/>
+      <c r="OP35" s="4"/>
+      <c r="OQ35" s="4"/>
+      <c r="OR35" s="4"/>
+      <c r="OS35" s="4"/>
+      <c r="OT35" s="4"/>
+      <c r="OU35" s="4"/>
+      <c r="OV35" s="4"/>
+      <c r="OW35" s="4"/>
+      <c r="OX35" s="4"/>
+      <c r="OY35" s="4"/>
+      <c r="OZ35" s="4"/>
+      <c r="PA35" s="4"/>
+      <c r="PB35" s="4"/>
+      <c r="PC35" s="4"/>
+      <c r="PD35" s="4"/>
+      <c r="PE35" s="4"/>
+      <c r="PF35" s="4"/>
+      <c r="PG35" s="4"/>
+      <c r="PH35" s="4"/>
+      <c r="PI35" s="4"/>
+      <c r="PJ35" s="4"/>
+      <c r="PK35" s="4"/>
+      <c r="PL35" s="4"/>
+      <c r="PM35" s="4"/>
+      <c r="PN35" s="4"/>
+      <c r="PO35" s="4"/>
+      <c r="PP35" s="4"/>
+      <c r="PQ35" s="4"/>
+      <c r="PR35" s="4"/>
+      <c r="PS35" s="4"/>
+      <c r="PT35" s="4"/>
+      <c r="PU35" s="4"/>
+      <c r="PV35" s="4"/>
+      <c r="PW35" s="4"/>
+      <c r="PX35" s="4"/>
+      <c r="PY35" s="4"/>
+      <c r="PZ35" s="4"/>
+      <c r="QA35" s="4"/>
+      <c r="QB35" s="4"/>
+      <c r="QC35" s="4"/>
+      <c r="QD35" s="4"/>
+      <c r="QE35" s="4"/>
+      <c r="QF35" s="4"/>
+      <c r="QG35" s="4"/>
+      <c r="QH35" s="4"/>
+      <c r="QI35" s="4"/>
+      <c r="QJ35" s="4"/>
+      <c r="QK35" s="4"/>
+      <c r="QL35" s="4"/>
+      <c r="QM35" s="4"/>
+      <c r="QN35" s="4"/>
+      <c r="QO35" s="4"/>
+      <c r="QP35" s="4"/>
+      <c r="QQ35" s="4"/>
+      <c r="QR35" s="4"/>
+      <c r="QS35" s="4"/>
+      <c r="QT35" s="4"/>
+      <c r="QU35" s="4"/>
+      <c r="QV35" s="4"/>
+      <c r="QW35" s="4"/>
+      <c r="QX35" s="4"/>
+      <c r="QY35" s="4"/>
+      <c r="QZ35" s="4"/>
+      <c r="RA35" s="4"/>
+      <c r="RB35" s="4"/>
+      <c r="RC35" s="4"/>
+      <c r="RD35" s="4"/>
+      <c r="RE35" s="4"/>
+      <c r="RF35" s="4"/>
+      <c r="RG35" s="4"/>
+      <c r="RH35" s="4"/>
+      <c r="RI35" s="4"/>
+      <c r="RJ35" s="4"/>
+      <c r="RK35" s="4"/>
+      <c r="RL35" s="4"/>
+      <c r="RM35" s="4"/>
+      <c r="RN35" s="4"/>
+      <c r="RO35" s="4"/>
+      <c r="RP35" s="4"/>
+      <c r="RQ35" s="4"/>
+      <c r="RR35" s="4"/>
+      <c r="RS35" s="4"/>
+      <c r="RT35" s="4"/>
+      <c r="RU35" s="4"/>
+      <c r="RV35" s="4"/>
+      <c r="RW35" s="4"/>
+      <c r="RX35" s="4"/>
+      <c r="RY35" s="4"/>
+      <c r="RZ35" s="4"/>
+      <c r="SA35" s="4"/>
+      <c r="SB35" s="4"/>
+      <c r="SC35" s="4"/>
+      <c r="SD35" s="4"/>
+      <c r="SE35" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SF35" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="SG35" s="4"/>
+      <c r="SH35" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI35" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="SJ35" s="4"/>
+      <c r="SK35" s="4"/>
+      <c r="SL35" s="4"/>
+      <c r="SM35" s="4"/>
+      <c r="SN35" s="4"/>
+      <c r="SO35" s="4"/>
+      <c r="SP35" s="4"/>
+      <c r="SQ35" s="4"/>
+      <c r="SR35" s="4"/>
+      <c r="SS35" s="4"/>
+      <c r="ST35" s="4"/>
+      <c r="SU35" s="4"/>
+      <c r="SV35" s="4"/>
+      <c r="SW35" s="5">
+        <v>43126.572824074072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B36" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D36" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+      <c r="BT36" s="4"/>
+      <c r="BU36" s="4"/>
+      <c r="BV36" s="4"/>
+      <c r="BW36" s="4"/>
+      <c r="BX36" s="4"/>
+      <c r="BY36" s="4"/>
+      <c r="BZ36" s="4"/>
+      <c r="CA36" s="4"/>
+      <c r="CB36" s="4"/>
+      <c r="CC36" s="4"/>
+      <c r="CD36" s="4"/>
+      <c r="CE36" s="4"/>
+      <c r="CF36" s="4"/>
+      <c r="CG36" s="4"/>
+      <c r="CH36" s="4"/>
+      <c r="CI36" s="4"/>
+      <c r="CJ36" s="4"/>
+      <c r="CK36" s="4"/>
+      <c r="CL36" s="4"/>
+      <c r="CM36" s="4"/>
+      <c r="CN36" s="4"/>
+      <c r="CO36" s="4"/>
+      <c r="CP36" s="4"/>
+      <c r="CQ36" s="4"/>
+      <c r="CR36" s="4"/>
+      <c r="CS36" s="4"/>
+      <c r="CT36" s="4"/>
+      <c r="CU36" s="4"/>
+      <c r="CV36" s="4"/>
+      <c r="CW36" s="4"/>
+      <c r="CX36" s="4"/>
+      <c r="CY36" s="4"/>
+      <c r="CZ36" s="4"/>
+      <c r="DA36" s="4"/>
+      <c r="DB36" s="4"/>
+      <c r="DC36" s="4"/>
+      <c r="DD36" s="4"/>
+      <c r="DE36" s="4"/>
+      <c r="DF36" s="4"/>
+      <c r="DG36" s="4"/>
+      <c r="DH36" s="4"/>
+      <c r="DI36" s="4"/>
+      <c r="DJ36" s="4"/>
+      <c r="DK36" s="4"/>
+      <c r="DL36" s="4"/>
+      <c r="DM36" s="4"/>
+      <c r="DN36" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY36" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA36" s="4"/>
+      <c r="EB36" s="4"/>
+      <c r="EC36" s="4"/>
+      <c r="ED36" s="4"/>
+      <c r="EE36" s="4"/>
+      <c r="EF36" s="4"/>
+      <c r="EG36" s="4"/>
+      <c r="EH36" s="4"/>
+      <c r="EI36" s="4"/>
+      <c r="EJ36" s="4"/>
+      <c r="EK36" s="4"/>
+      <c r="EL36" s="4"/>
+      <c r="EM36" s="4"/>
+      <c r="EN36" s="4"/>
+      <c r="EO36" s="4"/>
+      <c r="EP36" s="4"/>
+      <c r="EQ36" s="4"/>
+      <c r="ER36" s="4"/>
+      <c r="ES36" s="4"/>
+      <c r="ET36" s="4"/>
+      <c r="EU36" s="4"/>
+      <c r="EV36" s="4"/>
+      <c r="EW36" s="4"/>
+      <c r="EX36" s="4"/>
+      <c r="EY36" s="4"/>
+      <c r="EZ36" s="4"/>
+      <c r="FA36" s="4"/>
+      <c r="FB36" s="4"/>
+      <c r="FC36" s="4"/>
+      <c r="FD36" s="4"/>
+      <c r="FE36" s="4"/>
+      <c r="FF36" s="4"/>
+      <c r="FG36" s="4"/>
+      <c r="FH36" s="4"/>
+      <c r="FI36" s="4"/>
+      <c r="FJ36" s="4"/>
+      <c r="FK36" s="4"/>
+      <c r="FL36" s="4"/>
+      <c r="FM36" s="4"/>
+      <c r="FN36" s="4"/>
+      <c r="FO36" s="4"/>
+      <c r="FP36" s="4"/>
+      <c r="FQ36" s="4"/>
+      <c r="FR36" s="4"/>
+      <c r="FS36" s="4"/>
+      <c r="FT36" s="4"/>
+      <c r="FU36" s="4"/>
+      <c r="FV36" s="4"/>
+      <c r="FW36" s="4"/>
+      <c r="FX36" s="4"/>
+      <c r="FY36" s="4"/>
+      <c r="FZ36" s="4"/>
+      <c r="GA36" s="4"/>
+      <c r="GB36" s="4"/>
+      <c r="GC36" s="4"/>
+      <c r="GD36" s="4"/>
+      <c r="GE36" s="4"/>
+      <c r="GF36" s="4"/>
+      <c r="GG36" s="4"/>
+      <c r="GH36" s="4"/>
+      <c r="GI36" s="4"/>
+      <c r="GJ36" s="4"/>
+      <c r="GK36" s="4"/>
+      <c r="GL36" s="4"/>
+      <c r="GM36" s="4"/>
+      <c r="GN36" s="4"/>
+      <c r="GO36" s="4"/>
+      <c r="GP36" s="4"/>
+      <c r="GQ36" s="4"/>
+      <c r="GR36" s="4"/>
+      <c r="GS36" s="4"/>
+      <c r="GT36" s="4"/>
+      <c r="GU36" s="4"/>
+      <c r="GV36" s="4"/>
+      <c r="GW36" s="4"/>
+      <c r="GX36" s="4"/>
+      <c r="GY36" s="4"/>
+      <c r="GZ36" s="4"/>
+      <c r="HA36" s="4"/>
+      <c r="HB36" s="4"/>
+      <c r="HC36" s="4"/>
+      <c r="HD36" s="4"/>
+      <c r="HE36" s="4"/>
+      <c r="HF36" s="4"/>
+      <c r="HG36" s="4"/>
+      <c r="HH36" s="4"/>
+      <c r="HI36" s="4"/>
+      <c r="HJ36" s="4"/>
+      <c r="HK36" s="4"/>
+      <c r="HL36" s="4"/>
+      <c r="HM36" s="4"/>
+      <c r="HN36" s="4"/>
+      <c r="HO36" s="4"/>
+      <c r="HP36" s="4"/>
+      <c r="HQ36" s="4"/>
+      <c r="HR36" s="4"/>
+      <c r="HS36" s="4"/>
+      <c r="HT36" s="4"/>
+      <c r="HU36" s="4"/>
+      <c r="HV36" s="4"/>
+      <c r="HW36" s="4"/>
+      <c r="HX36" s="4"/>
+      <c r="HY36" s="4"/>
+      <c r="HZ36" s="4"/>
+      <c r="IA36" s="4"/>
+      <c r="IB36" s="4"/>
+      <c r="IC36" s="4"/>
+      <c r="ID36" s="4"/>
+      <c r="IE36" s="4"/>
+      <c r="IF36" s="4"/>
+      <c r="IG36" s="4"/>
+      <c r="IH36" s="4"/>
+      <c r="II36" s="4"/>
+      <c r="IJ36" s="4"/>
+      <c r="IK36" s="4"/>
+      <c r="IL36" s="4"/>
+      <c r="IM36" s="4"/>
+      <c r="IN36" s="4"/>
+      <c r="IO36" s="4"/>
+      <c r="IP36" s="4"/>
+      <c r="IQ36" s="4"/>
+      <c r="IR36" s="4"/>
+      <c r="IS36" s="4"/>
+      <c r="IT36" s="4"/>
+      <c r="IU36" s="4"/>
+      <c r="IV36" s="4"/>
+      <c r="IW36" s="4"/>
+      <c r="IX36" s="4"/>
+      <c r="IY36" s="4"/>
+      <c r="IZ36" s="4"/>
+      <c r="JA36" s="4"/>
+      <c r="JB36" s="4"/>
+      <c r="JC36" s="4"/>
+      <c r="JD36" s="4"/>
+      <c r="JE36" s="4"/>
+      <c r="JF36" s="4"/>
+      <c r="JG36" s="4"/>
+      <c r="JH36" s="4"/>
+      <c r="JI36" s="4"/>
+      <c r="JJ36" s="4"/>
+      <c r="JK36" s="4">
+        <v>2.239E-2</v>
+      </c>
+      <c r="JL36" s="4">
+        <v>2.3894700000000001E-2</v>
+      </c>
+      <c r="JM36" s="4"/>
+      <c r="JN36" s="4"/>
+      <c r="JO36" s="4"/>
+      <c r="JP36" s="4"/>
+      <c r="JQ36" s="4"/>
+      <c r="JR36" s="4"/>
+      <c r="JS36" s="4"/>
+      <c r="JT36" s="4"/>
+      <c r="JU36" s="4"/>
+      <c r="JV36" s="4"/>
+      <c r="JW36" s="4"/>
+      <c r="JX36" s="4"/>
+      <c r="JY36" s="4"/>
+      <c r="JZ36" s="4"/>
+      <c r="KA36" s="4"/>
+      <c r="KB36" s="4"/>
+      <c r="KC36" s="4"/>
+      <c r="KD36" s="4"/>
+      <c r="KE36" s="4"/>
+      <c r="KF36" s="4"/>
+      <c r="KG36" s="4"/>
+      <c r="KH36" s="4"/>
+      <c r="KI36" s="4"/>
+      <c r="KJ36" s="4"/>
+      <c r="KK36" s="4"/>
+      <c r="KL36" s="4"/>
+      <c r="KM36" s="4"/>
+      <c r="KN36" s="4"/>
+      <c r="KO36" s="4"/>
+      <c r="KP36" s="4"/>
+      <c r="KQ36" s="4"/>
+      <c r="KR36" s="4"/>
+      <c r="KS36" s="4"/>
+      <c r="KT36" s="4"/>
+      <c r="KU36" s="4"/>
+      <c r="KV36" s="4"/>
+      <c r="KW36" s="4"/>
+      <c r="KX36" s="4"/>
+      <c r="KY36" s="4"/>
+      <c r="KZ36" s="4"/>
+      <c r="LA36" s="4"/>
+      <c r="LB36" s="4"/>
+      <c r="LC36" s="4">
+        <v>9.0490000000000001E-2</v>
+      </c>
+      <c r="LD36" s="4">
+        <v>3.54084E-2</v>
+      </c>
+      <c r="LE36" s="4"/>
+      <c r="LF36" s="4"/>
+      <c r="LG36" s="4"/>
+      <c r="LH36" s="4"/>
+      <c r="LI36" s="4"/>
+      <c r="LJ36" s="4"/>
+      <c r="LK36" s="4"/>
+      <c r="LL36" s="4"/>
+      <c r="LM36" s="4"/>
+      <c r="LN36" s="4"/>
+      <c r="LO36" s="4"/>
+      <c r="LP36" s="4"/>
+      <c r="LQ36" s="4"/>
+      <c r="LR36" s="4"/>
+      <c r="LS36" s="4"/>
+      <c r="LT36" s="4"/>
+      <c r="LU36" s="4"/>
+      <c r="LV36" s="4"/>
+      <c r="LW36" s="4"/>
+      <c r="LX36" s="4"/>
+      <c r="LY36" s="4"/>
+      <c r="LZ36" s="4"/>
+      <c r="MA36" s="4"/>
+      <c r="MB36" s="4"/>
+      <c r="MC36" s="4"/>
+      <c r="MD36" s="4"/>
+      <c r="ME36" s="4"/>
+      <c r="MF36" s="4"/>
+      <c r="MG36" s="4"/>
+      <c r="MH36" s="4"/>
+      <c r="MI36" s="4"/>
+      <c r="MJ36" s="4"/>
+      <c r="MK36" s="4"/>
+      <c r="ML36" s="4"/>
+      <c r="MM36" s="4"/>
+      <c r="MN36" s="4"/>
+      <c r="MO36" s="4"/>
+      <c r="MP36" s="4"/>
+      <c r="MQ36" s="4"/>
+      <c r="MR36" s="4"/>
+      <c r="MS36" s="4"/>
+      <c r="MT36" s="4"/>
+      <c r="MU36" s="4"/>
+      <c r="MV36" s="4"/>
+      <c r="MW36" s="4"/>
+      <c r="MX36" s="4"/>
+      <c r="MY36" s="4"/>
+      <c r="MZ36" s="4"/>
+      <c r="NA36" s="4"/>
+      <c r="NB36" s="4"/>
+      <c r="NC36" s="4"/>
+      <c r="ND36" s="4"/>
+      <c r="NE36" s="4"/>
+      <c r="NF36" s="4"/>
+      <c r="NG36" s="4"/>
+      <c r="NH36" s="4"/>
+      <c r="NI36" s="4"/>
+      <c r="NJ36" s="4"/>
+      <c r="NK36" s="4"/>
+      <c r="NL36" s="4"/>
+      <c r="NM36" s="4"/>
+      <c r="NN36" s="4"/>
+      <c r="NO36" s="4"/>
+      <c r="NP36" s="4"/>
+      <c r="NQ36" s="4"/>
+      <c r="NR36" s="4"/>
+      <c r="NS36" s="4"/>
+      <c r="NT36" s="4"/>
+      <c r="NU36" s="4"/>
+      <c r="NV36" s="4"/>
+      <c r="NW36" s="4"/>
+      <c r="NX36" s="4"/>
+      <c r="NY36" s="4"/>
+      <c r="NZ36" s="4"/>
+      <c r="OA36" s="4"/>
+      <c r="OB36" s="4"/>
+      <c r="OC36" s="4"/>
+      <c r="OD36" s="4"/>
+      <c r="OE36" s="4"/>
+      <c r="OF36" s="4"/>
+      <c r="OG36" s="4"/>
+      <c r="OH36" s="4"/>
+      <c r="OI36" s="4"/>
+      <c r="OJ36" s="4"/>
+      <c r="OK36" s="4"/>
+      <c r="OL36" s="4"/>
+      <c r="OM36" s="4"/>
+      <c r="ON36" s="4"/>
+      <c r="OO36" s="4"/>
+      <c r="OP36" s="4"/>
+      <c r="OQ36" s="4"/>
+      <c r="OR36" s="4"/>
+      <c r="OS36" s="4"/>
+      <c r="OT36" s="4"/>
+      <c r="OU36" s="4"/>
+      <c r="OV36" s="4"/>
+      <c r="OW36" s="4"/>
+      <c r="OX36" s="4"/>
+      <c r="OY36" s="4"/>
+      <c r="OZ36" s="4"/>
+      <c r="PA36" s="4"/>
+      <c r="PB36" s="4"/>
+      <c r="PC36" s="4"/>
+      <c r="PD36" s="4"/>
+      <c r="PE36" s="4"/>
+      <c r="PF36" s="4"/>
+      <c r="PG36" s="4"/>
+      <c r="PH36" s="4"/>
+      <c r="PI36" s="4"/>
+      <c r="PJ36" s="4"/>
+      <c r="PK36" s="4"/>
+      <c r="PL36" s="4"/>
+      <c r="PM36" s="4"/>
+      <c r="PN36" s="4"/>
+      <c r="PO36" s="4"/>
+      <c r="PP36" s="4"/>
+      <c r="PQ36" s="4"/>
+      <c r="PR36" s="4"/>
+      <c r="PS36" s="4"/>
+      <c r="PT36" s="4"/>
+      <c r="PU36" s="4"/>
+      <c r="PV36" s="4"/>
+      <c r="PW36" s="4"/>
+      <c r="PX36" s="4"/>
+      <c r="PY36" s="4"/>
+      <c r="PZ36" s="4"/>
+      <c r="QA36" s="4"/>
+      <c r="QB36" s="4"/>
+      <c r="QC36" s="4"/>
+      <c r="QD36" s="4"/>
+      <c r="QE36" s="4"/>
+      <c r="QF36" s="4"/>
+      <c r="QG36" s="4"/>
+      <c r="QH36" s="4"/>
+      <c r="QI36" s="4"/>
+      <c r="QJ36" s="4"/>
+      <c r="QK36" s="4"/>
+      <c r="QL36" s="4"/>
+      <c r="QM36" s="4"/>
+      <c r="QN36" s="4"/>
+      <c r="QO36" s="4"/>
+      <c r="QP36" s="4"/>
+      <c r="QQ36" s="4"/>
+      <c r="QR36" s="4"/>
+      <c r="QS36" s="4"/>
+      <c r="QT36" s="4"/>
+      <c r="QU36" s="4"/>
+      <c r="QV36" s="4"/>
+      <c r="QW36" s="4"/>
+      <c r="QX36" s="4"/>
+      <c r="QY36" s="4"/>
+      <c r="QZ36" s="4"/>
+      <c r="RA36" s="4"/>
+      <c r="RB36" s="4"/>
+      <c r="RC36" s="4"/>
+      <c r="RD36" s="4"/>
+      <c r="RE36" s="4"/>
+      <c r="RF36" s="4"/>
+      <c r="RG36" s="4"/>
+      <c r="RH36" s="4"/>
+      <c r="RI36" s="4"/>
+      <c r="RJ36" s="4"/>
+      <c r="RK36" s="4"/>
+      <c r="RL36" s="4"/>
+      <c r="RM36" s="4"/>
+      <c r="RN36" s="4"/>
+      <c r="RO36" s="4"/>
+      <c r="RP36" s="4"/>
+      <c r="RQ36" s="4"/>
+      <c r="RR36" s="4"/>
+      <c r="RS36" s="4"/>
+      <c r="RT36" s="4"/>
+      <c r="RU36" s="4"/>
+      <c r="RV36" s="4"/>
+      <c r="RW36" s="4"/>
+      <c r="RX36" s="4"/>
+      <c r="RY36" s="4"/>
+      <c r="RZ36" s="4"/>
+      <c r="SA36" s="4"/>
+      <c r="SB36" s="4"/>
+      <c r="SC36" s="4"/>
+      <c r="SD36" s="4"/>
+      <c r="SE36" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="SF36" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SG36" s="4"/>
+      <c r="SH36" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI36" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="SJ36" s="4"/>
+      <c r="SK36" s="4"/>
+      <c r="SL36" s="4"/>
+      <c r="SM36" s="4"/>
+      <c r="SN36" s="4"/>
+      <c r="SO36" s="4"/>
+      <c r="SP36" s="4"/>
+      <c r="SQ36" s="4"/>
+      <c r="SR36" s="4"/>
+      <c r="SS36" s="4"/>
+      <c r="ST36" s="4"/>
+      <c r="SU36" s="4"/>
+      <c r="SV36" s="4"/>
+      <c r="SW36" s="5">
+        <v>43126.578726851854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B37" s="4">
+        <v>15466</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D37" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4">
+        <v>44.43</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="4"/>
+      <c r="BT37" s="4"/>
+      <c r="BU37" s="4"/>
+      <c r="BV37" s="4"/>
+      <c r="BW37" s="4"/>
+      <c r="BX37" s="4"/>
+      <c r="BY37" s="4"/>
+      <c r="BZ37" s="4"/>
+      <c r="CA37" s="4"/>
+      <c r="CB37" s="4"/>
+      <c r="CC37" s="4"/>
+      <c r="CD37" s="4"/>
+      <c r="CE37" s="4"/>
+      <c r="CF37" s="4"/>
+      <c r="CG37" s="4"/>
+      <c r="CH37" s="4"/>
+      <c r="CI37" s="4"/>
+      <c r="CJ37" s="4"/>
+      <c r="CK37" s="4"/>
+      <c r="CL37" s="4"/>
+      <c r="CM37" s="4"/>
+      <c r="CN37" s="4"/>
+      <c r="CO37" s="4"/>
+      <c r="CP37" s="4"/>
+      <c r="CQ37" s="4"/>
+      <c r="CR37" s="4"/>
+      <c r="CS37" s="4"/>
+      <c r="CT37" s="4"/>
+      <c r="CU37" s="4"/>
+      <c r="CV37" s="4"/>
+      <c r="CW37" s="4"/>
+      <c r="CX37" s="4"/>
+      <c r="CY37" s="4"/>
+      <c r="CZ37" s="4"/>
+      <c r="DA37" s="4"/>
+      <c r="DB37" s="4"/>
+      <c r="DC37" s="4"/>
+      <c r="DD37" s="4"/>
+      <c r="DE37" s="4"/>
+      <c r="DF37" s="4"/>
+      <c r="DG37" s="4"/>
+      <c r="DH37" s="4"/>
+      <c r="DI37" s="4"/>
+      <c r="DJ37" s="4"/>
+      <c r="DK37" s="4"/>
+      <c r="DL37" s="4"/>
+      <c r="DM37" s="4"/>
+      <c r="DN37" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DX37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY37" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ37" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA37" s="4"/>
+      <c r="EB37" s="4"/>
+      <c r="EC37" s="4"/>
+      <c r="ED37" s="4"/>
+      <c r="EE37" s="4"/>
+      <c r="EF37" s="4"/>
+      <c r="EG37" s="4"/>
+      <c r="EH37" s="4"/>
+      <c r="EI37" s="4"/>
+      <c r="EJ37" s="4"/>
+      <c r="EK37" s="4"/>
+      <c r="EL37" s="4"/>
+      <c r="EM37" s="4"/>
+      <c r="EN37" s="4"/>
+      <c r="EO37" s="4"/>
+      <c r="EP37" s="4"/>
+      <c r="EQ37" s="4"/>
+      <c r="ER37" s="4"/>
+      <c r="ES37" s="4"/>
+      <c r="ET37" s="4"/>
+      <c r="EU37" s="4"/>
+      <c r="EV37" s="4"/>
+      <c r="EW37" s="4"/>
+      <c r="EX37" s="4"/>
+      <c r="EY37" s="4"/>
+      <c r="EZ37" s="4"/>
+      <c r="FA37" s="4"/>
+      <c r="FB37" s="4"/>
+      <c r="FC37" s="4"/>
+      <c r="FD37" s="4"/>
+      <c r="FE37" s="4"/>
+      <c r="FF37" s="4"/>
+      <c r="FG37" s="4"/>
+      <c r="FH37" s="4"/>
+      <c r="FI37" s="4"/>
+      <c r="FJ37" s="4"/>
+      <c r="FK37" s="4"/>
+      <c r="FL37" s="4"/>
+      <c r="FM37" s="4"/>
+      <c r="FN37" s="4"/>
+      <c r="FO37" s="4"/>
+      <c r="FP37" s="4"/>
+      <c r="FQ37" s="4"/>
+      <c r="FR37" s="4"/>
+      <c r="FS37" s="4"/>
+      <c r="FT37" s="4"/>
+      <c r="FU37" s="4"/>
+      <c r="FV37" s="4"/>
+      <c r="FW37" s="4"/>
+      <c r="FX37" s="4"/>
+      <c r="FY37" s="4"/>
+      <c r="FZ37" s="4"/>
+      <c r="GA37" s="4"/>
+      <c r="GB37" s="4"/>
+      <c r="GC37" s="4"/>
+      <c r="GD37" s="4"/>
+      <c r="GE37" s="4"/>
+      <c r="GF37" s="4"/>
+      <c r="GG37" s="4"/>
+      <c r="GH37" s="4"/>
+      <c r="GI37" s="4"/>
+      <c r="GJ37" s="4"/>
+      <c r="GK37" s="4"/>
+      <c r="GL37" s="4"/>
+      <c r="GM37" s="4"/>
+      <c r="GN37" s="4"/>
+      <c r="GO37" s="4"/>
+      <c r="GP37" s="4"/>
+      <c r="GQ37" s="4"/>
+      <c r="GR37" s="4"/>
+      <c r="GS37" s="4"/>
+      <c r="GT37" s="4"/>
+      <c r="GU37" s="4"/>
+      <c r="GV37" s="4"/>
+      <c r="GW37" s="4"/>
+      <c r="GX37" s="4"/>
+      <c r="GY37" s="4"/>
+      <c r="GZ37" s="4"/>
+      <c r="HA37" s="4"/>
+      <c r="HB37" s="4"/>
+      <c r="HC37" s="4"/>
+      <c r="HD37" s="4"/>
+      <c r="HE37" s="4"/>
+      <c r="HF37" s="4"/>
+      <c r="HG37" s="4"/>
+      <c r="HH37" s="4"/>
+      <c r="HI37" s="4"/>
+      <c r="HJ37" s="4"/>
+      <c r="HK37" s="4"/>
+      <c r="HL37" s="4"/>
+      <c r="HM37" s="4"/>
+      <c r="HN37" s="4"/>
+      <c r="HO37" s="4"/>
+      <c r="HP37" s="4"/>
+      <c r="HQ37" s="4"/>
+      <c r="HR37" s="4"/>
+      <c r="HS37" s="4"/>
+      <c r="HT37" s="4"/>
+      <c r="HU37" s="4"/>
+      <c r="HV37" s="4"/>
+      <c r="HW37" s="4"/>
+      <c r="HX37" s="4"/>
+      <c r="HY37" s="4"/>
+      <c r="HZ37" s="4"/>
+      <c r="IA37" s="4"/>
+      <c r="IB37" s="4"/>
+      <c r="IC37" s="4"/>
+      <c r="ID37" s="4"/>
+      <c r="IE37" s="4"/>
+      <c r="IF37" s="4"/>
+      <c r="IG37" s="4"/>
+      <c r="IH37" s="4"/>
+      <c r="II37" s="4"/>
+      <c r="IJ37" s="4"/>
+      <c r="IK37" s="4"/>
+      <c r="IL37" s="4"/>
+      <c r="IM37" s="4"/>
+      <c r="IN37" s="4"/>
+      <c r="IO37" s="4"/>
+      <c r="IP37" s="4"/>
+      <c r="IQ37" s="4"/>
+      <c r="IR37" s="4"/>
+      <c r="IS37" s="4"/>
+      <c r="IT37" s="4"/>
+      <c r="IU37" s="4"/>
+      <c r="IV37" s="4"/>
+      <c r="IW37" s="4"/>
+      <c r="IX37" s="4"/>
+      <c r="IY37" s="4"/>
+      <c r="IZ37" s="4"/>
+      <c r="JA37" s="4"/>
+      <c r="JB37" s="4"/>
+      <c r="JC37" s="4"/>
+      <c r="JD37" s="4"/>
+      <c r="JE37" s="4"/>
+      <c r="JF37" s="4"/>
+      <c r="JG37" s="4"/>
+      <c r="JH37" s="4"/>
+      <c r="JI37" s="4"/>
+      <c r="JJ37" s="4"/>
+      <c r="JK37" s="4">
+        <v>2.3779999999999999E-2</v>
+      </c>
+      <c r="JL37" s="4">
+        <v>2.39241E-2</v>
+      </c>
+      <c r="JM37" s="4"/>
+      <c r="JN37" s="4"/>
+      <c r="JO37" s="4"/>
+      <c r="JP37" s="4"/>
+      <c r="JQ37" s="4"/>
+      <c r="JR37" s="4"/>
+      <c r="JS37" s="4"/>
+      <c r="JT37" s="4"/>
+      <c r="JU37" s="4"/>
+      <c r="JV37" s="4"/>
+      <c r="JW37" s="4"/>
+      <c r="JX37" s="4"/>
+      <c r="JY37" s="4"/>
+      <c r="JZ37" s="4"/>
+      <c r="KA37" s="4"/>
+      <c r="KB37" s="4"/>
+      <c r="KC37" s="4"/>
+      <c r="KD37" s="4"/>
+      <c r="KE37" s="4"/>
+      <c r="KF37" s="4"/>
+      <c r="KG37" s="4"/>
+      <c r="KH37" s="4"/>
+      <c r="KI37" s="4"/>
+      <c r="KJ37" s="4"/>
+      <c r="KK37" s="4"/>
+      <c r="KL37" s="4"/>
+      <c r="KM37" s="4"/>
+      <c r="KN37" s="4"/>
+      <c r="KO37" s="4"/>
+      <c r="KP37" s="4"/>
+      <c r="KQ37" s="4"/>
+      <c r="KR37" s="4"/>
+      <c r="KS37" s="4"/>
+      <c r="KT37" s="4"/>
+      <c r="KU37" s="4"/>
+      <c r="KV37" s="4"/>
+      <c r="KW37" s="4"/>
+      <c r="KX37" s="4"/>
+      <c r="KY37" s="4"/>
+      <c r="KZ37" s="4"/>
+      <c r="LA37" s="4"/>
+      <c r="LB37" s="4"/>
+      <c r="LC37" s="4">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="LD37" s="4">
+        <v>3.6339299999999998E-2</v>
+      </c>
+      <c r="LE37" s="4"/>
+      <c r="LF37" s="4"/>
+      <c r="LG37" s="4"/>
+      <c r="LH37" s="4"/>
+      <c r="LI37" s="4"/>
+      <c r="LJ37" s="4"/>
+      <c r="LK37" s="4"/>
+      <c r="LL37" s="4"/>
+      <c r="LM37" s="4"/>
+      <c r="LN37" s="4"/>
+      <c r="LO37" s="4"/>
+      <c r="LP37" s="4"/>
+      <c r="LQ37" s="4"/>
+      <c r="LR37" s="4"/>
+      <c r="LS37" s="4"/>
+      <c r="LT37" s="4"/>
+      <c r="LU37" s="4"/>
+      <c r="LV37" s="4"/>
+      <c r="LW37" s="4"/>
+      <c r="LX37" s="4"/>
+      <c r="LY37" s="4"/>
+      <c r="LZ37" s="4"/>
+      <c r="MA37" s="4"/>
+      <c r="MB37" s="4"/>
+      <c r="MC37" s="4"/>
+      <c r="MD37" s="4"/>
+      <c r="ME37" s="4"/>
+      <c r="MF37" s="4"/>
+      <c r="MG37" s="4"/>
+      <c r="MH37" s="4"/>
+      <c r="MI37" s="4"/>
+      <c r="MJ37" s="4"/>
+      <c r="MK37" s="4"/>
+      <c r="ML37" s="4"/>
+      <c r="MM37" s="4"/>
+      <c r="MN37" s="4"/>
+      <c r="MO37" s="4"/>
+      <c r="MP37" s="4"/>
+      <c r="MQ37" s="4"/>
+      <c r="MR37" s="4"/>
+      <c r="MS37" s="4"/>
+      <c r="MT37" s="4"/>
+      <c r="MU37" s="4"/>
+      <c r="MV37" s="4"/>
+      <c r="MW37" s="4"/>
+      <c r="MX37" s="4"/>
+      <c r="MY37" s="4"/>
+      <c r="MZ37" s="4"/>
+      <c r="NA37" s="4"/>
+      <c r="NB37" s="4"/>
+      <c r="NC37" s="4"/>
+      <c r="ND37" s="4"/>
+      <c r="NE37" s="4"/>
+      <c r="NF37" s="4"/>
+      <c r="NG37" s="4"/>
+      <c r="NH37" s="4"/>
+      <c r="NI37" s="4"/>
+      <c r="NJ37" s="4"/>
+      <c r="NK37" s="4"/>
+      <c r="NL37" s="4"/>
+      <c r="NM37" s="4"/>
+      <c r="NN37" s="4"/>
+      <c r="NO37" s="4"/>
+      <c r="NP37" s="4"/>
+      <c r="NQ37" s="4"/>
+      <c r="NR37" s="4"/>
+      <c r="NS37" s="4"/>
+      <c r="NT37" s="4"/>
+      <c r="NU37" s="4"/>
+      <c r="NV37" s="4"/>
+      <c r="NW37" s="4"/>
+      <c r="NX37" s="4"/>
+      <c r="NY37" s="4"/>
+      <c r="NZ37" s="4"/>
+      <c r="OA37" s="4"/>
+      <c r="OB37" s="4"/>
+      <c r="OC37" s="4"/>
+      <c r="OD37" s="4"/>
+      <c r="OE37" s="4"/>
+      <c r="OF37" s="4"/>
+      <c r="OG37" s="4"/>
+      <c r="OH37" s="4"/>
+      <c r="OI37" s="4"/>
+      <c r="OJ37" s="4"/>
+      <c r="OK37" s="4"/>
+      <c r="OL37" s="4"/>
+      <c r="OM37" s="4"/>
+      <c r="ON37" s="4"/>
+      <c r="OO37" s="4"/>
+      <c r="OP37" s="4"/>
+      <c r="OQ37" s="4"/>
+      <c r="OR37" s="4"/>
+      <c r="OS37" s="4"/>
+      <c r="OT37" s="4"/>
+      <c r="OU37" s="4"/>
+      <c r="OV37" s="4"/>
+      <c r="OW37" s="4"/>
+      <c r="OX37" s="4"/>
+      <c r="OY37" s="4"/>
+      <c r="OZ37" s="4"/>
+      <c r="PA37" s="4"/>
+      <c r="PB37" s="4"/>
+      <c r="PC37" s="4"/>
+      <c r="PD37" s="4"/>
+      <c r="PE37" s="4"/>
+      <c r="PF37" s="4"/>
+      <c r="PG37" s="4"/>
+      <c r="PH37" s="4"/>
+      <c r="PI37" s="4"/>
+      <c r="PJ37" s="4"/>
+      <c r="PK37" s="4"/>
+      <c r="PL37" s="4"/>
+      <c r="PM37" s="4"/>
+      <c r="PN37" s="4"/>
+      <c r="PO37" s="4"/>
+      <c r="PP37" s="4"/>
+      <c r="PQ37" s="4"/>
+      <c r="PR37" s="4"/>
+      <c r="PS37" s="4"/>
+      <c r="PT37" s="4"/>
+      <c r="PU37" s="4"/>
+      <c r="PV37" s="4"/>
+      <c r="PW37" s="4"/>
+      <c r="PX37" s="4"/>
+      <c r="PY37" s="4"/>
+      <c r="PZ37" s="4"/>
+      <c r="QA37" s="4"/>
+      <c r="QB37" s="4"/>
+      <c r="QC37" s="4"/>
+      <c r="QD37" s="4"/>
+      <c r="QE37" s="4"/>
+      <c r="QF37" s="4"/>
+      <c r="QG37" s="4"/>
+      <c r="QH37" s="4"/>
+      <c r="QI37" s="4"/>
+      <c r="QJ37" s="4"/>
+      <c r="QK37" s="4"/>
+      <c r="QL37" s="4"/>
+      <c r="QM37" s="4"/>
+      <c r="QN37" s="4"/>
+      <c r="QO37" s="4"/>
+      <c r="QP37" s="4"/>
+      <c r="QQ37" s="4"/>
+      <c r="QR37" s="4"/>
+      <c r="QS37" s="4"/>
+      <c r="QT37" s="4"/>
+      <c r="QU37" s="4"/>
+      <c r="QV37" s="4"/>
+      <c r="QW37" s="4"/>
+      <c r="QX37" s="4"/>
+      <c r="QY37" s="4"/>
+      <c r="QZ37" s="4"/>
+      <c r="RA37" s="4"/>
+      <c r="RB37" s="4"/>
+      <c r="RC37" s="4"/>
+      <c r="RD37" s="4"/>
+      <c r="RE37" s="4"/>
+      <c r="RF37" s="4"/>
+      <c r="RG37" s="4"/>
+      <c r="RH37" s="4"/>
+      <c r="RI37" s="4"/>
+      <c r="RJ37" s="4"/>
+      <c r="RK37" s="4"/>
+      <c r="RL37" s="4"/>
+      <c r="RM37" s="4"/>
+      <c r="RN37" s="4"/>
+      <c r="RO37" s="4"/>
+      <c r="RP37" s="4"/>
+      <c r="RQ37" s="4"/>
+      <c r="RR37" s="4"/>
+      <c r="RS37" s="4"/>
+      <c r="RT37" s="4"/>
+      <c r="RU37" s="4"/>
+      <c r="RV37" s="4"/>
+      <c r="RW37" s="4"/>
+      <c r="RX37" s="4"/>
+      <c r="RY37" s="4"/>
+      <c r="RZ37" s="4"/>
+      <c r="SA37" s="4"/>
+      <c r="SB37" s="4"/>
+      <c r="SC37" s="4"/>
+      <c r="SD37" s="4"/>
+      <c r="SE37" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="SF37" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="SG37" s="4"/>
+      <c r="SH37" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="SI37" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="SJ37" s="4"/>
+      <c r="SK37" s="4"/>
+      <c r="SL37" s="4"/>
+      <c r="SM37" s="4"/>
+      <c r="SN37" s="4"/>
+      <c r="SO37" s="4"/>
+      <c r="SP37" s="4"/>
+      <c r="SQ37" s="4"/>
+      <c r="SR37" s="4"/>
+      <c r="SS37" s="4"/>
+      <c r="ST37" s="4"/>
+      <c r="SU37" s="4"/>
+      <c r="SV37" s="4"/>
+      <c r="SW37" s="5">
+        <v>43126.581446759257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B38" s="4">
+        <v>14328</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D38" s="5">
+        <v>43031.958333333336</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="4"/>
+      <c r="BT38" s="4"/>
+      <c r="BU38" s="4"/>
+      <c r="BV38" s="4"/>
+      <c r="BW38" s="4"/>
+      <c r="BX38" s="4"/>
+      <c r="BY38" s="4"/>
+      <c r="BZ38" s="4"/>
+      <c r="CA38" s="4"/>
+      <c r="CB38" s="4"/>
+      <c r="CC38" s="4"/>
+      <c r="CD38" s="4"/>
+      <c r="CE38" s="4"/>
+      <c r="CF38" s="4"/>
+      <c r="CG38" s="4"/>
+      <c r="CH38" s="4"/>
+      <c r="CI38" s="4"/>
+      <c r="CJ38" s="4"/>
+      <c r="CK38" s="4"/>
+      <c r="CL38" s="4"/>
+      <c r="CM38" s="4"/>
+      <c r="CN38" s="4"/>
+      <c r="CO38" s="4"/>
+      <c r="CP38" s="4"/>
+      <c r="CQ38" s="4"/>
+      <c r="CR38" s="4"/>
+      <c r="CS38" s="4"/>
+      <c r="CT38" s="4"/>
+      <c r="CU38" s="4"/>
+      <c r="CV38" s="4"/>
+      <c r="CW38" s="4"/>
+      <c r="CX38" s="4"/>
+      <c r="CY38" s="4"/>
+      <c r="CZ38" s="4"/>
+      <c r="DA38" s="4"/>
+      <c r="DB38" s="4"/>
+      <c r="DC38" s="4"/>
+      <c r="DD38" s="4"/>
+      <c r="DE38" s="4"/>
+      <c r="DF38" s="4"/>
+      <c r="DG38" s="4"/>
+      <c r="DH38" s="4"/>
+      <c r="DI38" s="4"/>
+      <c r="DJ38" s="4"/>
+      <c r="DK38" s="4"/>
+      <c r="DL38" s="4"/>
+      <c r="DM38" s="4"/>
+      <c r="DN38" s="4"/>
+      <c r="DO38" s="4"/>
+      <c r="DP38" s="4"/>
+      <c r="DQ38" s="4"/>
+      <c r="DR38" s="4"/>
+      <c r="DS38" s="4"/>
+      <c r="DT38" s="4"/>
+      <c r="DU38" s="4"/>
+      <c r="DV38" s="4"/>
+      <c r="DW38" s="4"/>
+      <c r="DX38" s="4"/>
+      <c r="DY38" s="4"/>
+      <c r="DZ38" s="4"/>
+      <c r="EA38" s="4"/>
+      <c r="EB38" s="4"/>
+      <c r="EC38" s="4"/>
+      <c r="ED38" s="4"/>
+      <c r="EE38" s="4"/>
+      <c r="EF38" s="4"/>
+      <c r="EG38" s="4"/>
+      <c r="EH38" s="4"/>
+      <c r="EI38" s="4"/>
+      <c r="EJ38" s="4"/>
+      <c r="EK38" s="4"/>
+      <c r="EL38" s="4"/>
+      <c r="EM38" s="4"/>
+      <c r="EN38" s="4"/>
+      <c r="EO38" s="4"/>
+      <c r="EP38" s="4"/>
+      <c r="EQ38" s="4"/>
+      <c r="ER38" s="4"/>
+      <c r="ES38" s="4"/>
+      <c r="ET38" s="4"/>
+      <c r="EU38" s="4"/>
+      <c r="EV38" s="4"/>
+      <c r="EW38" s="4"/>
+      <c r="EX38" s="4"/>
+      <c r="EY38" s="4"/>
+      <c r="EZ38" s="4"/>
+      <c r="FA38" s="4"/>
+      <c r="FB38" s="4"/>
+      <c r="FC38" s="4"/>
+      <c r="FD38" s="4"/>
+      <c r="FE38" s="4"/>
+      <c r="FF38" s="4"/>
+      <c r="FG38" s="4"/>
+      <c r="FH38" s="4"/>
+      <c r="FI38" s="4"/>
+      <c r="FJ38" s="4"/>
+      <c r="FK38" s="4"/>
+      <c r="FL38" s="4"/>
+      <c r="FM38" s="4"/>
+      <c r="FN38" s="4"/>
+      <c r="FO38" s="4"/>
+      <c r="FP38" s="4"/>
+      <c r="FQ38" s="4"/>
+      <c r="FR38" s="4"/>
+      <c r="FS38" s="4"/>
+      <c r="FT38" s="4"/>
+      <c r="FU38" s="4"/>
+      <c r="FV38" s="4"/>
+      <c r="FW38" s="4"/>
+      <c r="FX38" s="4"/>
+      <c r="FY38" s="4"/>
+      <c r="FZ38" s="4"/>
+      <c r="GA38" s="4"/>
+      <c r="GB38" s="4"/>
+      <c r="GC38" s="4"/>
+      <c r="GD38" s="4"/>
+      <c r="GE38" s="4"/>
+      <c r="GF38" s="4"/>
+      <c r="GG38" s="4"/>
+      <c r="GH38" s="4"/>
+      <c r="GI38" s="4"/>
+      <c r="GJ38" s="4"/>
+      <c r="GK38" s="4"/>
+      <c r="GL38" s="4"/>
+      <c r="GM38" s="4"/>
+      <c r="GN38" s="4"/>
+      <c r="GO38" s="4"/>
+      <c r="GP38" s="4"/>
+      <c r="GQ38" s="4"/>
+      <c r="GR38" s="4"/>
+      <c r="GS38" s="4"/>
+      <c r="GT38" s="4"/>
+      <c r="GU38" s="4"/>
+      <c r="GV38" s="4"/>
+      <c r="GW38" s="4"/>
+      <c r="GX38" s="4"/>
+      <c r="GY38" s="4"/>
+      <c r="GZ38" s="4"/>
+      <c r="HA38" s="4"/>
+      <c r="HB38" s="4"/>
+      <c r="HC38" s="4"/>
+      <c r="HD38" s="4"/>
+      <c r="HE38" s="4"/>
+      <c r="HF38" s="4"/>
+      <c r="HG38" s="4"/>
+      <c r="HH38" s="4"/>
+      <c r="HI38" s="4"/>
+      <c r="HJ38" s="4"/>
+      <c r="HK38" s="4"/>
+      <c r="HL38" s="4"/>
+      <c r="HM38" s="4"/>
+      <c r="HN38" s="4"/>
+      <c r="HO38" s="4"/>
+      <c r="HP38" s="4"/>
+      <c r="HQ38" s="4"/>
+      <c r="HR38" s="4"/>
+      <c r="HS38" s="4"/>
+      <c r="HT38" s="4"/>
+      <c r="HU38" s="4"/>
+      <c r="HV38" s="4"/>
+      <c r="HW38" s="4"/>
+      <c r="HX38" s="4"/>
+      <c r="HY38" s="4"/>
+      <c r="HZ38" s="4"/>
+      <c r="IA38" s="4"/>
+      <c r="IB38" s="4"/>
+      <c r="IC38" s="4"/>
+      <c r="ID38" s="4"/>
+      <c r="IE38" s="4"/>
+      <c r="IF38" s="4"/>
+      <c r="IG38" s="4"/>
+      <c r="IH38" s="4"/>
+      <c r="II38" s="4"/>
+      <c r="IJ38" s="4"/>
+      <c r="IK38" s="4"/>
+      <c r="IL38" s="4"/>
+      <c r="IM38" s="4"/>
+      <c r="IN38" s="4"/>
+      <c r="IO38" s="4"/>
+      <c r="IP38" s="4"/>
+      <c r="IQ38" s="4"/>
+      <c r="IR38" s="4"/>
+      <c r="IS38" s="4"/>
+      <c r="IT38" s="4"/>
+      <c r="IU38" s="4"/>
+      <c r="IV38" s="4"/>
+      <c r="IW38" s="4"/>
+      <c r="IX38" s="4"/>
+      <c r="IY38" s="4"/>
+      <c r="IZ38" s="4"/>
+      <c r="JA38" s="4"/>
+      <c r="JB38" s="4"/>
+      <c r="JC38" s="4"/>
+      <c r="JD38" s="4"/>
+      <c r="JE38" s="4"/>
+      <c r="JF38" s="4"/>
+      <c r="JG38" s="4"/>
+      <c r="JH38" s="4"/>
+      <c r="JI38" s="4"/>
+      <c r="JJ38" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="JK38" s="4">
+        <v>0.22947999999999999</v>
+      </c>
+      <c r="JL38" s="4"/>
+      <c r="JM38" s="4"/>
+      <c r="JN38" s="4"/>
+      <c r="JO38" s="4">
+        <v>0.31778000000000001</v>
+      </c>
+      <c r="JP38" s="4"/>
+      <c r="JQ38" s="4"/>
+      <c r="JR38" s="4"/>
+      <c r="JS38" s="4"/>
+      <c r="JT38" s="4"/>
+      <c r="JU38" s="4"/>
+      <c r="JV38" s="4"/>
+      <c r="JW38" s="4"/>
+      <c r="JX38" s="4"/>
+      <c r="JY38" s="4"/>
+      <c r="JZ38" s="4"/>
+      <c r="KA38" s="4"/>
+      <c r="KB38" s="4"/>
+      <c r="KC38" s="4"/>
+      <c r="KD38" s="4"/>
+      <c r="KE38" s="4"/>
+      <c r="KF38" s="4"/>
+      <c r="KG38" s="4"/>
+      <c r="KH38" s="4"/>
+      <c r="KI38" s="4"/>
+      <c r="KJ38" s="4"/>
+      <c r="KK38" s="4"/>
+      <c r="KL38" s="4"/>
+      <c r="KM38" s="4"/>
+      <c r="KN38" s="4"/>
+      <c r="KO38" s="4"/>
+      <c r="KP38" s="4"/>
+      <c r="KQ38" s="4"/>
+      <c r="KR38" s="4"/>
+      <c r="KS38" s="4"/>
+      <c r="KT38" s="4"/>
+      <c r="KU38" s="4"/>
+      <c r="KV38" s="4"/>
+      <c r="KW38" s="4"/>
+      <c r="KX38" s="4"/>
+      <c r="KY38" s="4"/>
+      <c r="KZ38" s="4"/>
+      <c r="LA38" s="4"/>
+      <c r="LB38" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="LC38" s="4">
+        <v>0.30506</v>
+      </c>
+      <c r="LD38" s="4"/>
+      <c r="LE38" s="4"/>
+      <c r="LF38" s="4"/>
+      <c r="LG38" s="4">
+        <v>0.39335999999999999</v>
+      </c>
+      <c r="LH38" s="4"/>
+      <c r="LI38" s="4"/>
+      <c r="LJ38" s="4"/>
+      <c r="LK38" s="4"/>
+      <c r="LL38" s="4"/>
+      <c r="LM38" s="4"/>
+      <c r="LN38" s="4"/>
+      <c r="LO38" s="4"/>
+      <c r="LP38" s="4"/>
+      <c r="LQ38" s="4"/>
+      <c r="LR38" s="4"/>
+      <c r="LS38" s="4"/>
+      <c r="LT38" s="4"/>
+      <c r="LU38" s="4"/>
+      <c r="LV38" s="4"/>
+      <c r="LW38" s="4"/>
+      <c r="LX38" s="4"/>
+      <c r="LY38" s="4"/>
+      <c r="LZ38" s="4"/>
+      <c r="MA38" s="4"/>
+      <c r="MB38" s="4"/>
+      <c r="MC38" s="4"/>
+      <c r="MD38" s="4"/>
+      <c r="ME38" s="4"/>
+      <c r="MF38" s="4"/>
+      <c r="MG38" s="4"/>
+      <c r="MH38" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="MI38" s="4">
+        <v>0.17279</v>
+      </c>
+      <c r="MJ38" s="4"/>
+      <c r="MK38" s="4"/>
+      <c r="ML38" s="4"/>
+      <c r="MM38" s="4">
+        <v>0.26108999999999999</v>
+      </c>
+      <c r="MN38" s="4"/>
+      <c r="MO38" s="4"/>
+      <c r="MP38" s="4"/>
+      <c r="MQ38" s="4"/>
+      <c r="MR38" s="4"/>
+      <c r="MS38" s="4"/>
+      <c r="MT38" s="4"/>
+      <c r="MU38" s="4"/>
+      <c r="MV38" s="4"/>
+      <c r="MW38" s="4"/>
+      <c r="MX38" s="4"/>
+      <c r="MY38" s="4"/>
+      <c r="MZ38" s="4"/>
+      <c r="NA38" s="4"/>
+      <c r="NB38" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="NC38" s="4">
+        <v>0.18709000000000001</v>
+      </c>
+      <c r="ND38" s="4"/>
+      <c r="NE38" s="4"/>
+      <c r="NF38" s="4"/>
+      <c r="NG38" s="4">
+        <v>0.27539000000000002</v>
+      </c>
+      <c r="NH38" s="4"/>
+      <c r="NI38" s="4"/>
+      <c r="NJ38" s="4"/>
+      <c r="NK38" s="4"/>
+      <c r="NL38" s="4"/>
+      <c r="NM38" s="4"/>
+      <c r="NN38" s="4"/>
+      <c r="NO38" s="4"/>
+      <c r="NP38" s="4"/>
+      <c r="NQ38" s="4"/>
+      <c r="NR38" s="4"/>
+      <c r="NS38" s="4"/>
+      <c r="NT38" s="4"/>
+      <c r="NU38" s="4"/>
+      <c r="NV38" s="4"/>
+      <c r="NW38" s="4"/>
+      <c r="NX38" s="4"/>
+      <c r="NY38" s="4"/>
+      <c r="NZ38" s="4"/>
+      <c r="OA38" s="4"/>
+      <c r="OB38" s="4"/>
+      <c r="OC38" s="4"/>
+      <c r="OD38" s="4"/>
+      <c r="OE38" s="4"/>
+      <c r="OF38" s="4"/>
+      <c r="OG38" s="4"/>
+      <c r="OH38" s="4"/>
+      <c r="OI38" s="4"/>
+      <c r="OJ38" s="4"/>
+      <c r="OK38" s="4"/>
+      <c r="OL38" s="4"/>
+      <c r="OM38" s="4"/>
+      <c r="ON38" s="4"/>
+      <c r="OO38" s="4"/>
+      <c r="OP38" s="4"/>
+      <c r="OQ38" s="4"/>
+      <c r="OR38" s="4"/>
+      <c r="OS38" s="4"/>
+      <c r="OT38" s="4"/>
+      <c r="OU38" s="4"/>
+      <c r="OV38" s="4"/>
+      <c r="OW38" s="4"/>
+      <c r="OX38" s="4"/>
+      <c r="OY38" s="4"/>
+      <c r="OZ38" s="4"/>
+      <c r="PA38" s="4"/>
+      <c r="PB38" s="4"/>
+      <c r="PC38" s="4"/>
+      <c r="PD38" s="4"/>
+      <c r="PE38" s="4"/>
+      <c r="PF38" s="4"/>
+      <c r="PG38" s="4"/>
+      <c r="PH38" s="4"/>
+      <c r="PI38" s="4"/>
+      <c r="PJ38" s="4"/>
+      <c r="PK38" s="4"/>
+      <c r="PL38" s="4"/>
+      <c r="PM38" s="4"/>
+      <c r="PN38" s="4"/>
+      <c r="PO38" s="4"/>
+      <c r="PP38" s="4"/>
+      <c r="PQ38" s="4"/>
+      <c r="PR38" s="4"/>
+      <c r="PS38" s="4"/>
+      <c r="PT38" s="4"/>
+      <c r="PU38" s="4"/>
+      <c r="PV38" s="4"/>
+      <c r="PW38" s="4"/>
+      <c r="PX38" s="4"/>
+      <c r="PY38" s="4"/>
+      <c r="PZ38" s="4"/>
+      <c r="QA38" s="4"/>
+      <c r="QB38" s="4"/>
+      <c r="QC38" s="4"/>
+      <c r="QD38" s="4"/>
+      <c r="QE38" s="4"/>
+      <c r="QF38" s="4"/>
+      <c r="QG38" s="4"/>
+      <c r="QH38" s="4"/>
+      <c r="QI38" s="4"/>
+      <c r="QJ38" s="4"/>
+      <c r="QK38" s="4"/>
+      <c r="QL38" s="4"/>
+      <c r="QM38" s="4"/>
+      <c r="QN38" s="4"/>
+      <c r="QO38" s="4"/>
+      <c r="QP38" s="4"/>
+      <c r="QQ38" s="4"/>
+      <c r="QR38" s="4"/>
+      <c r="QS38" s="4"/>
+      <c r="QT38" s="4"/>
+      <c r="QU38" s="4"/>
+      <c r="QV38" s="4"/>
+      <c r="QW38" s="4"/>
+      <c r="QX38" s="4"/>
+      <c r="QY38" s="4"/>
+      <c r="QZ38" s="4"/>
+      <c r="RA38" s="4"/>
+      <c r="RB38" s="4"/>
+      <c r="RC38" s="4"/>
+      <c r="RD38" s="4"/>
+      <c r="RE38" s="4"/>
+      <c r="RF38" s="4"/>
+      <c r="RG38" s="4"/>
+      <c r="RH38" s="4"/>
+      <c r="RI38" s="4"/>
+      <c r="RJ38" s="4"/>
+      <c r="RK38" s="4"/>
+      <c r="RL38" s="4"/>
+      <c r="RM38" s="4"/>
+      <c r="RN38" s="4"/>
+      <c r="RO38" s="4"/>
+      <c r="RP38" s="4"/>
+      <c r="RQ38" s="4"/>
+      <c r="RR38" s="4"/>
+      <c r="RS38" s="4"/>
+      <c r="RT38" s="4"/>
+      <c r="RU38" s="4"/>
+      <c r="RV38" s="4"/>
+      <c r="RW38" s="4"/>
+      <c r="RX38" s="4"/>
+      <c r="RY38" s="4"/>
+      <c r="RZ38" s="4"/>
+      <c r="SA38" s="4"/>
+      <c r="SB38" s="4"/>
+      <c r="SC38" s="4"/>
+      <c r="SD38" s="4"/>
+      <c r="SE38" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="SF38" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="SG38" s="4"/>
+      <c r="SH38" s="4"/>
+      <c r="SI38" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="SJ38" s="4">
+        <v>10</v>
+      </c>
+      <c r="SK38" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="SL38" s="4"/>
+      <c r="SM38" s="4"/>
+      <c r="SN38" s="4"/>
+      <c r="SO38" s="4"/>
+      <c r="SP38" s="4"/>
+      <c r="SQ38" s="4"/>
+      <c r="SR38" s="4"/>
+      <c r="SS38" s="4"/>
+      <c r="ST38" s="4"/>
+      <c r="SU38" s="4"/>
+      <c r="SV38" s="4"/>
+      <c r="SW38" s="5">
+        <v>43083.615590277775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B39" s="4">
+        <v>14328</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43031.958333333336</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4"/>
+      <c r="BV39" s="4"/>
+      <c r="BW39" s="4"/>
+      <c r="BX39" s="4"/>
+      <c r="BY39" s="4"/>
+      <c r="BZ39" s="4"/>
+      <c r="CA39" s="4"/>
+      <c r="CB39" s="4"/>
+      <c r="CC39" s="4"/>
+      <c r="CD39" s="4"/>
+      <c r="CE39" s="4"/>
+      <c r="CF39" s="4"/>
+      <c r="CG39" s="4"/>
+      <c r="CH39" s="4"/>
+      <c r="CI39" s="4"/>
+      <c r="CJ39" s="4"/>
+      <c r="CK39" s="4"/>
+      <c r="CL39" s="4"/>
+      <c r="CM39" s="4"/>
+      <c r="CN39" s="4"/>
+      <c r="CO39" s="4"/>
+      <c r="CP39" s="4"/>
+      <c r="CQ39" s="4"/>
+      <c r="CR39" s="4"/>
+      <c r="CS39" s="4"/>
+      <c r="CT39" s="4"/>
+      <c r="CU39" s="4"/>
+      <c r="CV39" s="4"/>
+      <c r="CW39" s="4"/>
+      <c r="CX39" s="4"/>
+      <c r="CY39" s="4"/>
+      <c r="CZ39" s="4"/>
+      <c r="DA39" s="4"/>
+      <c r="DB39" s="4"/>
+      <c r="DC39" s="4"/>
+      <c r="DD39" s="4"/>
+      <c r="DE39" s="4"/>
+      <c r="DF39" s="4"/>
+      <c r="DG39" s="4"/>
+      <c r="DH39" s="4"/>
+      <c r="DI39" s="4"/>
+      <c r="DJ39" s="4"/>
+      <c r="DK39" s="4"/>
+      <c r="DL39" s="4"/>
+      <c r="DM39" s="4"/>
+      <c r="DN39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO39" s="4"/>
+      <c r="DP39" s="4"/>
+      <c r="DQ39" s="4"/>
+      <c r="DR39" s="4"/>
+      <c r="DS39" s="4"/>
+      <c r="DT39" s="4"/>
+      <c r="DU39" s="4"/>
+      <c r="DV39" s="4"/>
+      <c r="DW39" s="4"/>
+      <c r="DX39" s="4"/>
+      <c r="DY39" s="4"/>
+      <c r="DZ39" s="4"/>
+      <c r="EA39" s="4"/>
+      <c r="EB39" s="4"/>
+      <c r="EC39" s="4"/>
+      <c r="ED39" s="4"/>
+      <c r="EE39" s="4"/>
+      <c r="EF39" s="4"/>
+      <c r="EG39" s="4"/>
+      <c r="EH39" s="4"/>
+      <c r="EI39" s="4"/>
+      <c r="EJ39" s="4"/>
+      <c r="EK39" s="4"/>
+      <c r="EL39" s="4"/>
+      <c r="EM39" s="4"/>
+      <c r="EN39" s="4"/>
+      <c r="EO39" s="4"/>
+      <c r="EP39" s="4"/>
+      <c r="EQ39" s="4"/>
+      <c r="ER39" s="4"/>
+      <c r="ES39" s="4"/>
+      <c r="ET39" s="4"/>
+      <c r="EU39" s="4"/>
+      <c r="EV39" s="4"/>
+      <c r="EW39" s="4"/>
+      <c r="EX39" s="4"/>
+      <c r="EY39" s="4"/>
+      <c r="EZ39" s="4"/>
+      <c r="FA39" s="4"/>
+      <c r="FB39" s="4"/>
+      <c r="FC39" s="4"/>
+      <c r="FD39" s="4"/>
+      <c r="FE39" s="4"/>
+      <c r="FF39" s="4"/>
+      <c r="FG39" s="4"/>
+      <c r="FH39" s="4"/>
+      <c r="FI39" s="4"/>
+      <c r="FJ39" s="4"/>
+      <c r="FK39" s="4"/>
+      <c r="FL39" s="4"/>
+      <c r="FM39" s="4"/>
+      <c r="FN39" s="4"/>
+      <c r="FO39" s="4"/>
+      <c r="FP39" s="4"/>
+      <c r="FQ39" s="4"/>
+      <c r="FR39" s="4"/>
+      <c r="FS39" s="4"/>
+      <c r="FT39" s="4"/>
+      <c r="FU39" s="4"/>
+      <c r="FV39" s="4"/>
+      <c r="FW39" s="4"/>
+      <c r="FX39" s="4"/>
+      <c r="FY39" s="4"/>
+      <c r="FZ39" s="4"/>
+      <c r="GA39" s="4"/>
+      <c r="GB39" s="4"/>
+      <c r="GC39" s="4"/>
+      <c r="GD39" s="4"/>
+      <c r="GE39" s="4"/>
+      <c r="GF39" s="4"/>
+      <c r="GG39" s="4"/>
+      <c r="GH39" s="4"/>
+      <c r="GI39" s="4"/>
+      <c r="GJ39" s="4"/>
+      <c r="GK39" s="4"/>
+      <c r="GL39" s="4"/>
+      <c r="GM39" s="4"/>
+      <c r="GN39" s="4"/>
+      <c r="GO39" s="4"/>
+      <c r="GP39" s="4"/>
+      <c r="GQ39" s="4"/>
+      <c r="GR39" s="4"/>
+      <c r="GS39" s="4"/>
+      <c r="GT39" s="4"/>
+      <c r="GU39" s="4"/>
+      <c r="GV39" s="4"/>
+      <c r="GW39" s="4"/>
+      <c r="GX39" s="4"/>
+      <c r="GY39" s="4"/>
+      <c r="GZ39" s="4"/>
+      <c r="HA39" s="4"/>
+      <c r="HB39" s="4"/>
+      <c r="HC39" s="4"/>
+      <c r="HD39" s="4"/>
+      <c r="HE39" s="4"/>
+      <c r="HF39" s="4"/>
+      <c r="HG39" s="4"/>
+      <c r="HH39" s="4"/>
+      <c r="HI39" s="4"/>
+      <c r="HJ39" s="4"/>
+      <c r="HK39" s="4"/>
+      <c r="HL39" s="4"/>
+      <c r="HM39" s="4"/>
+      <c r="HN39" s="4"/>
+      <c r="HO39" s="4"/>
+      <c r="HP39" s="4"/>
+      <c r="HQ39" s="4"/>
+      <c r="HR39" s="4"/>
+      <c r="HS39" s="4"/>
+      <c r="HT39" s="4"/>
+      <c r="HU39" s="4"/>
+      <c r="HV39" s="4"/>
+      <c r="HW39" s="4"/>
+      <c r="HX39" s="4"/>
+      <c r="HY39" s="4"/>
+      <c r="HZ39" s="4"/>
+      <c r="IA39" s="4"/>
+      <c r="IB39" s="4"/>
+      <c r="IC39" s="4"/>
+      <c r="ID39" s="4"/>
+      <c r="IE39" s="4"/>
+      <c r="IF39" s="4"/>
+      <c r="IG39" s="4"/>
+      <c r="IH39" s="4"/>
+      <c r="II39" s="4"/>
+      <c r="IJ39" s="4"/>
+      <c r="IK39" s="4"/>
+      <c r="IL39" s="4"/>
+      <c r="IM39" s="4"/>
+      <c r="IN39" s="4"/>
+      <c r="IO39" s="4"/>
+      <c r="IP39" s="4"/>
+      <c r="IQ39" s="4"/>
+      <c r="IR39" s="4"/>
+      <c r="IS39" s="4"/>
+      <c r="IT39" s="4"/>
+      <c r="IU39" s="4"/>
+      <c r="IV39" s="4"/>
+      <c r="IW39" s="4"/>
+      <c r="IX39" s="4"/>
+      <c r="IY39" s="4"/>
+      <c r="IZ39" s="4"/>
+      <c r="JA39" s="4"/>
+      <c r="JB39" s="4"/>
+      <c r="JC39" s="4"/>
+      <c r="JD39" s="4"/>
+      <c r="JE39" s="4"/>
+      <c r="JF39" s="4"/>
+      <c r="JG39" s="4"/>
+      <c r="JH39" s="4"/>
+      <c r="JI39" s="4"/>
+      <c r="JJ39" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="JK39" s="4">
+        <v>0.19979</v>
+      </c>
+      <c r="JL39" s="4"/>
+      <c r="JM39" s="4"/>
+      <c r="JN39" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="JO39" s="4">
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="JP39" s="4"/>
+      <c r="JQ39" s="4"/>
+      <c r="JR39" s="4"/>
+      <c r="JS39" s="4">
+        <v>0.40139000000000002</v>
+      </c>
+      <c r="JT39" s="4"/>
+      <c r="JU39" s="4"/>
+      <c r="JV39" s="4"/>
+      <c r="JW39" s="4"/>
+      <c r="JX39" s="4"/>
+      <c r="JY39" s="4"/>
+      <c r="JZ39" s="4"/>
+      <c r="KA39" s="4"/>
+      <c r="KB39" s="4"/>
+      <c r="KC39" s="4"/>
+      <c r="KD39" s="4"/>
+      <c r="KE39" s="4"/>
+      <c r="KF39" s="4"/>
+      <c r="KG39" s="4"/>
+      <c r="KH39" s="4"/>
+      <c r="KI39" s="4"/>
+      <c r="KJ39" s="4"/>
+      <c r="KK39" s="4"/>
+      <c r="KL39" s="4"/>
+      <c r="KM39" s="4"/>
+      <c r="KN39" s="4"/>
+      <c r="KO39" s="4"/>
+      <c r="KP39" s="4"/>
+      <c r="KQ39" s="4"/>
+      <c r="KR39" s="4"/>
+      <c r="KS39" s="4"/>
+      <c r="KT39" s="4"/>
+      <c r="KU39" s="4"/>
+      <c r="KV39" s="4"/>
+      <c r="KW39" s="4"/>
+      <c r="KX39" s="4"/>
+      <c r="KY39" s="4"/>
+      <c r="KZ39" s="4"/>
+      <c r="LA39" s="4"/>
+      <c r="LB39" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="LC39" s="4">
+        <v>0.19979</v>
+      </c>
+      <c r="LD39" s="4"/>
+      <c r="LE39" s="4"/>
+      <c r="LF39" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="LG39" s="4">
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="LH39" s="4"/>
+      <c r="LI39" s="4"/>
+      <c r="LJ39" s="4"/>
+      <c r="LK39" s="4">
+        <v>0.40139000000000002</v>
+      </c>
+      <c r="LL39" s="4"/>
+      <c r="LM39" s="4"/>
+      <c r="LN39" s="4"/>
+      <c r="LO39" s="4"/>
+      <c r="LP39" s="4"/>
+      <c r="LQ39" s="4"/>
+      <c r="LR39" s="4"/>
+      <c r="LS39" s="4"/>
+      <c r="LT39" s="4"/>
+      <c r="LU39" s="4"/>
+      <c r="LV39" s="4"/>
+      <c r="LW39" s="4"/>
+      <c r="LX39" s="4"/>
+      <c r="LY39" s="4"/>
+      <c r="LZ39" s="4"/>
+      <c r="MA39" s="4"/>
+      <c r="MB39" s="4"/>
+      <c r="MC39" s="4"/>
+      <c r="MD39" s="4"/>
+      <c r="ME39" s="4"/>
+      <c r="MF39" s="4"/>
+      <c r="MG39" s="4"/>
+      <c r="MH39" s="4"/>
+      <c r="MI39" s="4"/>
+      <c r="MJ39" s="4"/>
+      <c r="MK39" s="4"/>
+      <c r="ML39" s="4"/>
+      <c r="MM39" s="4"/>
+      <c r="MN39" s="4"/>
+      <c r="MO39" s="4"/>
+      <c r="MP39" s="4"/>
+      <c r="MQ39" s="4"/>
+      <c r="MR39" s="4"/>
+      <c r="MS39" s="4"/>
+      <c r="MT39" s="4"/>
+      <c r="MU39" s="4"/>
+      <c r="MV39" s="4"/>
+      <c r="MW39" s="4"/>
+      <c r="MX39" s="4"/>
+      <c r="MY39" s="4"/>
+      <c r="MZ39" s="4"/>
+      <c r="NA39" s="4"/>
+      <c r="NB39" s="4"/>
+      <c r="NC39" s="4"/>
+      <c r="ND39" s="4"/>
+      <c r="NE39" s="4"/>
+      <c r="NF39" s="4"/>
+      <c r="NG39" s="4"/>
+      <c r="NH39" s="4"/>
+      <c r="NI39" s="4"/>
+      <c r="NJ39" s="4"/>
+      <c r="NK39" s="4"/>
+      <c r="NL39" s="4"/>
+      <c r="NM39" s="4"/>
+      <c r="NN39" s="4"/>
+      <c r="NO39" s="4"/>
+      <c r="NP39" s="4"/>
+      <c r="NQ39" s="4"/>
+      <c r="NR39" s="4"/>
+      <c r="NS39" s="4"/>
+      <c r="NT39" s="4"/>
+      <c r="NU39" s="4"/>
+      <c r="NV39" s="4"/>
+      <c r="NW39" s="4"/>
+      <c r="NX39" s="4"/>
+      <c r="NY39" s="4"/>
+      <c r="NZ39" s="4"/>
+      <c r="OA39" s="4"/>
+      <c r="OB39" s="4"/>
+      <c r="OC39" s="4"/>
+      <c r="OD39" s="4"/>
+      <c r="OE39" s="4"/>
+      <c r="OF39" s="4"/>
+      <c r="OG39" s="4"/>
+      <c r="OH39" s="4"/>
+      <c r="OI39" s="4"/>
+      <c r="OJ39" s="4"/>
+      <c r="OK39" s="4"/>
+      <c r="OL39" s="4"/>
+      <c r="OM39" s="4"/>
+      <c r="ON39" s="4"/>
+      <c r="OO39" s="4"/>
+      <c r="OP39" s="4"/>
+      <c r="OQ39" s="4"/>
+      <c r="OR39" s="4"/>
+      <c r="OS39" s="4"/>
+      <c r="OT39" s="4"/>
+      <c r="OU39" s="4"/>
+      <c r="OV39" s="4"/>
+      <c r="OW39" s="4"/>
+      <c r="OX39" s="4"/>
+      <c r="OY39" s="4"/>
+      <c r="OZ39" s="4"/>
+      <c r="PA39" s="4"/>
+      <c r="PB39" s="4"/>
+      <c r="PC39" s="4"/>
+      <c r="PD39" s="4"/>
+      <c r="PE39" s="4"/>
+      <c r="PF39" s="4"/>
+      <c r="PG39" s="4"/>
+      <c r="PH39" s="4"/>
+      <c r="PI39" s="4"/>
+      <c r="PJ39" s="4"/>
+      <c r="PK39" s="4"/>
+      <c r="PL39" s="4"/>
+      <c r="PM39" s="4"/>
+      <c r="PN39" s="4"/>
+      <c r="PO39" s="4"/>
+      <c r="PP39" s="4"/>
+      <c r="PQ39" s="4"/>
+      <c r="PR39" s="4"/>
+      <c r="PS39" s="4"/>
+      <c r="PT39" s="4"/>
+      <c r="PU39" s="4"/>
+      <c r="PV39" s="4"/>
+      <c r="PW39" s="4"/>
+      <c r="PX39" s="4"/>
+      <c r="PY39" s="4"/>
+      <c r="PZ39" s="4"/>
+      <c r="QA39" s="4"/>
+      <c r="QB39" s="4"/>
+      <c r="QC39" s="4"/>
+      <c r="QD39" s="4"/>
+      <c r="QE39" s="4"/>
+      <c r="QF39" s="4"/>
+      <c r="QG39" s="4"/>
+      <c r="QH39" s="4"/>
+      <c r="QI39" s="4"/>
+      <c r="QJ39" s="4"/>
+      <c r="QK39" s="4"/>
+      <c r="QL39" s="4"/>
+      <c r="QM39" s="4"/>
+      <c r="QN39" s="4"/>
+      <c r="QO39" s="4"/>
+      <c r="QP39" s="4"/>
+      <c r="QQ39" s="4"/>
+      <c r="QR39" s="4"/>
+      <c r="QS39" s="4"/>
+      <c r="QT39" s="4"/>
+      <c r="QU39" s="4"/>
+      <c r="QV39" s="4"/>
+      <c r="QW39" s="4"/>
+      <c r="QX39" s="4"/>
+      <c r="QY39" s="4"/>
+      <c r="QZ39" s="4"/>
+      <c r="RA39" s="4"/>
+      <c r="RB39" s="4"/>
+      <c r="RC39" s="4"/>
+      <c r="RD39" s="4"/>
+      <c r="RE39" s="4"/>
+      <c r="RF39" s="4"/>
+      <c r="RG39" s="4"/>
+      <c r="RH39" s="4"/>
+      <c r="RI39" s="4"/>
+      <c r="RJ39" s="4"/>
+      <c r="RK39" s="4"/>
+      <c r="RL39" s="4"/>
+      <c r="RM39" s="4"/>
+      <c r="RN39" s="4"/>
+      <c r="RO39" s="4"/>
+      <c r="RP39" s="4"/>
+      <c r="RQ39" s="4"/>
+      <c r="RR39" s="4"/>
+      <c r="RS39" s="4"/>
+      <c r="RT39" s="4"/>
+      <c r="RU39" s="4"/>
+      <c r="RV39" s="4"/>
+      <c r="RW39" s="4"/>
+      <c r="RX39" s="4"/>
+      <c r="RY39" s="4"/>
+      <c r="RZ39" s="4"/>
+      <c r="SA39" s="4"/>
+      <c r="SB39" s="4"/>
+      <c r="SC39" s="4"/>
+      <c r="SD39" s="4"/>
+      <c r="SE39" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="SF39" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="SG39" s="4"/>
+      <c r="SH39" s="4"/>
+      <c r="SI39" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="SJ39" s="4">
+        <v>10</v>
+      </c>
+      <c r="SK39" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="SL39" s="4"/>
+      <c r="SM39" s="4"/>
+      <c r="SN39" s="4"/>
+      <c r="SO39" s="4"/>
+      <c r="SP39" s="4"/>
+      <c r="SQ39" s="4"/>
+      <c r="SR39" s="4"/>
+      <c r="SS39" s="4"/>
+      <c r="ST39" s="4"/>
+      <c r="SU39" s="4"/>
+      <c r="SV39" s="4"/>
+      <c r="SW39" s="5">
+        <v>43083.578067129631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B40" s="4">
+        <v>14328</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43031.958333333336</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+      <c r="BS40" s="4"/>
+      <c r="BT40" s="4"/>
+      <c r="BU40" s="4"/>
+      <c r="BV40" s="4"/>
+      <c r="BW40" s="4"/>
+      <c r="BX40" s="4"/>
+      <c r="BY40" s="4"/>
+      <c r="BZ40" s="4"/>
+      <c r="CA40" s="4"/>
+      <c r="CB40" s="4"/>
+      <c r="CC40" s="4"/>
+      <c r="CD40" s="4"/>
+      <c r="CE40" s="4"/>
+      <c r="CF40" s="4"/>
+      <c r="CG40" s="4"/>
+      <c r="CH40" s="4"/>
+      <c r="CI40" s="4"/>
+      <c r="CJ40" s="4"/>
+      <c r="CK40" s="4"/>
+      <c r="CL40" s="4"/>
+      <c r="CM40" s="4"/>
+      <c r="CN40" s="4"/>
+      <c r="CO40" s="4"/>
+      <c r="CP40" s="4"/>
+      <c r="CQ40" s="4"/>
+      <c r="CR40" s="4"/>
+      <c r="CS40" s="4"/>
+      <c r="CT40" s="4"/>
+      <c r="CU40" s="4"/>
+      <c r="CV40" s="4"/>
+      <c r="CW40" s="4"/>
+      <c r="CX40" s="4"/>
+      <c r="CY40" s="4"/>
+      <c r="CZ40" s="4"/>
+      <c r="DA40" s="4"/>
+      <c r="DB40" s="4"/>
+      <c r="DC40" s="4"/>
+      <c r="DD40" s="4"/>
+      <c r="DE40" s="4"/>
+      <c r="DF40" s="4"/>
+      <c r="DG40" s="4"/>
+      <c r="DH40" s="4"/>
+      <c r="DI40" s="4"/>
+      <c r="DJ40" s="4"/>
+      <c r="DK40" s="4"/>
+      <c r="DL40" s="4"/>
+      <c r="DM40" s="4"/>
+      <c r="DN40" s="4"/>
+      <c r="DO40" s="4"/>
+      <c r="DP40" s="4"/>
+      <c r="DQ40" s="4"/>
+      <c r="DR40" s="4"/>
+      <c r="DS40" s="4"/>
+      <c r="DT40" s="4"/>
+      <c r="DU40" s="4"/>
+      <c r="DV40" s="4"/>
+      <c r="DW40" s="4"/>
+      <c r="DX40" s="4"/>
+      <c r="DY40" s="4"/>
+      <c r="DZ40" s="4"/>
+      <c r="EA40" s="4"/>
+      <c r="EB40" s="4"/>
+      <c r="EC40" s="4"/>
+      <c r="ED40" s="4"/>
+      <c r="EE40" s="4"/>
+      <c r="EF40" s="4"/>
+      <c r="EG40" s="4"/>
+      <c r="EH40" s="4"/>
+      <c r="EI40" s="4"/>
+      <c r="EJ40" s="4"/>
+      <c r="EK40" s="4"/>
+      <c r="EL40" s="4"/>
+      <c r="EM40" s="4"/>
+      <c r="EN40" s="4"/>
+      <c r="EO40" s="4"/>
+      <c r="EP40" s="4"/>
+      <c r="EQ40" s="4"/>
+      <c r="ER40" s="4"/>
+      <c r="ES40" s="4"/>
+      <c r="ET40" s="4"/>
+      <c r="EU40" s="4"/>
+      <c r="EV40" s="4"/>
+      <c r="EW40" s="4"/>
+      <c r="EX40" s="4"/>
+      <c r="EY40" s="4"/>
+      <c r="EZ40" s="4"/>
+      <c r="FA40" s="4"/>
+      <c r="FB40" s="4"/>
+      <c r="FC40" s="4"/>
+      <c r="FD40" s="4"/>
+      <c r="FE40" s="4"/>
+      <c r="FF40" s="4"/>
+      <c r="FG40" s="4"/>
+      <c r="FH40" s="4"/>
+      <c r="FI40" s="4"/>
+      <c r="FJ40" s="4"/>
+      <c r="FK40" s="4"/>
+      <c r="FL40" s="4"/>
+      <c r="FM40" s="4"/>
+      <c r="FN40" s="4"/>
+      <c r="FO40" s="4"/>
+      <c r="FP40" s="4"/>
+      <c r="FQ40" s="4"/>
+      <c r="FR40" s="4"/>
+      <c r="FS40" s="4"/>
+      <c r="FT40" s="4"/>
+      <c r="FU40" s="4"/>
+      <c r="FV40" s="4"/>
+      <c r="FW40" s="4"/>
+      <c r="FX40" s="4"/>
+      <c r="FY40" s="4"/>
+      <c r="FZ40" s="4"/>
+      <c r="GA40" s="4"/>
+      <c r="GB40" s="4"/>
+      <c r="GC40" s="4"/>
+      <c r="GD40" s="4"/>
+      <c r="GE40" s="4"/>
+      <c r="GF40" s="4"/>
+      <c r="GG40" s="4"/>
+      <c r="GH40" s="4"/>
+      <c r="GI40" s="4"/>
+      <c r="GJ40" s="4"/>
+      <c r="GK40" s="4"/>
+      <c r="GL40" s="4"/>
+      <c r="GM40" s="4"/>
+      <c r="GN40" s="4"/>
+      <c r="GO40" s="4"/>
+      <c r="GP40" s="4"/>
+      <c r="GQ40" s="4"/>
+      <c r="GR40" s="4"/>
+      <c r="GS40" s="4"/>
+      <c r="GT40" s="4"/>
+      <c r="GU40" s="4"/>
+      <c r="GV40" s="4"/>
+      <c r="GW40" s="4"/>
+      <c r="GX40" s="4"/>
+      <c r="GY40" s="4"/>
+      <c r="GZ40" s="4"/>
+      <c r="HA40" s="4"/>
+      <c r="HB40" s="4"/>
+      <c r="HC40" s="4"/>
+      <c r="HD40" s="4"/>
+      <c r="HE40" s="4"/>
+      <c r="HF40" s="4"/>
+      <c r="HG40" s="4"/>
+      <c r="HH40" s="4"/>
+      <c r="HI40" s="4"/>
+      <c r="HJ40" s="4"/>
+      <c r="HK40" s="4"/>
+      <c r="HL40" s="4"/>
+      <c r="HM40" s="4"/>
+      <c r="HN40" s="4"/>
+      <c r="HO40" s="4"/>
+      <c r="HP40" s="4"/>
+      <c r="HQ40" s="4"/>
+      <c r="HR40" s="4"/>
+      <c r="HS40" s="4"/>
+      <c r="HT40" s="4"/>
+      <c r="HU40" s="4"/>
+      <c r="HV40" s="4"/>
+      <c r="HW40" s="4"/>
+      <c r="HX40" s="4"/>
+      <c r="HY40" s="4"/>
+      <c r="HZ40" s="4"/>
+      <c r="IA40" s="4"/>
+      <c r="IB40" s="4"/>
+      <c r="IC40" s="4"/>
+      <c r="ID40" s="4"/>
+      <c r="IE40" s="4"/>
+      <c r="IF40" s="4"/>
+      <c r="IG40" s="4"/>
+      <c r="IH40" s="4"/>
+      <c r="II40" s="4"/>
+      <c r="IJ40" s="4"/>
+      <c r="IK40" s="4"/>
+      <c r="IL40" s="4"/>
+      <c r="IM40" s="4"/>
+      <c r="IN40" s="4"/>
+      <c r="IO40" s="4"/>
+      <c r="IP40" s="4"/>
+      <c r="IQ40" s="4"/>
+      <c r="IR40" s="4"/>
+      <c r="IS40" s="4"/>
+      <c r="IT40" s="4"/>
+      <c r="IU40" s="4"/>
+      <c r="IV40" s="4"/>
+      <c r="IW40" s="4"/>
+      <c r="IX40" s="4"/>
+      <c r="IY40" s="4"/>
+      <c r="IZ40" s="4"/>
+      <c r="JA40" s="4"/>
+      <c r="JB40" s="4"/>
+      <c r="JC40" s="4"/>
+      <c r="JD40" s="4"/>
+      <c r="JE40" s="4"/>
+      <c r="JF40" s="4"/>
+      <c r="JG40" s="4"/>
+      <c r="JH40" s="4"/>
+      <c r="JI40" s="4"/>
+      <c r="JJ40" s="4"/>
+      <c r="JK40" s="4">
+        <v>0.12225</v>
+      </c>
+      <c r="JL40" s="4"/>
+      <c r="JM40" s="4"/>
+      <c r="JN40" s="4"/>
+      <c r="JO40" s="4"/>
+      <c r="JP40" s="4"/>
+      <c r="JQ40" s="4"/>
+      <c r="JR40" s="4"/>
+      <c r="JS40" s="4"/>
+      <c r="JT40" s="4"/>
+      <c r="JU40" s="4"/>
+      <c r="JV40" s="4"/>
+      <c r="JW40" s="4"/>
+      <c r="JX40" s="4"/>
+      <c r="JY40" s="4"/>
+      <c r="JZ40" s="4"/>
+      <c r="KA40" s="4"/>
+      <c r="KB40" s="4"/>
+      <c r="KC40" s="4"/>
+      <c r="KD40" s="4"/>
+      <c r="KE40" s="4"/>
+      <c r="KF40" s="4"/>
+      <c r="KG40" s="4"/>
+      <c r="KH40" s="4"/>
+      <c r="KI40" s="4"/>
+      <c r="KJ40" s="4"/>
+      <c r="KK40" s="4"/>
+      <c r="KL40" s="4"/>
+      <c r="KM40" s="4"/>
+      <c r="KN40" s="4"/>
+      <c r="KO40" s="4"/>
+      <c r="KP40" s="4"/>
+      <c r="KQ40" s="4"/>
+      <c r="KR40" s="4"/>
+      <c r="KS40" s="4"/>
+      <c r="KT40" s="4"/>
+      <c r="KU40" s="4"/>
+      <c r="KV40" s="4"/>
+      <c r="KW40" s="4"/>
+      <c r="KX40" s="4"/>
+      <c r="KY40" s="4"/>
+      <c r="KZ40" s="4"/>
+      <c r="LA40" s="4"/>
+      <c r="LB40" s="4"/>
+      <c r="LC40" s="4">
+        <v>0.24986</v>
+      </c>
+      <c r="LD40" s="4"/>
+      <c r="LE40" s="4"/>
+      <c r="LF40" s="4"/>
+      <c r="LG40" s="4"/>
+      <c r="LH40" s="4"/>
+      <c r="LI40" s="4"/>
+      <c r="LJ40" s="4"/>
+      <c r="LK40" s="4"/>
+      <c r="LL40" s="4"/>
+      <c r="LM40" s="4"/>
+      <c r="LN40" s="4"/>
+      <c r="LO40" s="4"/>
+      <c r="LP40" s="4"/>
+      <c r="LQ40" s="4"/>
+      <c r="LR40" s="4"/>
+      <c r="LS40" s="4"/>
+      <c r="LT40" s="4"/>
+      <c r="LU40" s="4"/>
+      <c r="LV40" s="4"/>
+      <c r="LW40" s="4"/>
+      <c r="LX40" s="4"/>
+      <c r="LY40" s="4"/>
+      <c r="LZ40" s="4"/>
+      <c r="MA40" s="4"/>
+      <c r="MB40" s="4"/>
+      <c r="MC40" s="4"/>
+      <c r="MD40" s="4"/>
+      <c r="ME40" s="4"/>
+      <c r="MF40" s="4"/>
+      <c r="MG40" s="4"/>
+      <c r="MH40" s="4"/>
+      <c r="MI40" s="4">
+        <v>0.45389000000000002</v>
+      </c>
+      <c r="MJ40" s="4"/>
+      <c r="MK40" s="4"/>
+      <c r="ML40" s="4"/>
+      <c r="MM40" s="4"/>
+      <c r="MN40" s="4"/>
+      <c r="MO40" s="4"/>
+      <c r="MP40" s="4"/>
+      <c r="MQ40" s="4"/>
+      <c r="MR40" s="4"/>
+      <c r="MS40" s="4"/>
+      <c r="MT40" s="4"/>
+      <c r="MU40" s="4"/>
+      <c r="MV40" s="4"/>
+      <c r="MW40" s="4"/>
+      <c r="MX40" s="4"/>
+      <c r="MY40" s="4"/>
+      <c r="MZ40" s="4"/>
+      <c r="NA40" s="4"/>
+      <c r="NB40" s="4"/>
+      <c r="NC40" s="4">
+        <v>0.12503</v>
+      </c>
+      <c r="ND40" s="4"/>
+      <c r="NE40" s="4"/>
+      <c r="NF40" s="4"/>
+      <c r="NG40" s="4"/>
+      <c r="NH40" s="4"/>
+      <c r="NI40" s="4"/>
+      <c r="NJ40" s="4"/>
+      <c r="NK40" s="4"/>
+      <c r="NL40" s="4"/>
+      <c r="NM40" s="4"/>
+      <c r="NN40" s="4"/>
+      <c r="NO40" s="4"/>
+      <c r="NP40" s="4"/>
+      <c r="NQ40" s="4"/>
+      <c r="NR40" s="4"/>
+      <c r="NS40" s="4"/>
+      <c r="NT40" s="4"/>
+      <c r="NU40" s="4"/>
+      <c r="NV40" s="4"/>
+      <c r="NW40" s="4">
+        <v>0.19794</v>
+      </c>
+      <c r="NX40" s="4"/>
+      <c r="NY40" s="4"/>
+      <c r="NZ40" s="4"/>
+      <c r="OA40" s="4"/>
+      <c r="OB40" s="4"/>
+      <c r="OC40" s="4"/>
+      <c r="OD40" s="4"/>
+      <c r="OE40" s="4"/>
+      <c r="OF40" s="4"/>
+      <c r="OG40" s="4"/>
+      <c r="OH40" s="4"/>
+      <c r="OI40" s="4"/>
+      <c r="OJ40" s="4"/>
+      <c r="OK40" s="4"/>
+      <c r="OL40" s="4"/>
+      <c r="OM40" s="4"/>
+      <c r="ON40" s="4"/>
+      <c r="OO40" s="4"/>
+      <c r="OP40" s="4"/>
+      <c r="OQ40" s="4">
+        <v>0.32018000000000002</v>
+      </c>
+      <c r="OR40" s="4"/>
+      <c r="OS40" s="4"/>
+      <c r="OT40" s="4"/>
+      <c r="OU40" s="4"/>
+      <c r="OV40" s="4"/>
+      <c r="OW40" s="4"/>
+      <c r="OX40" s="4"/>
+      <c r="OY40" s="4"/>
+      <c r="OZ40" s="4"/>
+      <c r="PA40" s="4"/>
+      <c r="PB40" s="4"/>
+      <c r="PC40" s="4"/>
+      <c r="PD40" s="4"/>
+      <c r="PE40" s="4"/>
+      <c r="PF40" s="4"/>
+      <c r="PG40" s="4"/>
+      <c r="PH40" s="4"/>
+      <c r="PI40" s="4"/>
+      <c r="PJ40" s="4"/>
+      <c r="PK40" s="4"/>
+      <c r="PL40" s="4"/>
+      <c r="PM40" s="4"/>
+      <c r="PN40" s="4"/>
+      <c r="PO40" s="4"/>
+      <c r="PP40" s="4"/>
+      <c r="PQ40" s="4"/>
+      <c r="PR40" s="4"/>
+      <c r="PS40" s="4"/>
+      <c r="PT40" s="4"/>
+      <c r="PU40" s="4"/>
+      <c r="PV40" s="4"/>
+      <c r="PW40" s="4"/>
+      <c r="PX40" s="4"/>
+      <c r="PY40" s="4"/>
+      <c r="PZ40" s="4"/>
+      <c r="QA40" s="4"/>
+      <c r="QB40" s="4"/>
+      <c r="QC40" s="4"/>
+      <c r="QD40" s="4"/>
+      <c r="QE40" s="4"/>
+      <c r="QF40" s="4"/>
+      <c r="QG40" s="4"/>
+      <c r="QH40" s="4"/>
+      <c r="QI40" s="4"/>
+      <c r="QJ40" s="4"/>
+      <c r="QK40" s="4"/>
+      <c r="QL40" s="4"/>
+      <c r="QM40" s="4"/>
+      <c r="QN40" s="4"/>
+      <c r="QO40" s="4"/>
+      <c r="QP40" s="4"/>
+      <c r="QQ40" s="4"/>
+      <c r="QR40" s="4"/>
+      <c r="QS40" s="4"/>
+      <c r="QT40" s="4"/>
+      <c r="QU40" s="4"/>
+      <c r="QV40" s="4"/>
+      <c r="QW40" s="4"/>
+      <c r="QX40" s="4"/>
+      <c r="QY40" s="4"/>
+      <c r="QZ40" s="4"/>
+      <c r="RA40" s="4"/>
+      <c r="RB40" s="4"/>
+      <c r="RC40" s="4"/>
+      <c r="RD40" s="4"/>
+      <c r="RE40" s="4"/>
+      <c r="RF40" s="4"/>
+      <c r="RG40" s="4"/>
+      <c r="RH40" s="4"/>
+      <c r="RI40" s="4"/>
+      <c r="RJ40" s="4"/>
+      <c r="RK40" s="4"/>
+      <c r="RL40" s="4"/>
+      <c r="RM40" s="4"/>
+      <c r="RN40" s="4"/>
+      <c r="RO40" s="4"/>
+      <c r="RP40" s="4"/>
+      <c r="RQ40" s="4"/>
+      <c r="RR40" s="4"/>
+      <c r="RS40" s="4"/>
+      <c r="RT40" s="4"/>
+      <c r="RU40" s="4"/>
+      <c r="RV40" s="4"/>
+      <c r="RW40" s="4"/>
+      <c r="RX40" s="4"/>
+      <c r="RY40" s="4"/>
+      <c r="RZ40" s="4"/>
+      <c r="SA40" s="4"/>
+      <c r="SB40" s="4"/>
+      <c r="SC40" s="4"/>
+      <c r="SD40" s="4"/>
+      <c r="SE40" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="SF40" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="SG40" s="4"/>
+      <c r="SH40" s="4"/>
+      <c r="SI40" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="SJ40" s="4">
+        <v>10</v>
+      </c>
+      <c r="SK40" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="SL40" s="4"/>
+      <c r="SM40" s="4"/>
+      <c r="SN40" s="4"/>
+      <c r="SO40" s="4"/>
+      <c r="SP40" s="4"/>
+      <c r="SQ40" s="4"/>
+      <c r="SR40" s="4"/>
+      <c r="SS40" s="4"/>
+      <c r="ST40" s="4"/>
+      <c r="SU40" s="4"/>
+      <c r="SV40" s="4"/>
+      <c r="SW40" s="5">
+        <v>43083.620462962965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:517" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B41" s="4">
+        <v>14328</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D41" s="5">
+        <v>43031.958333333336</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+      <c r="BL41" s="4"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4"/>
+      <c r="BO41" s="4"/>
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="4"/>
+      <c r="BR41" s="4"/>
+      <c r="BS41" s="4"/>
+      <c r="BT41" s="4"/>
+      <c r="BU41" s="4"/>
+      <c r="BV41" s="4"/>
+      <c r="BW41" s="4"/>
+      <c r="BX41" s="4"/>
+      <c r="BY41" s="4"/>
+      <c r="BZ41" s="4"/>
+      <c r="CA41" s="4"/>
+      <c r="CB41" s="4"/>
+      <c r="CC41" s="4"/>
+      <c r="CD41" s="4"/>
+      <c r="CE41" s="4"/>
+      <c r="CF41" s="4"/>
+      <c r="CG41" s="4"/>
+      <c r="CH41" s="4"/>
+      <c r="CI41" s="4"/>
+      <c r="CJ41" s="4"/>
+      <c r="CK41" s="4"/>
+      <c r="CL41" s="4"/>
+      <c r="CM41" s="4"/>
+      <c r="CN41" s="4"/>
+      <c r="CO41" s="4"/>
+      <c r="CP41" s="4"/>
+      <c r="CQ41" s="4"/>
+      <c r="CR41" s="4"/>
+      <c r="CS41" s="4"/>
+      <c r="CT41" s="4"/>
+      <c r="CU41" s="4"/>
+      <c r="CV41" s="4"/>
+      <c r="CW41" s="4"/>
+      <c r="CX41" s="4"/>
+      <c r="CY41" s="4"/>
+      <c r="CZ41" s="4"/>
+      <c r="DA41" s="4"/>
+      <c r="DB41" s="4"/>
+      <c r="DC41" s="4"/>
+      <c r="DD41" s="4"/>
+      <c r="DE41" s="4"/>
+      <c r="DF41" s="4"/>
+      <c r="DG41" s="4"/>
+      <c r="DH41" s="4"/>
+      <c r="DI41" s="4"/>
+      <c r="DJ41" s="4"/>
+      <c r="DK41" s="4"/>
+      <c r="DL41" s="4"/>
+      <c r="DM41" s="4"/>
+      <c r="DN41" s="4"/>
+      <c r="DO41" s="4"/>
+      <c r="DP41" s="4"/>
+      <c r="DQ41" s="4"/>
+      <c r="DR41" s="4"/>
+      <c r="DS41" s="4"/>
+      <c r="DT41" s="4"/>
+      <c r="DU41" s="4"/>
+      <c r="DV41" s="4"/>
+      <c r="DW41" s="4"/>
+      <c r="DX41" s="4"/>
+      <c r="DY41" s="4"/>
+      <c r="DZ41" s="4"/>
+      <c r="EA41" s="4"/>
+      <c r="EB41" s="4"/>
+      <c r="EC41" s="4"/>
+      <c r="ED41" s="4"/>
+      <c r="EE41" s="4"/>
+      <c r="EF41" s="4"/>
+      <c r="EG41" s="4"/>
+      <c r="EH41" s="4"/>
+      <c r="EI41" s="4"/>
+      <c r="EJ41" s="4"/>
+      <c r="EK41" s="4"/>
+      <c r="EL41" s="4"/>
+      <c r="EM41" s="4"/>
+      <c r="EN41" s="4"/>
+      <c r="EO41" s="4"/>
+      <c r="EP41" s="4"/>
+      <c r="EQ41" s="4"/>
+      <c r="ER41" s="4"/>
+      <c r="ES41" s="4"/>
+      <c r="ET41" s="4"/>
+      <c r="EU41" s="4"/>
+      <c r="EV41" s="4"/>
+      <c r="EW41" s="4"/>
+      <c r="EX41" s="4"/>
+      <c r="EY41" s="4"/>
+      <c r="EZ41" s="4"/>
+      <c r="FA41" s="4"/>
+      <c r="FB41" s="4"/>
+      <c r="FC41" s="4"/>
+      <c r="FD41" s="4"/>
+      <c r="FE41" s="4"/>
+      <c r="FF41" s="4"/>
+      <c r="FG41" s="4"/>
+      <c r="FH41" s="4"/>
+      <c r="FI41" s="4"/>
+      <c r="FJ41" s="4"/>
+      <c r="FK41" s="4"/>
+      <c r="FL41" s="4"/>
+      <c r="FM41" s="4"/>
+      <c r="FN41" s="4"/>
+      <c r="FO41" s="4"/>
+      <c r="FP41" s="4"/>
+      <c r="FQ41" s="4"/>
+      <c r="FR41" s="4"/>
+      <c r="FS41" s="4"/>
+      <c r="FT41" s="4"/>
+      <c r="FU41" s="4"/>
+      <c r="FV41" s="4"/>
+      <c r="FW41" s="4"/>
+      <c r="FX41" s="4"/>
+      <c r="FY41" s="4"/>
+      <c r="FZ41" s="4"/>
+      <c r="GA41" s="4"/>
+      <c r="GB41" s="4"/>
+      <c r="GC41" s="4"/>
+      <c r="GD41" s="4"/>
+      <c r="GE41" s="4"/>
+      <c r="GF41" s="4"/>
+      <c r="GG41" s="4"/>
+      <c r="GH41" s="4"/>
+      <c r="GI41" s="4"/>
+      <c r="GJ41" s="4"/>
+      <c r="GK41" s="4"/>
+      <c r="GL41" s="4"/>
+      <c r="GM41" s="4"/>
+      <c r="GN41" s="4"/>
+      <c r="GO41" s="4"/>
+      <c r="GP41" s="4"/>
+      <c r="GQ41" s="4"/>
+      <c r="GR41" s="4"/>
+      <c r="GS41" s="4"/>
+      <c r="GT41" s="4"/>
+      <c r="GU41" s="4"/>
+      <c r="GV41" s="4"/>
+      <c r="GW41" s="4"/>
+      <c r="GX41" s="4"/>
+      <c r="GY41" s="4"/>
+      <c r="GZ41" s="4"/>
+      <c r="HA41" s="4"/>
+      <c r="HB41" s="4"/>
+      <c r="HC41" s="4"/>
+      <c r="HD41" s="4"/>
+      <c r="HE41" s="4"/>
+      <c r="HF41" s="4"/>
+      <c r="HG41" s="4"/>
+      <c r="HH41" s="4"/>
+      <c r="HI41" s="4"/>
+      <c r="HJ41" s="4"/>
+      <c r="HK41" s="4"/>
+      <c r="HL41" s="4"/>
+      <c r="HM41" s="4"/>
+      <c r="HN41" s="4"/>
+      <c r="HO41" s="4"/>
+      <c r="HP41" s="4"/>
+      <c r="HQ41" s="4"/>
+      <c r="HR41" s="4"/>
+      <c r="HS41" s="4"/>
+      <c r="HT41" s="4"/>
+      <c r="HU41" s="4"/>
+      <c r="HV41" s="4"/>
+      <c r="HW41" s="4"/>
+      <c r="HX41" s="4"/>
+      <c r="HY41" s="4"/>
+      <c r="HZ41" s="4"/>
+      <c r="IA41" s="4"/>
+      <c r="IB41" s="4"/>
+      <c r="IC41" s="4"/>
+      <c r="ID41" s="4"/>
+      <c r="IE41" s="4"/>
+      <c r="IF41" s="4"/>
+      <c r="IG41" s="4"/>
+      <c r="IH41" s="4"/>
+      <c r="II41" s="4"/>
+      <c r="IJ41" s="4"/>
+      <c r="IK41" s="4"/>
+      <c r="IL41" s="4"/>
+      <c r="IM41" s="4"/>
+      <c r="IN41" s="4"/>
+      <c r="IO41" s="4"/>
+      <c r="IP41" s="4"/>
+      <c r="IQ41" s="4"/>
+      <c r="IR41" s="4"/>
+      <c r="IS41" s="4"/>
+      <c r="IT41" s="4"/>
+      <c r="IU41" s="4"/>
+      <c r="IV41" s="4"/>
+      <c r="IW41" s="4"/>
+      <c r="IX41" s="4"/>
+      <c r="IY41" s="4"/>
+      <c r="IZ41" s="4"/>
+      <c r="JA41" s="4"/>
+      <c r="JB41" s="4"/>
+      <c r="JC41" s="4"/>
+      <c r="JD41" s="4"/>
+      <c r="JE41" s="4"/>
+      <c r="JF41" s="4"/>
+      <c r="JG41" s="4"/>
+      <c r="JH41" s="4"/>
+      <c r="JI41" s="4"/>
+      <c r="JJ41" s="4"/>
+      <c r="JK41" s="4">
+        <v>0.12179</v>
+      </c>
+      <c r="JL41" s="4"/>
+      <c r="JM41" s="4"/>
+      <c r="JN41" s="4"/>
+      <c r="JO41" s="4"/>
+      <c r="JP41" s="4"/>
+      <c r="JQ41" s="4"/>
+      <c r="JR41" s="4"/>
+      <c r="JS41" s="4"/>
+      <c r="JT41" s="4"/>
+      <c r="JU41" s="4"/>
+      <c r="JV41" s="4"/>
+      <c r="JW41" s="4"/>
+      <c r="JX41" s="4"/>
+      <c r="JY41" s="4"/>
+      <c r="JZ41" s="4"/>
+      <c r="KA41" s="4"/>
+      <c r="KB41" s="4"/>
+      <c r="KC41" s="4"/>
+      <c r="KD41" s="4"/>
+      <c r="KE41" s="4"/>
+      <c r="KF41" s="4"/>
+      <c r="KG41" s="4"/>
+      <c r="KH41" s="4"/>
+      <c r="KI41" s="4"/>
+      <c r="KJ41" s="4"/>
+      <c r="KK41" s="4"/>
+      <c r="KL41" s="4"/>
+      <c r="KM41" s="4"/>
+      <c r="KN41" s="4"/>
+      <c r="KO41" s="4"/>
+      <c r="KP41" s="4"/>
+      <c r="KQ41" s="4"/>
+      <c r="KR41" s="4"/>
+      <c r="KS41" s="4"/>
+      <c r="KT41" s="4"/>
+      <c r="KU41" s="4"/>
+      <c r="KV41" s="4"/>
+      <c r="KW41" s="4"/>
+      <c r="KX41" s="4"/>
+      <c r="KY41" s="4"/>
+      <c r="KZ41" s="4"/>
+      <c r="LA41" s="4"/>
+      <c r="LB41" s="4"/>
+      <c r="LC41" s="4">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="LD41" s="4"/>
+      <c r="LE41" s="4"/>
+      <c r="LF41" s="4"/>
+      <c r="LG41" s="4"/>
+      <c r="LH41" s="4"/>
+      <c r="LI41" s="4"/>
+      <c r="LJ41" s="4"/>
+      <c r="LK41" s="4"/>
+      <c r="LL41" s="4"/>
+      <c r="LM41" s="4"/>
+      <c r="LN41" s="4"/>
+      <c r="LO41" s="4"/>
+      <c r="LP41" s="4"/>
+      <c r="LQ41" s="4"/>
+      <c r="LR41" s="4"/>
+      <c r="LS41" s="4"/>
+      <c r="LT41" s="4"/>
+      <c r="LU41" s="4"/>
+      <c r="LV41" s="4"/>
+      <c r="LW41" s="4"/>
+      <c r="LX41" s="4"/>
+      <c r="LY41" s="4"/>
+      <c r="LZ41" s="4"/>
+      <c r="MA41" s="4"/>
+      <c r="MB41" s="4"/>
+      <c r="MC41" s="4"/>
+      <c r="MD41" s="4"/>
+      <c r="ME41" s="4"/>
+      <c r="MF41" s="4"/>
+      <c r="MG41" s="4"/>
+      <c r="MH41" s="4"/>
+      <c r="MI41" s="4">
+        <v>0.44738</v>
+      </c>
+      <c r="MJ41" s="4"/>
+      <c r="MK41" s="4"/>
+      <c r="ML41" s="4"/>
+      <c r="MM41" s="4"/>
+      <c r="MN41" s="4"/>
+      <c r="MO41" s="4"/>
+      <c r="MP41" s="4"/>
+      <c r="MQ41" s="4"/>
+      <c r="MR41" s="4"/>
+      <c r="MS41" s="4"/>
+      <c r="MT41" s="4"/>
+      <c r="MU41" s="4"/>
+      <c r="MV41" s="4"/>
+      <c r="MW41" s="4"/>
+      <c r="MX41" s="4"/>
+      <c r="MY41" s="4"/>
+      <c r="MZ41" s="4"/>
+      <c r="NA41" s="4"/>
+      <c r="NB41" s="4"/>
+      <c r="NC41" s="4">
+        <v>0.12453</v>
+      </c>
+      <c r="ND41" s="4"/>
+      <c r="NE41" s="4"/>
+      <c r="NF41" s="4"/>
+      <c r="NG41" s="4"/>
+      <c r="NH41" s="4"/>
+      <c r="NI41" s="4"/>
+      <c r="NJ41" s="4"/>
+      <c r="NK41" s="4"/>
+      <c r="NL41" s="4"/>
+      <c r="NM41" s="4"/>
+      <c r="NN41" s="4"/>
+      <c r="NO41" s="4"/>
+      <c r="NP41" s="4"/>
+      <c r="NQ41" s="4"/>
+      <c r="NR41" s="4"/>
+      <c r="NS41" s="4"/>
+      <c r="NT41" s="4"/>
+      <c r="NU41" s="4"/>
+      <c r="NV41" s="4"/>
+      <c r="NW41" s="4">
+        <v>0.19447</v>
+      </c>
+      <c r="NX41" s="4"/>
+      <c r="NY41" s="4"/>
+      <c r="NZ41" s="4"/>
+      <c r="OA41" s="4"/>
+      <c r="OB41" s="4"/>
+      <c r="OC41" s="4"/>
+      <c r="OD41" s="4"/>
+      <c r="OE41" s="4"/>
+      <c r="OF41" s="4"/>
+      <c r="OG41" s="4"/>
+      <c r="OH41" s="4"/>
+      <c r="OI41" s="4"/>
+      <c r="OJ41" s="4"/>
+      <c r="OK41" s="4"/>
+      <c r="OL41" s="4"/>
+      <c r="OM41" s="4"/>
+      <c r="ON41" s="4"/>
+      <c r="OO41" s="4"/>
+      <c r="OP41" s="4"/>
+      <c r="OQ41" s="4">
+        <v>0.31324999999999997</v>
+      </c>
+      <c r="OR41" s="4"/>
+      <c r="OS41" s="4"/>
+      <c r="OT41" s="4"/>
+      <c r="OU41" s="4"/>
+      <c r="OV41" s="4"/>
+      <c r="OW41" s="4"/>
+      <c r="OX41" s="4"/>
+      <c r="OY41" s="4"/>
+      <c r="OZ41" s="4"/>
+      <c r="PA41" s="4"/>
+      <c r="PB41" s="4"/>
+      <c r="PC41" s="4"/>
+      <c r="PD41" s="4"/>
+      <c r="PE41" s="4"/>
+      <c r="PF41" s="4"/>
+      <c r="PG41" s="4"/>
+      <c r="PH41" s="4"/>
+      <c r="PI41" s="4"/>
+      <c r="PJ41" s="4"/>
+      <c r="PK41" s="4"/>
+      <c r="PL41" s="4"/>
+      <c r="PM41" s="4"/>
+      <c r="PN41" s="4"/>
+      <c r="PO41" s="4"/>
+      <c r="PP41" s="4"/>
+      <c r="PQ41" s="4"/>
+      <c r="PR41" s="4"/>
+      <c r="PS41" s="4"/>
+      <c r="PT41" s="4"/>
+      <c r="PU41" s="4"/>
+      <c r="PV41" s="4"/>
+      <c r="PW41" s="4"/>
+      <c r="PX41" s="4"/>
+      <c r="PY41" s="4"/>
+      <c r="PZ41" s="4"/>
+      <c r="QA41" s="4"/>
+      <c r="QB41" s="4"/>
+      <c r="QC41" s="4"/>
+      <c r="QD41" s="4"/>
+      <c r="QE41" s="4"/>
+      <c r="QF41" s="4"/>
+      <c r="QG41" s="4"/>
+      <c r="QH41" s="4"/>
+      <c r="QI41" s="4"/>
+      <c r="QJ41" s="4"/>
+      <c r="QK41" s="4"/>
+      <c r="QL41" s="4"/>
+      <c r="QM41" s="4"/>
+      <c r="QN41" s="4"/>
+      <c r="QO41" s="4"/>
+      <c r="QP41" s="4"/>
+      <c r="QQ41" s="4"/>
+      <c r="QR41" s="4"/>
+      <c r="QS41" s="4"/>
+      <c r="QT41" s="4"/>
+      <c r="QU41" s="4"/>
+      <c r="QV41" s="4"/>
+      <c r="QW41" s="4"/>
+      <c r="QX41" s="4"/>
+      <c r="QY41" s="4"/>
+      <c r="QZ41" s="4"/>
+      <c r="RA41" s="4"/>
+      <c r="RB41" s="4"/>
+      <c r="RC41" s="4"/>
+      <c r="RD41" s="4"/>
+      <c r="RE41" s="4"/>
+      <c r="RF41" s="4"/>
+      <c r="RG41" s="4"/>
+      <c r="RH41" s="4"/>
+      <c r="RI41" s="4"/>
+      <c r="RJ41" s="4"/>
+      <c r="RK41" s="4"/>
+      <c r="RL41" s="4"/>
+      <c r="RM41" s="4"/>
+      <c r="RN41" s="4"/>
+      <c r="RO41" s="4"/>
+      <c r="RP41" s="4"/>
+      <c r="RQ41" s="4"/>
+      <c r="RR41" s="4"/>
+      <c r="RS41" s="4"/>
+      <c r="RT41" s="4"/>
+      <c r="RU41" s="4"/>
+      <c r="RV41" s="4"/>
+      <c r="RW41" s="4"/>
+      <c r="RX41" s="4"/>
+      <c r="RY41" s="4"/>
+      <c r="RZ41" s="4"/>
+      <c r="SA41" s="4"/>
+      <c r="SB41" s="4"/>
+      <c r="SC41" s="4"/>
+      <c r="SD41" s="4"/>
+      <c r="SE41" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="SF41" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="SG41" s="4"/>
+      <c r="SH41" s="4"/>
+      <c r="SI41" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="SJ41" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="SK41" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="SL41" s="4"/>
+      <c r="SM41" s="4"/>
+      <c r="SN41" s="4"/>
+      <c r="SO41" s="4"/>
+      <c r="SP41" s="4"/>
+      <c r="SQ41" s="4"/>
+      <c r="SR41" s="4"/>
+      <c r="SS41" s="4"/>
+      <c r="ST41" s="4"/>
+      <c r="SU41" s="4"/>
+      <c r="SV41" s="4"/>
+      <c r="SW41" s="5">
+        <v>43083.62228009259</v>
       </c>
     </row>
   </sheetData>
@@ -11525,7 +19321,7 @@
   <dimension ref="A1:TG352"/>
   <sheetViews>
     <sheetView topLeftCell="RY1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:SW106"/>
+      <selection activeCell="SH17" sqref="SH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
